--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Programming\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik.huizinga/Dropbox/Software/Repos/GitHub/navarog/wingsearch/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4038B88-5E1D-46C8-876E-AD0084B1CCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D04ED-428F-924E-AD7C-3F950467FA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="938">
   <si>
     <t>id</t>
   </si>
@@ -2532,6 +2532,330 @@
   </si>
   <si>
     <t>Geelgors</t>
+  </si>
+  <si>
+    <t>ALS GEACTIVEERD</t>
+  </si>
+  <si>
+    <t>ALS GESPEELD</t>
+  </si>
+  <si>
+    <t>EENMALIG TUSSEN BEURTEN</t>
+  </si>
+  <si>
+    <t>EINDE RONDE</t>
+  </si>
+  <si>
+    <t>van de kaarten</t>
+  </si>
+  <si>
+    <t>Wijnbouwer</t>
+  </si>
+  <si>
+    <t>Vogels die [fruit] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel met een [fruit]-symbool. De vogel mag daarnaast andere soorten voedsel eten.</t>
+  </si>
+  <si>
+    <t>2 of 3 vogels: 3[point]; 4+ vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Ecoloog</t>
+  </si>
+  <si>
+    <t>Aantal vogels ini je leefomgeving met de minste vogels</t>
+  </si>
+  <si>
+    <t>Bij een gellijke stand: heb je bijvoorbeeld in elke leefomgeving 3 vogels, dan bevat je leefomgeving met de minste vogels er 3.</t>
+  </si>
+  <si>
+    <t>Etholoog</t>
+  </si>
+  <si>
+    <t>In één leefomgevinig naar keuze:</t>
+  </si>
+  <si>
+    <t>(bijvoobeeld bruin, wit, roze, blauwgroen)\nVogels zonder eigenschap gelden als wit.</t>
+  </si>
+  <si>
+    <t>2[point] per vogel</t>
+  </si>
+  <si>
+    <t>2[point] per eigenschapskleur</t>
+  </si>
+  <si>
+    <t>Fotograaf</t>
+  </si>
+  <si>
+    <t>Vogels met kleuren in hun namen</t>
+  </si>
+  <si>
+    <t>Onder kleuren vallen azuur, blauw, bont, bruin, citroen, geel, goud, grijs, groen, indigo, lazuli, purper, robijn, rood, rosse, tweekleurig, wit, zilver, zwart.</t>
+  </si>
+  <si>
+    <t>4 of 5 vogels: 3[point]; 6+ vogels: 6[point]</t>
+  </si>
+  <si>
+    <t>Broedmanager</t>
+  </si>
+  <si>
+    <t>Vogels waarop ten minste 4 eieren liggen</t>
+  </si>
+  <si>
+    <t>1[point] per vogel</t>
+  </si>
+  <si>
+    <t>Visserijbeheerder</t>
+  </si>
+  <si>
+    <t>Vogels die [fish] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel met een [fish]-symbool. De vogel mag daarnaast andere soorten voedsel eten.</t>
+  </si>
+  <si>
+    <t>2 of 3 vogels: 3[point]; 4+ vogels: 8[point]</t>
+  </si>
+  <si>
+    <t>Voedselwebexpert</t>
+  </si>
+  <si>
+    <t>Vogels die uitsluitend [invertebrate] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel met een [invertebrate]-symbool en geen andere voedselsymbolen.</t>
+  </si>
+  <si>
+    <t>Dieetspecialist</t>
+  </si>
+  <si>
+    <t>Vogels met voedselkosten van 3 voedsel</t>
+  </si>
+  <si>
+    <t>2 - 3 vogels: 3[point]; 4+ vogels: 6[point]</t>
+  </si>
+  <si>
+    <t>Vogels met vleugelwijdten boven 65 cm</t>
+  </si>
+  <si>
+    <t>Kaartenmaker</t>
+  </si>
+  <si>
+    <t>Vogels met gebiedsgerelateerde termen in hun namen</t>
+  </si>
+  <si>
+    <t>Onder gebiedsgerelateerde namen vallen Amerikaans, Baltimore, berg, Californisch, Canadees, Carolina, Ĳslandse, Inca, Louisiana, Mexicaans, Mississippi, prairie, savannah, woestijn.</t>
+  </si>
+  <si>
+    <t>3 of 4 vogels: 4[point]; 5+ vogels: 8[point]</t>
+  </si>
+  <si>
+    <t>"Grote Vogel"-Specialist</t>
+  </si>
+  <si>
+    <t>Visionair Leider</t>
+  </si>
+  <si>
+    <t>Vogelkaarten in de hand aan het einde van het spel</t>
+  </si>
+  <si>
+    <t>5, 6 of 7 vogels: 4[point]; 8+ vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Historicus</t>
+  </si>
+  <si>
+    <t>Vogels die naar een persoon zijn vernoemd</t>
+  </si>
+  <si>
+    <t>Onder deze categorie vallen Anna's, Bairds, Bells, Bewicks, Brewers, Cassins, Clarks, Coopers, Forsters, Franklins, Gambels, Lincolns, Says, Stellers.</t>
+  </si>
+  <si>
+    <t>Platformbouwer</t>
+  </si>
+  <si>
+    <t>Vogels met [platform]-nesten</t>
+  </si>
+  <si>
+    <t>De vogels moeten een [platform]- of [star]-nestsymbool hebben.</t>
+  </si>
+  <si>
+    <t>4 of 5 vogels: 4[point]; 6+ vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Prairiebeheerder</t>
+  </si>
+  <si>
+    <t>Vogels die uitsluitend in [grassland] kunnen leven</t>
+  </si>
+  <si>
+    <t>Moeraswetenschapper</t>
+  </si>
+  <si>
+    <t>Vogels die uitsluitend in [wetland] kunnen leven</t>
+  </si>
+  <si>
+    <t>3 of 4 vogels: 3[point]; 5 vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Boswachter</t>
+  </si>
+  <si>
+    <t>Vogels die uitsluitend in [forest] kunnen leven</t>
+  </si>
+  <si>
+    <t>3 of 4 vogels: 4[point]; 5 vogels: 8[point]</t>
+  </si>
+  <si>
+    <t>Vogelteller</t>
+  </si>
+  <si>
+    <t>Vogels met een [focking]-eigenschap</t>
+  </si>
+  <si>
+    <t>Gedragswetenschapper</t>
+  </si>
+  <si>
+    <t>Voor elke kolom waarin vogels met eigenschappen in 3 verschillende kleuren liggen (bijvoorbeeld bruin, wit, roze, blauwgroen):</t>
+  </si>
+  <si>
+    <t>Vogels zonder eigenschap gelden als wit.</t>
+  </si>
+  <si>
+    <t>3[point] per kolom</t>
+  </si>
+  <si>
+    <t>Knaagdierenexpert</t>
+  </si>
+  <si>
+    <t>Vogels die [rodent] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel met een [rodent]-symbool. De vogel mag daarnaast andere soorten voedsel eten.</t>
+  </si>
+  <si>
+    <t>Allesetersdeskundige</t>
+  </si>
+  <si>
+    <t>Vogels die [wild] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel die een [wild]-symbool als onderdeel van zijn voedselkosten heeft.</t>
+  </si>
+  <si>
+    <t>Nestkastenbouwer</t>
+  </si>
+  <si>
+    <t>Vogels met [cavity]-nesten</t>
+  </si>
+  <si>
+    <t>De vogels moeten een [cavity]- of [star]-nestsymbool hebben.</t>
+  </si>
+  <si>
+    <t>Burgerwetenschapper</t>
+  </si>
+  <si>
+    <t>Vogels met weggestopte kaarten</t>
+  </si>
+  <si>
+    <t>4 - 6 vogels: 3[point]; 7+ vogels: 6[point]</t>
+  </si>
+  <si>
+    <t>Ontleedkundige</t>
+  </si>
+  <si>
+    <t>Vogels met lichaamsdelen in hun naam</t>
+  </si>
+  <si>
+    <t>Onder lichaamsdelen vallen been, bek, borst, buik, eikel, hals, kaak, keel, kop, oog, oor, schouder, snavel, staart, teen, vleugel.</t>
+  </si>
+  <si>
+    <t>Achtertuinvogelaar</t>
+  </si>
+  <si>
+    <t>Vogels die minder dan 4 punten waard zijn</t>
+  </si>
+  <si>
+    <t>5 of 6 vogels: 3[point], 7+ vogels: 6[point]</t>
+  </si>
+  <si>
+    <t>Vogelvoeder</t>
+  </si>
+  <si>
+    <t>Vogels die [seed] eten</t>
+  </si>
+  <si>
+    <t>Elke vogel met een [seed]-symbool. De vogel mag daarnaast andere soorten voedsel eten.</t>
+  </si>
+  <si>
+    <t>5, 6 of 7 vogels: 3[point]; 8+ vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Valkenier</t>
+  </si>
+  <si>
+    <t>Vogels met een [predator]-eigenschap</t>
+  </si>
+  <si>
+    <t>Vogelringer</t>
+  </si>
+  <si>
+    <t>Vogels die in meerdere leefomgevingen kunnen leven</t>
+  </si>
+  <si>
+    <t>4 - 5 vogels: 4[point]; 6+ vogels: 7[point]</t>
+  </si>
+  <si>
+    <t>Gebiedsomheiner</t>
+  </si>
+  <si>
+    <t>Vogels met [ground]-nesten</t>
+  </si>
+  <si>
+    <t>De vogels moeten een [ground]- of [star]-nestsymbool hebben.</t>
+  </si>
+  <si>
+    <t>Broedkundige</t>
+  </si>
+  <si>
+    <t>Vogels waar ten minste 1 ei op ligt</t>
+  </si>
+  <si>
+    <t>7 of 8 vogels: 3[point]; 9+ vogels: 6[point]</t>
+  </si>
+  <si>
+    <t>Zangvogelspecalist</t>
+  </si>
+  <si>
+    <t>Vogels met vleugelwijdten van 30 cm of minder</t>
+  </si>
+  <si>
+    <t>Heemtuinier</t>
+  </si>
+  <si>
+    <t>Vogels met [bowl]-nesten</t>
+  </si>
+  <si>
+    <t>De vogels moeten een [bowl]- of [star]-nestsymbool hebben.</t>
+  </si>
+  <si>
+    <t>Vogels die 3 of 4 punten waard zijn.</t>
+  </si>
+  <si>
+    <t>De Automa houdt er ten hoogste 2 (hogere waarde eerst).</t>
+  </si>
+  <si>
+    <t>[automa] Auvogelaar</t>
+  </si>
+  <si>
+    <t>[automa] RASPB Erelid</t>
+  </si>
+  <si>
+    <t>Vogels die 5, 6 of 7 punten waard zijn.</t>
+  </si>
+  <si>
+    <t>De Automa houdt er ten hoogste één (die met de hoogste waarde).</t>
   </si>
 </sst>
 </file>
@@ -2959,21 +3283,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D262"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3013,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3033,7 +3357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3053,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3073,7 +3397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3093,7 +3417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3113,7 +3437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3133,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3153,7 +3477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3173,7 +3497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3193,7 +3517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3213,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3233,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3253,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3273,7 +3597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3293,7 +3617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3313,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3333,7 +3657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3353,7 +3677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3373,7 +3697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3393,7 +3717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3413,7 +3737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3433,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3453,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3473,7 +3797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3493,7 +3817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3513,7 +3837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3533,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3553,7 +3877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3573,7 +3897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3593,7 +3917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3613,7 +3937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3633,7 +3957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3653,7 +3977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3673,7 +3997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3693,7 +4017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3713,7 +4037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3733,7 +4057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3753,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3773,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3793,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3813,7 +4137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3833,7 +4157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3853,7 +4177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3873,7 +4197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3893,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3913,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3933,7 +4257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3953,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3973,7 +4297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3993,7 +4317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4013,7 +4337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4033,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4053,7 +4377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4073,7 +4397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4093,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4113,7 +4437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4133,7 +4457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4153,7 +4477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4173,7 +4497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4193,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4213,7 +4537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4233,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4253,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4273,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4293,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4313,7 +4637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4333,7 +4657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4353,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4373,7 +4697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4393,7 +4717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4413,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4433,7 +4757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4453,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4473,7 +4797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4493,7 +4817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4513,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4533,7 +4857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4553,7 +4877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4573,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4593,7 +4917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4613,7 +4937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4633,7 +4957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4653,7 +4977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4673,7 +4997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4693,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4713,7 +5037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4733,7 +5057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4753,7 +5077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4773,7 +5097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4793,7 +5117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4813,7 +5137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4833,7 +5157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4853,7 +5177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4873,7 +5197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4893,7 +5217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4913,7 +5237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4933,7 +5257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4953,7 +5277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4973,7 +5297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4993,7 +5317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5013,7 +5337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5033,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5053,7 +5377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5073,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5093,7 +5417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5113,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5133,7 +5457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5153,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5173,7 +5497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5193,7 +5517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5213,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5233,7 +5557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5253,7 +5577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5273,7 +5597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5293,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5313,7 +5637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5333,7 +5657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5353,7 +5677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5373,7 +5697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5393,7 +5717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5413,7 +5737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5433,7 +5757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5453,7 +5777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5473,7 +5797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5493,7 +5817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5513,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5533,7 +5857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5553,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5573,7 +5897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5593,7 +5917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5613,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5633,7 +5957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5653,7 +5977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5673,7 +5997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5693,7 +6017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5713,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5733,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5753,7 +6077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5773,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5793,7 +6117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5813,7 +6137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5833,7 +6157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5853,7 +6177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5873,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5893,7 +6217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5913,7 +6237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5933,7 +6257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5953,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5973,7 +6297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5993,7 +6317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6013,7 +6337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6033,7 +6357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6053,7 +6377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6073,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6093,7 +6417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6113,7 +6437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6133,7 +6457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6153,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6173,7 +6497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6193,7 +6517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6213,7 +6537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6233,7 +6557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6253,7 +6577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6273,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6293,7 +6617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6313,7 +6637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6333,7 +6657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6353,7 +6677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6373,7 +6697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6393,7 +6717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6413,7 +6737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6433,7 +6757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6453,7 +6777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6473,7 +6797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6493,7 +6817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6513,7 +6837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6533,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6553,7 +6877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6573,7 +6897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6593,7 +6917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6613,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6633,7 +6957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6653,7 +6977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6673,7 +6997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6693,7 +7017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6713,7 +7037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6733,7 +7057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6753,7 +7077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6773,7 +7097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6793,7 +7117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6813,7 +7137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6833,7 +7157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6853,7 +7177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6873,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6893,7 +7217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6913,7 +7237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6933,7 +7257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6953,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6973,7 +7297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
@@ -6993,7 +7317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7013,7 +7337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7033,7 +7357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7053,7 +7377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7073,7 +7397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7093,7 +7417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7113,7 +7437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7133,7 +7457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7153,7 +7477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7173,7 +7497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7193,7 +7517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7213,7 +7537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7233,7 +7557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7253,7 +7577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7273,7 +7597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7293,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7313,7 +7637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7333,7 +7657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7353,7 +7677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7373,7 +7697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7393,7 +7717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7413,7 +7737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7433,7 +7757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7453,7 +7777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7473,7 +7797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7493,7 +7817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7513,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7533,7 +7857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7553,7 +7877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7573,7 +7897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7593,7 +7917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7613,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7633,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>235</v>
       </c>
@@ -7653,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>236</v>
       </c>
@@ -7673,7 +7997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>237</v>
       </c>
@@ -7693,7 +8017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>238</v>
       </c>
@@ -7713,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>239</v>
       </c>
@@ -7733,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>240</v>
       </c>
@@ -7753,7 +8077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>241</v>
       </c>
@@ -7773,7 +8097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>242</v>
       </c>
@@ -7793,7 +8117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>243</v>
       </c>
@@ -7813,7 +8137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>244</v>
       </c>
@@ -7833,7 +8157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>245</v>
       </c>
@@ -7853,7 +8177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>246</v>
       </c>
@@ -7873,7 +8197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>247</v>
       </c>
@@ -7893,7 +8217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>248</v>
       </c>
@@ -7913,7 +8237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>249</v>
       </c>
@@ -7933,7 +8257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>250</v>
       </c>
@@ -7953,7 +8277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>251</v>
       </c>
@@ -7973,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>252</v>
       </c>
@@ -7993,7 +8317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8013,7 +8337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8033,7 +8357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8053,7 +8377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8073,7 +8397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8093,7 +8417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8113,7 +8437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8133,7 +8457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8153,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8173,7 +8497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8193,7 +8517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8225,20 +8549,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8261,7 +8587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8269,22 +8595,22 @@
         <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>906</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>907</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>908</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>838</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -8292,22 +8618,22 @@
         <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>909</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>910</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>911</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -8315,22 +8641,22 @@
         <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>890</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>891</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>892</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>893</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -8338,22 +8664,22 @@
         <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>918</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>919</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>920</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -8361,22 +8687,22 @@
         <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>888</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -8384,22 +8710,22 @@
         <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>912</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>913</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>914</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>915</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -8407,22 +8733,22 @@
         <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>851</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>852</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>853</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -8430,22 +8756,22 @@
         <v>540</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>865</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>866</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>867</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>868</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -8453,22 +8779,22 @@
         <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>903</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>904</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>905</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -8476,22 +8802,22 @@
         <v>542</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>861</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>862</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>863</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -8499,22 +8825,22 @@
         <v>543</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>839</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>840</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>841</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -8522,22 +8848,22 @@
         <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>921</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>922</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>923</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>879</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -8545,22 +8871,22 @@
         <v>545</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>842</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>843</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>844</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>846</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -8568,22 +8894,22 @@
         <v>546</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>916</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>917</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -8591,22 +8917,22 @@
         <v>547</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>854</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>855</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>856</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>857</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -8614,22 +8940,22 @@
         <v>548</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>858</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>859</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>860</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -8637,22 +8963,22 @@
         <v>549</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>885</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>886</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>887</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -8660,22 +8986,22 @@
         <v>550</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>873</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>874</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>875</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -8683,22 +9009,22 @@
         <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>869</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>864</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -8706,22 +9032,22 @@
         <v>552</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>901</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>902</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>879</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -8729,22 +9055,22 @@
         <v>553</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>897</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>898</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>899</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -8752,22 +9078,22 @@
         <v>554</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>924</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>925</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>926</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -8775,22 +9101,22 @@
         <v>555</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>927</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>928</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -8798,22 +9124,22 @@
         <v>556</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>847</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>848</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>849</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -8821,22 +9147,22 @@
         <v>557</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>876</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>877</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>878</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>879</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -8844,22 +9170,22 @@
         <v>558</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>880</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>881</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>857</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -8867,22 +9193,22 @@
         <v>559</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>894</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>895</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>896</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -8890,22 +9216,22 @@
         <v>560</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>870</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>871</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>872</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -8913,22 +9239,22 @@
         <v>561</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>835</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>836</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>837</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>838</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -8936,22 +9262,22 @@
         <v>562</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>882</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>883</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>884</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -8959,22 +9285,22 @@
         <v>563</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>929</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>930</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>931</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>879</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -8982,13 +9308,13 @@
         <v>564</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>934</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>932</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>933</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -8997,7 +9323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -9005,13 +9331,13 @@
         <v>565</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>935</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -9033,16 +9359,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9050,29 +9376,44 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>571</v>
+      </c>
+      <c r="B6" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik.huizinga/Dropbox/Software/Repos/GitHub/navarog/wingsearch/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D04ED-428F-924E-AD7C-3F950467FA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F340B01-BE3D-704E-B4C6-514B58B32E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1001">
   <si>
     <t>id</t>
   </si>
@@ -2003,9 +2003,6 @@
     <t>Glanstroepiaal</t>
   </si>
   <si>
-    <t>Ijsvogel</t>
-  </si>
-  <si>
     <t>Woudaap</t>
   </si>
   <si>
@@ -2856,6 +2853,198 @@
   </si>
   <si>
     <t>De Automa houdt er ten hoogste één (die met de hoogste waarde).</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, trek dan 1 [card].</t>
+  </si>
+  <si>
+    <t>bekijk een [card] van de gedekte stapel. Is die &lt; 100 cm, stop hem dan weg onder deze kaart. Zo niet, leg hem dan af.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, leg dan ook 1 [egg] op deze vogel.</t>
+  </si>
+  <si>
+    <t>ruil 1 [wild] tegen 1 ander [wild] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>trek 1 [card]. Doe je dat, leg dan aan het einde van je beurt 1 [card] uit je hand af.</t>
+  </si>
+  <si>
+    <t>trek 1 nieuwe bonuskaart. Trek dan 3 [card] en hou er 1 van.</t>
+  </si>
+  <si>
+    <t>speel een tweede vogel in je [grassland]. Betaal de normale kosten ervan.</t>
+  </si>
+  <si>
+    <t>leg deze vogel horizontaal neer, zodat deze 2 [grassland]-velden bedekt. Betaal de lagere eikosten.</t>
+  </si>
+  <si>
+    <t>herhaal een [predator]-eigenschap in deze leefomgeving.</t>
+  </si>
+  <si>
+    <t>speel een tweede vogel in je [forest]. Betaal de normale kosten ervan.</t>
+  </si>
+  <si>
+    <t>iedere speler pakt 1 [die] uit het vogelhuisje, te beginnen bij de speler naar jouw keuze.</t>
+  </si>
+  <si>
+    <t>speel een tweede vogel in je [grassland] of [forest]. Betaal de normale kosten ervan.</t>
+  </si>
+  <si>
+    <t>als een andere speler een [forest]-vogel speelt, pak jij 1 [invertebrate] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>bekijk een [card] van de gedekte stapel. Is die &lt; 75 cm, stop hem dan weg onder deze kaart. Zo niet, leg hem dan af.</t>
+  </si>
+  <si>
+    <t>als een andere speler een [wetland]-vogel speelt, pak jij 1 [fish] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>kies 1 speler (jezelf mag ook). Bewaar voor elke [predator] die hij heeft 1 [rodent] uit de vooraad op deze vogel.</t>
+  </si>
+  <si>
+    <t>pak 1 open [card] die in [grassland] kan leven.</t>
+  </si>
+  <si>
+    <t>trek 1 [card].</t>
+  </si>
+  <si>
+    <t>IJsvogel</t>
+  </si>
+  <si>
+    <t>als een andere speler de actie "Eieren leggen" uitvoert, legt deze vogel 1 [egg] op een andere vogel met een [cavity]-nest.</t>
+  </si>
+  <si>
+    <t>trek 2 [card]. Doe je dat, leg dan aan het einde van je beurt 1 [card] uit je hand af.</t>
+  </si>
+  <si>
+    <t>steel 1 [rodent] uit de voorraad van een andere speler en bewaar het op deze kaart. Hij pakt 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>steel 1 [invertebrate] uit de voorraad van een andere speler en bewaar het op deze kaart. Hij pakt 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>herhaal een bruine eigenschap van een andere vogel in deze leefomgeving.</t>
+  </si>
+  <si>
+    <t>all spelers trekken 1 [card] van de gedekte stapel.</t>
+  </si>
+  <si>
+    <t>leg ten hoogste 5 [wild] uit je voorraad af. Stop voor elk ervan 1 [card] van de gedekte stapel onder deze vogel weg.</t>
+  </si>
+  <si>
+    <t>voor elke [rodent] in de kosten van deze vogel mag je in plaats daarvan 1 [card] ui je hand betalen. Doe je dat, stop de betaalde [card] dan onder deze kaart weg.</t>
+  </si>
+  <si>
+    <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna 1 [invertebrate] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>trek 2 nieuwe bonuskaarten en houd er 1.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] van één van je andere vogels af om 1 [wild] uit de voorraad te pakken.</t>
+  </si>
+  <si>
+    <t>alle spelers pakken 1 [invertebrate] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>trek de 3 open [card] in de vogelhouder.</t>
+  </si>
+  <si>
+    <t>pak 1 [seed] uit het vogelhuisje (indien beschikbaar). Je mag die op deze kaart bewaren.</t>
+  </si>
+  <si>
+    <t>heb je deze ronde alle 4 soorten acties uitgevoerd, speel dan nog een vogel. Betaal de gebruikelijke voedsel- en eikosten.</t>
+  </si>
+  <si>
+    <t>kies 1 andere speler. Voor elke actiesteen die hij op zijn [grassland] heeft, stop je 1 [card] uit je hand onder deze vogel weg. Trek dan hetzelfde aantal [card].</t>
+  </si>
+  <si>
+    <t>leg 1 [wild] uit je voorraad af. Doe je dat, speel dan nog een vogel in je [wetland]. Betaal de gebruikelijke voedsel- en eikosten.</t>
+  </si>
+  <si>
+    <t>pak alle [invertebrate] die in het vogelhuisje liggen.</t>
+  </si>
+  <si>
+    <t>kies een voedselsoort. Iedere speler pakt 1 fiche van deze soort uit de voorraad.</t>
+  </si>
+  <si>
+    <t>pak 1 [seed] uit de voorraad en bewaar het op deze kaart. Je mag [seed] dat op deze kaart ligt op elk moment gebruiken.</t>
+  </si>
+  <si>
+    <t>alle spelers pakken 1 [fruit] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op elk van je vogels met een [ground]-nest.</t>
+  </si>
+  <si>
+    <t>trek 2 [card]. Doe je dat, leg dan aan het einde van je beurt 1 [card] af.</t>
+  </si>
+  <si>
+    <t>trek 1 [card] voor elk leeg veld in deze rij. Hou er aan het einde van je beurt 1 en leg de rest af.</t>
+  </si>
+  <si>
+    <t>in plaats van kosten te betalen, mag je deze vogel op een andere vogel op je tableau leggen. Leg eventuele eieren en voedsel erop af. De onderste vogel wordt een weggestopte kaart.</t>
+  </si>
+  <si>
+    <t>alle spelers trekken 1 [card] van de gedekte stapel.</t>
+  </si>
+  <si>
+    <t>als deze vogel zich rechts van alle andere vogels in zijn leefomgeving bevindt, verplaats deze dan naar een andere leefomgeving.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] van een vogel naar keuze af. Doe je dat, speel dan nog een vogel in je [forest]. Betaal de gebruikelijke voedsel- en eikosten.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op een vogel naar keuze.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op elk van je vogels met een [cavity]-nest.</t>
+  </si>
+  <si>
+    <t>als een andere speler een [card] wegstopt, stop dan 1 [card] uit je hand onder deze vogel weg en trek aan het einde van zijn beurt 1 [card].</t>
+  </si>
+  <si>
+    <t>neem 1 voedselfiche uit de voorraad van een soort die je deze beurt al hebt gepakt.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op elke vogel in deze kolom, met inbegrip van deze.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op deze vogel voor elke andere vogel met een [cavity]-nest die je hebt.</t>
+  </si>
+  <si>
+    <t>werp alle dobbelstenen die niet in het vogelhuisje liggen. Gooi je ten minste 1 [fish], pak dan 1 [fish] en bewaar die op deze kaart.</t>
+  </si>
+  <si>
+    <t>werp alle dobbelstenen die niet in het vogelhuisje liggen. Gooi je ten minste 1 [rodent], pak dan 1 [rodent] en bewaar die op deze kaart.</t>
+  </si>
+  <si>
+    <t>trek 1 nieuwe bonuskaart. Pak dan 1 [die] uit het vogelhuisje, leg 1 [egg] op een vogel naar keuze of trek 1 [card].</t>
+  </si>
+  <si>
+    <t>iedere speler pakt 1 [fruit] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>trek 1 nieuwe bonuskaart. Trek dan 1 [card] of leg 1 [egg] op een vogel naar keuze.</t>
+  </si>
+  <si>
+    <t>kies 1–5 vogels in je [forest]. Bewaar op elk ervan 1 [seed] uit je voorraad.</t>
+  </si>
+  <si>
+    <t>werp alle dobbelstenen die niet in het vogelhuisje liggen. Gooi je ten minste 1 [rodent], leg dan 1 [egg] op deze kaart.</t>
+  </si>
+  <si>
+    <t>als een andere speler de actie "Eieren leggen" uitvoert, legt deze vogel 1 [egg] op een andere vogel met een [ground]-nest.</t>
+  </si>
+  <si>
+    <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna alle [invertebrate] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>alle spelers leggen 1 [egg] op een [bowl]-vogel naar keuze. Jij mag daarnaast nog 1 [egg] op 1 andere [bowl]-vogel naar keuze leggen.</t>
+  </si>
+  <si>
+    <t>leg 1 [card] uit je hand af. Doe je dat, speel dan nog een vogel in je [forest]. Betaal de gebruikelijke voedsel- en eikosten.</t>
   </si>
 </sst>
 </file>
@@ -2979,6 +3168,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F262" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F262">
+    <sortCondition ref="D1:D262"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
@@ -3283,18 +3475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3319,19 +3511,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>758</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>961</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -3339,16 +3531,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
+        <v>699</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -3359,16 +3551,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -3379,16 +3571,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -3399,16 +3591,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -3419,16 +3611,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>731</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -3439,19 +3631,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
-        <v>578</v>
+        <v>790</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -3459,19 +3651,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>997</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -3479,19 +3671,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -3499,16 +3691,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -3519,16 +3711,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -3539,19 +3731,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>703</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -3559,16 +3751,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>457</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>584</v>
+        <v>794</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -3579,16 +3771,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -3599,16 +3791,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -3619,16 +3811,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -3639,16 +3831,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -3659,16 +3851,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -3679,16 +3871,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>819</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -3699,16 +3891,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -3719,19 +3911,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>947</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -3739,16 +3931,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>712</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -3759,16 +3951,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -3779,19 +3971,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>965</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -3799,19 +3991,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>984</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -3819,19 +4011,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -3839,19 +4031,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>951</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -3859,16 +4051,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -3879,16 +4071,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>600</v>
+        <v>737</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -3899,16 +4091,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -3919,19 +4111,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>602</v>
+        <v>685</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>964</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -3939,16 +4131,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -3959,16 +4151,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -3979,16 +4171,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -3999,16 +4191,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="D36" t="s">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -4019,16 +4211,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>709</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -4039,16 +4231,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -4059,16 +4251,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -4079,19 +4271,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>610</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>977</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -4099,16 +4291,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -4119,16 +4311,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>501</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="D42" t="s">
-        <v>612</v>
+        <v>816</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -4139,19 +4331,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>971</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -4159,19 +4351,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>614</v>
+        <v>682</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>975</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -4179,19 +4371,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>445</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>446</v>
       </c>
       <c r="D45" t="s">
-        <v>615</v>
+        <v>788</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>983</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -4199,16 +4391,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="D46" t="s">
-        <v>616</v>
+        <v>741</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -4219,19 +4411,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>678</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -4239,16 +4431,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="D48" t="s">
-        <v>617</v>
+        <v>801</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -4259,16 +4451,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="D49" t="s">
-        <v>618</v>
+        <v>727</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -4279,19 +4471,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>991</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -4299,16 +4491,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -4319,19 +4511,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>989</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -4379,16 +4571,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -4399,16 +4591,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
@@ -4419,16 +4611,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
@@ -4439,16 +4631,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>404</v>
       </c>
       <c r="D58" t="s">
-        <v>627</v>
+        <v>767</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>8</v>
@@ -4459,16 +4651,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
-        <v>628</v>
+        <v>782</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
@@ -4479,16 +4671,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>513</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>629</v>
+        <v>821</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
@@ -4499,16 +4691,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
@@ -4519,16 +4711,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
@@ -4539,19 +4731,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>984</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>8</v>
@@ -4559,16 +4751,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
@@ -4579,16 +4771,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8</v>
@@ -4599,16 +4791,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8</v>
@@ -4619,16 +4811,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>383</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>138</v>
+        <v>384</v>
       </c>
       <c r="D67" t="s">
-        <v>636</v>
+        <v>757</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
@@ -4639,16 +4831,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
@@ -4659,16 +4851,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>8</v>
@@ -4679,16 +4871,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -4699,16 +4891,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>145</v>
+        <v>381</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="D71" t="s">
-        <v>640</v>
+        <v>756</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>8</v>
@@ -4719,16 +4911,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>641</v>
+        <v>199</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>8</v>
@@ -4739,19 +4931,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
-        <v>642</v>
+        <v>754</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>957</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>8</v>
@@ -4759,19 +4951,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>946</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -4779,16 +4971,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>389</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
       <c r="D75" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
@@ -4799,16 +4991,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>8</v>
@@ -4819,16 +5011,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>8</v>
@@ -4839,19 +5031,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>996</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>8</v>
@@ -4859,19 +5051,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="D79" t="s">
-        <v>648</v>
+        <v>774</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>939</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -4879,16 +5071,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>649</v>
+        <v>705</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
@@ -4899,19 +5091,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>941</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
@@ -4919,16 +5111,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
@@ -4939,16 +5131,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
@@ -4959,16 +5151,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
@@ -4979,16 +5171,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="D85" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
@@ -4999,16 +5191,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
+        <v>521</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>176</v>
+        <v>522</v>
       </c>
       <c r="D86" t="s">
-        <v>655</v>
+        <v>825</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
@@ -5019,16 +5211,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>517</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>178</v>
+        <v>518</v>
       </c>
       <c r="D87" t="s">
-        <v>656</v>
+        <v>823</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
@@ -5039,19 +5231,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>527</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>180</v>
+        <v>528</v>
       </c>
       <c r="D88" t="s">
-        <v>657</v>
+        <v>828</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -5059,16 +5251,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="D89" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
@@ -5079,16 +5271,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>184</v>
+        <v>524</v>
       </c>
       <c r="D90" t="s">
-        <v>659</v>
+        <v>826</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
@@ -5099,16 +5291,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>185</v>
+        <v>519</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>186</v>
+        <v>520</v>
       </c>
       <c r="D91" t="s">
-        <v>660</v>
+        <v>824</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
@@ -5119,16 +5311,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
@@ -5139,16 +5331,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>189</v>
+        <v>441</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="D93" t="s">
-        <v>662</v>
+        <v>786</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>8</v>
@@ -5159,16 +5351,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>663</v>
+        <v>594</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>8</v>
@@ -5179,16 +5371,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>193</v>
+        <v>455</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>194</v>
+        <v>456</v>
       </c>
       <c r="D95" t="s">
-        <v>664</v>
+        <v>793</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>8</v>
@@ -5199,16 +5391,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
+        <v>459</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>196</v>
+        <v>460</v>
       </c>
       <c r="D96" t="s">
-        <v>665</v>
+        <v>795</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>8</v>
@@ -5219,16 +5411,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>8</v>
@@ -5239,16 +5431,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>661</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>8</v>
@@ -5259,19 +5451,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>939</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>8</v>
@@ -5279,19 +5471,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>973</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>8</v>
@@ -5299,19 +5491,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="D101" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>8</v>
@@ -5319,16 +5511,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>670</v>
+        <v>577</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>8</v>
@@ -5339,16 +5531,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
@@ -5359,16 +5551,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
@@ -5379,16 +5571,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="D105" t="s">
-        <v>673</v>
+        <v>736</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
@@ -5399,19 +5591,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="D106" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>959</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -5419,19 +5611,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="D107" t="s">
-        <v>675</v>
+        <v>586</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>985</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
@@ -5439,16 +5631,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
@@ -5459,19 +5651,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>969</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>8</v>
@@ -5479,19 +5671,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="D110" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>940</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>8</v>
@@ -5499,16 +5691,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
@@ -5519,19 +5711,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>680</v>
+        <v>806</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>8</v>
@@ -5539,16 +5731,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
@@ -5559,16 +5751,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>232</v>
+        <v>374</v>
       </c>
       <c r="D114" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
@@ -5579,16 +5771,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D115" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
@@ -5599,16 +5791,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D116" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
@@ -5619,19 +5811,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>685</v>
+        <v>630</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>981</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
@@ -5639,19 +5831,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="D118" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>991</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
@@ -5659,16 +5851,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D119" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -5679,16 +5871,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
@@ -5699,16 +5891,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
-        <v>689</v>
+        <v>745</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
@@ -5719,19 +5911,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>963</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>8</v>
@@ -5739,16 +5931,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -5759,16 +5951,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D124" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
@@ -5779,16 +5971,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="D125" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>8</v>
@@ -5799,16 +5991,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>8</v>
@@ -5819,16 +6011,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="D127" t="s">
-        <v>695</v>
+        <v>654</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
@@ -5839,19 +6031,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>956</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>8</v>
@@ -5859,36 +6051,34 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="D129" t="s">
-        <v>697</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="D130" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>8</v>
@@ -5899,16 +6089,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="D131" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>8</v>
@@ -5919,16 +6109,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="D132" t="s">
-        <v>700</v>
+        <v>744</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>8</v>
@@ -5939,16 +6129,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>515</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>270</v>
+        <v>516</v>
       </c>
       <c r="D133" t="s">
-        <v>701</v>
+        <v>822</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>8</v>
@@ -5959,16 +6149,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="D134" t="s">
-        <v>702</v>
+        <v>818</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>8</v>
@@ -5979,19 +6169,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="D135" t="s">
-        <v>703</v>
+        <v>763</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>942</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>8</v>
@@ -5999,19 +6189,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>960</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>8</v>
@@ -6019,19 +6209,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="D137" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>963</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>8</v>
@@ -6039,16 +6229,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>431</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>280</v>
+        <v>432</v>
       </c>
       <c r="D138" t="s">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
@@ -6059,19 +6249,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>707</v>
+        <v>592</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>8</v>
@@ -6079,16 +6269,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
@@ -6099,19 +6289,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="D141" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>8</v>
+        <v>994</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>8</v>
@@ -6119,16 +6309,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="D142" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
@@ -6139,16 +6329,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="D143" t="s">
-        <v>711</v>
+        <v>650</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>8</v>
@@ -6159,16 +6349,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="D144" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>8</v>
@@ -6179,19 +6369,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>8</v>
+        <v>945</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>8</v>
@@ -6199,16 +6389,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="D146" t="s">
-        <v>714</v>
+        <v>608</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>8</v>
@@ -6219,19 +6409,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>965</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>8</v>
@@ -6239,19 +6429,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D148" t="s">
-        <v>716</v>
+        <v>671</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>8</v>
+        <v>949</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>8</v>
@@ -6259,16 +6449,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D149" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>8</v>
@@ -6279,16 +6469,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="D150" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>8</v>
@@ -6299,19 +6489,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>719</v>
+        <v>607</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>8</v>
@@ -6319,19 +6509,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
@@ -6339,16 +6529,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D153" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>8</v>
@@ -6359,16 +6549,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>311</v>
+        <v>485</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="D154" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>8</v>
@@ -6379,16 +6569,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>723</v>
+        <v>646</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>8</v>
@@ -6399,19 +6589,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>8</v>
@@ -6419,19 +6609,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="D157" t="s">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>978</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>8</v>
@@ -6439,19 +6629,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>320</v>
+        <v>526</v>
       </c>
       <c r="D158" t="s">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>8</v>
@@ -6459,16 +6649,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D159" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>8</v>
@@ -6479,16 +6669,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>8</v>
@@ -6499,16 +6689,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>8</v>
@@ -6519,16 +6709,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="D162" t="s">
-        <v>730</v>
+        <v>642</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>8</v>
@@ -6539,19 +6729,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>330</v>
+        <v>184</v>
       </c>
       <c r="D163" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>8</v>
+        <v>974</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
@@ -6559,16 +6749,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="D164" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>8</v>
@@ -6579,16 +6769,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>733</v>
+        <v>574</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>8</v>
@@ -6599,19 +6789,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D166" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>948</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -6619,19 +6809,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>337</v>
+        <v>231</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="D167" t="s">
-        <v>735</v>
+        <v>681</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>8</v>
+        <v>995</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -6639,16 +6829,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>340</v>
+        <v>488</v>
       </c>
       <c r="D168" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>8</v>
@@ -6659,16 +6849,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
-        <v>737</v>
+        <v>673</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>8</v>
@@ -6679,16 +6869,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>738</v>
+        <v>587</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>8</v>
@@ -6699,16 +6889,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="D171" t="s">
-        <v>739</v>
+        <v>611</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>8</v>
@@ -6719,19 +6909,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="D172" t="s">
-        <v>740</v>
+        <v>672</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>8</v>
+        <v>967</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
@@ -6739,19 +6929,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="D173" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
@@ -6759,16 +6949,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="D174" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>8</v>
@@ -6779,16 +6969,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
       <c r="D175" t="s">
-        <v>743</v>
+        <v>796</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>8</v>
@@ -6799,19 +6989,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D176" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>965</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>8</v>
@@ -6819,19 +7009,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="D177" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>8</v>
@@ -6839,16 +7029,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="D178" t="s">
-        <v>746</v>
+        <v>686</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>8</v>
@@ -6859,16 +7049,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="D179" t="s">
-        <v>747</v>
+        <v>659</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>8</v>
@@ -6879,16 +7069,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>363</v>
+        <v>463</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="D180" t="s">
-        <v>748</v>
+        <v>797</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>8</v>
@@ -6899,16 +7089,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="D181" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>8</v>
@@ -6919,16 +7109,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>368</v>
+        <v>238</v>
       </c>
       <c r="D182" t="s">
-        <v>750</v>
+        <v>684</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>8</v>
@@ -6939,16 +7129,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D183" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>8</v>
@@ -6959,16 +7149,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="D184" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>8</v>
@@ -6979,16 +7169,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D185" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>8</v>
@@ -6999,16 +7189,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="D186" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>8</v>
@@ -7019,19 +7209,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="D187" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>8</v>
@@ -7039,19 +7229,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D188" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>8</v>
@@ -7059,19 +7249,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="D189" t="s">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>987</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>8</v>
@@ -7079,16 +7269,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="D190" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>8</v>
@@ -7099,16 +7289,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>759</v>
+        <v>581</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>8</v>
@@ -7119,16 +7309,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D192" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>8</v>
@@ -7139,16 +7329,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D193" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>8</v>
@@ -7159,16 +7349,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>392</v>
+        <v>144</v>
       </c>
       <c r="D194" t="s">
-        <v>762</v>
+        <v>639</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>8</v>
@@ -7179,16 +7369,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>393</v>
+        <v>207</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="D195" t="s">
-        <v>763</v>
+        <v>669</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>8</v>
@@ -7199,16 +7389,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D196" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>8</v>
@@ -7219,16 +7409,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D197" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>8</v>
@@ -7239,19 +7429,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D198" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>8</v>
+        <v>946</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>8</v>
@@ -7259,16 +7449,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>401</v>
+        <v>107</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="D199" t="s">
-        <v>767</v>
+        <v>621</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>8</v>
@@ -7279,16 +7469,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D200" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>8</v>
@@ -7299,19 +7489,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D201" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>8</v>
@@ -7319,16 +7509,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D202" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>8</v>
@@ -7339,16 +7529,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>409</v>
+        <v>251</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>410</v>
+        <v>252</v>
       </c>
       <c r="D203" t="s">
-        <v>771</v>
+        <v>691</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>8</v>
@@ -7359,16 +7549,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="D204" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>8</v>
@@ -7379,19 +7569,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="D205" t="s">
-        <v>773</v>
+        <v>618</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>8</v>
+        <v>968</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>8</v>
@@ -7399,19 +7589,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="D206" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>8</v>
+        <v>943</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>8</v>
@@ -7419,16 +7609,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D207" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>8</v>
@@ -7439,19 +7629,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>419</v>
+        <v>247</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="D208" t="s">
-        <v>776</v>
+        <v>689</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>8</v>
+        <v>944</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>8</v>
@@ -7459,19 +7649,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>422</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
-        <v>777</v>
+        <v>641</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>8</v>
+        <v>982</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>8</v>
@@ -7479,19 +7669,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="D210" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>8</v>
@@ -7499,19 +7689,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="D211" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>8</v>
+        <v>981</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>8</v>
@@ -7519,19 +7709,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D212" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>986</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>8</v>
@@ -7539,16 +7729,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D213" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>8</v>
@@ -7559,16 +7749,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D214" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>8</v>
@@ -7579,19 +7769,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>433</v>
+        <v>235</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="D215" t="s">
-        <v>783</v>
+        <v>683</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>8</v>
+        <v>963</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>8</v>
@@ -7599,19 +7789,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>784</v>
+        <v>747</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>8</v>
+        <v>960</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>8</v>
@@ -7619,19 +7809,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="D217" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>8</v>
@@ -7639,16 +7829,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="D218" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>8</v>
@@ -7659,16 +7849,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="D219" t="s">
-        <v>787</v>
+        <v>732</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>8</v>
@@ -7679,16 +7869,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="D220" t="s">
-        <v>788</v>
+        <v>696</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>8</v>
@@ -7699,19 +7889,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>445</v>
+        <v>329</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="D221" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>8</v>
+        <v>958</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>8</v>
@@ -7719,16 +7909,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="D222" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>8</v>
@@ -7739,16 +7929,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>449</v>
+        <v>303</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>450</v>
+        <v>304</v>
       </c>
       <c r="D223" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>8</v>
@@ -7759,16 +7949,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>451</v>
+        <v>117</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>452</v>
+        <v>118</v>
       </c>
       <c r="D224" t="s">
-        <v>792</v>
+        <v>626</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>8</v>
@@ -7779,16 +7969,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="D225" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>8</v>
@@ -7799,16 +7989,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>455</v>
+        <v>163</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>456</v>
+        <v>164</v>
       </c>
       <c r="D226" t="s">
-        <v>794</v>
+        <v>649</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>8</v>
@@ -7819,16 +8009,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
       <c r="D227" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>8</v>
@@ -7839,16 +8029,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="D228" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>8</v>
@@ -7859,16 +8049,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D229" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>8</v>
@@ -7879,19 +8069,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>463</v>
+        <v>219</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>464</v>
+        <v>220</v>
       </c>
       <c r="D230" t="s">
-        <v>798</v>
+        <v>675</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>8</v>
@@ -7899,16 +8089,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D231" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>8</v>
@@ -7919,16 +8109,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>467</v>
+        <v>291</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>468</v>
+        <v>292</v>
       </c>
       <c r="D232" t="s">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>8</v>
@@ -7939,16 +8129,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D233" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>8</v>
@@ -7959,16 +8149,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>471</v>
+        <v>161</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>472</v>
+        <v>162</v>
       </c>
       <c r="D234" t="s">
-        <v>802</v>
+        <v>648</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>8</v>
@@ -7979,16 +8169,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="D235" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>8</v>
@@ -7999,16 +8189,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>475</v>
+        <v>253</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>476</v>
+        <v>254</v>
       </c>
       <c r="D236" t="s">
-        <v>804</v>
+        <v>692</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>8</v>
@@ -8019,19 +8209,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>477</v>
+        <v>179</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>478</v>
+        <v>180</v>
       </c>
       <c r="D237" t="s">
-        <v>805</v>
+        <v>656</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>8</v>
+        <v>972</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>8</v>
@@ -8039,16 +8229,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="D238" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>8</v>
@@ -8059,19 +8249,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>481</v>
+        <v>243</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>482</v>
+        <v>244</v>
       </c>
       <c r="D239" t="s">
-        <v>807</v>
+        <v>687</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>8</v>
+        <v>998</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>8</v>
@@ -8079,16 +8269,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>483</v>
+        <v>221</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>484</v>
+        <v>222</v>
       </c>
       <c r="D240" t="s">
-        <v>808</v>
+        <v>676</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>8</v>
@@ -8099,19 +8289,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>485</v>
+        <v>335</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="D241" t="s">
-        <v>809</v>
+        <v>733</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>8</v>
+        <v>954</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>8</v>
@@ -8119,19 +8309,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="D242" t="s">
-        <v>810</v>
+        <v>507</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>8</v>
@@ -8139,19 +8329,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="D243" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>8</v>
@@ -8159,13 +8349,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D244" t="s">
         <v>812</v>
@@ -8179,13 +8369,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D245" t="s">
         <v>813</v>
@@ -8199,13 +8389,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D246" t="s">
         <v>814</v>
@@ -8219,16 +8409,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D247" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>8</v>
@@ -8239,16 +8429,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D248" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>8</v>
@@ -8259,16 +8449,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>501</v>
+        <v>27</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>502</v>
+        <v>28</v>
       </c>
       <c r="D249" t="s">
-        <v>817</v>
+        <v>582</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>8</v>
@@ -8279,16 +8469,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>503</v>
+        <v>145</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>504</v>
+        <v>146</v>
       </c>
       <c r="D250" t="s">
-        <v>818</v>
+        <v>640</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>8</v>
@@ -8299,19 +8489,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>505</v>
+        <v>173</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>506</v>
+        <v>174</v>
       </c>
       <c r="D251" t="s">
-        <v>819</v>
+        <v>653</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>8</v>
+        <v>953</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>8</v>
@@ -8319,16 +8509,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="D252" t="s">
-        <v>507</v>
+        <v>792</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>8</v>
@@ -8339,19 +8529,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>509</v>
+        <v>249</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="D253" t="s">
-        <v>820</v>
+        <v>690</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>8</v>
+        <v>992</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>8</v>
@@ -8359,16 +8549,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="D254" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>8</v>
@@ -8379,16 +8569,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>513</v>
+        <v>71</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>514</v>
+        <v>72</v>
       </c>
       <c r="D255" t="s">
-        <v>822</v>
+        <v>604</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>8</v>
@@ -8399,16 +8589,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>515</v>
+        <v>67</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>516</v>
+        <v>68</v>
       </c>
       <c r="D256" t="s">
-        <v>823</v>
+        <v>602</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>8</v>
@@ -8419,19 +8609,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>517</v>
+        <v>131</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>518</v>
+        <v>132</v>
       </c>
       <c r="D257" t="s">
-        <v>824</v>
+        <v>633</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>8</v>
+        <v>952</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>8</v>
@@ -8439,16 +8629,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>519</v>
+        <v>155</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>520</v>
+        <v>156</v>
       </c>
       <c r="D258" t="s">
-        <v>825</v>
+        <v>645</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>8</v>
@@ -8459,16 +8649,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>522</v>
+        <v>62</v>
       </c>
       <c r="D259" t="s">
-        <v>826</v>
+        <v>599</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>8</v>
@@ -8479,16 +8669,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>523</v>
+        <v>69</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="D260" t="s">
-        <v>827</v>
+        <v>603</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>8</v>
@@ -8499,19 +8689,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>525</v>
+        <v>65</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>526</v>
+        <v>66</v>
       </c>
       <c r="D261" t="s">
-        <v>828</v>
+        <v>601</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>8</v>
+        <v>941</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>8</v>
@@ -8519,19 +8709,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>527</v>
+        <v>75</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>528</v>
+        <v>76</v>
       </c>
       <c r="D262" t="s">
-        <v>829</v>
+        <v>606</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>8</v>
+        <v>993</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>8</v>
@@ -8549,7 +8739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -8595,16 +8785,16 @@
         <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>908</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -8618,16 +8808,16 @@
         <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -8641,16 +8831,16 @@
         <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -8664,16 +8854,16 @@
         <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -8687,16 +8877,16 @@
         <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>889</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -8710,16 +8900,16 @@
         <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -8733,16 +8923,16 @@
         <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -8756,16 +8946,16 @@
         <v>540</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -8779,16 +8969,16 @@
         <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
@@ -8802,16 +8992,16 @@
         <v>542</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -8825,16 +9015,16 @@
         <v>543</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>841</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -8848,16 +9038,16 @@
         <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -8871,16 +9061,16 @@
         <v>545</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -8894,16 +9084,16 @@
         <v>546</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>917</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -8917,16 +9107,16 @@
         <v>547</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
@@ -8940,16 +9130,16 @@
         <v>548</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -8963,16 +9153,16 @@
         <v>549</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
@@ -8986,16 +9176,16 @@
         <v>550</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -9009,16 +9199,16 @@
         <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -9032,16 +9222,16 @@
         <v>552</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -9055,16 +9245,16 @@
         <v>553</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -9078,16 +9268,16 @@
         <v>554</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -9101,16 +9291,16 @@
         <v>555</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -9124,16 +9314,16 @@
         <v>556</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -9147,16 +9337,16 @@
         <v>557</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -9170,16 +9360,16 @@
         <v>558</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -9193,16 +9383,16 @@
         <v>559</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>896</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -9216,16 +9406,16 @@
         <v>560</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -9239,16 +9429,16 @@
         <v>561</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -9262,16 +9452,16 @@
         <v>562</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -9285,16 +9475,16 @@
         <v>563</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -9308,13 +9498,13 @@
         <v>564</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -9331,13 +9521,13 @@
         <v>565</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -9381,7 +9571,7 @@
         <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9389,7 +9579,7 @@
         <v>568</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9397,7 +9587,7 @@
         <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9405,7 +9595,7 @@
         <v>570</v>
       </c>
       <c r="B5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9413,7 +9603,7 @@
         <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik.huizinga/Dropbox/Software/Repos/GitHub/navarog/wingsearch/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F340B01-BE3D-704E-B4C6-514B58B32E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B7A4D-2145-3440-B30D-8FEC16F9A061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1062">
   <si>
     <t>id</t>
   </si>
@@ -2459,9 +2459,6 @@
     <t>Roodkopgier</t>
   </si>
   <si>
-    <t>Vauxâ€™ gierzwaluw</t>
-  </si>
-  <si>
     <t>Groene zwaluw</t>
   </si>
   <si>
@@ -2927,15 +2924,9 @@
     <t>herhaal een bruine eigenschap van een andere vogel in deze leefomgeving.</t>
   </si>
   <si>
-    <t>all spelers trekken 1 [card] van de gedekte stapel.</t>
-  </si>
-  <si>
     <t>leg ten hoogste 5 [wild] uit je voorraad af. Stop voor elk ervan 1 [card] van de gedekte stapel onder deze vogel weg.</t>
   </si>
   <si>
-    <t>voor elke [rodent] in de kosten van deze vogel mag je in plaats daarvan 1 [card] ui je hand betalen. Doe je dat, stop de betaalde [card] dan onder deze kaart weg.</t>
-  </si>
-  <si>
     <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna 1 [invertebrate] uit het vogelhuisje.</t>
   </si>
   <si>
@@ -3045,6 +3036,198 @@
   </si>
   <si>
     <t>leg 1 [card] uit je hand af. Doe je dat, speel dan nog een vogel in je [forest]. Betaal de gebruikelijke voedsel- en eikosten.</t>
+  </si>
+  <si>
+    <t>alle spelers pakken 1 [fish] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>als een andere speler om welke reden dan ook een [card] wegstopt, stop dan 1 [card] van de gedekte stapel onder deze vogel weg.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, pak dan 1 [fruit] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>Vaux' gierzwaluw</t>
+  </si>
+  <si>
+    <t>als een [predator] van een andere speler lukt, pak jij 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>leg 1 [seed] uit je voorraad af. Doe je dat, leg dan 2 [egg] op deze vogel.</t>
+  </si>
+  <si>
+    <t>leg 1 [seed] af om 2 [card] van de gedekte stapel onder deze vogel weg te stoppen.</t>
+  </si>
+  <si>
+    <t>pak 1 [seed] uit de voorraad en bewaar die op deze kaart.</t>
+  </si>
+  <si>
+    <t>trek zoveel [card] als het aantal spelers + 1. Te beginnen bij jou en daarna met de klok mee, kiest iedere speler 1 van deze kaarten en doet die in zijn hand. Jij houdt de overgebleven kaart.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op deze vogel.</t>
+  </si>
+  <si>
+    <t>pak 1 [invertebrate] of [fruit] uit het vogelhuisje, indien beschikbaar.</t>
+  </si>
+  <si>
+    <t>pak 1 [invertebrate] uit het vogelhuisje, indien beschikbaar.</t>
+  </si>
+  <si>
+    <t>leg alle resterende open [card] af en vul de vogelhouder aan. Doe je dat, trek dan 1 van de nieuwe open [card].</t>
+  </si>
+  <si>
+    <t>pak 1 [seed] of [fruit] uit het vogelhuisje, indien beschikbaar.</t>
+  </si>
+  <si>
+    <t>pak 1 [invertebrate] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>de speler(s) met de minste [forest]-vogels pakt/pakken 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>trek 2 [card] van de gedekte stapel. Stop er 1 van onder deze vogel weg en hou de andere.</t>
+  </si>
+  <si>
+    <t>de speler(s) met de minste [wetland]-vogels: trek 1 [card].</t>
+  </si>
+  <si>
+    <t>als een andere speler de actie "Eieren leggen" uitvoert, legt deze vogel 1 [egg] op een andere vogel met een [bowl]-nest.</t>
+  </si>
+  <si>
+    <t>voor elke [rodent] in de kosten van deze vogel mag je in plaats daarvan 1 [card] uit je hand betalen. Doe je dat, stop de betaalde [card] dan onder deze kaart weg.</t>
+  </si>
+  <si>
+    <t>pak 3 [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>alle spelers pakken 1 [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>pak 1 [wild] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] van één van je andere vogels af om 2 [wild] uit de voorraad te pakken.</t>
+  </si>
+  <si>
+    <t>als een andere speler de "pak voedsel"-actie uitvoert, pak dan aan het einde van zijn beurt 1 [invertebrate] of [fruit] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op elk van je vogels met een [platform]-nest.</t>
+  </si>
+  <si>
+    <t>werp alle dobbelstenen die niet in het vogelhuisje liggen. Pak zoveel [fish] uit de voorraad als je hebt geworpen en bewaar die op deze vogel.</t>
+  </si>
+  <si>
+    <t>steel 1 [wild] uit de voorraad van een andere speler en doe het in je persoonlijke voorraad. Hij pakt 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>als een andere speler de "pak voedsel"-actie uitvoert, pak dan aan het einde van zijn beurt 1 [seed] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>leg deze vogel horizontaal neer, zodat deze 2 [forest]-velden bedekt. Betaal de lagere eikosten.</t>
+  </si>
+  <si>
+    <t>trek 2 [card]. Iedere andere speler trekt 1 [card] van de gedekte stapel.</t>
+  </si>
+  <si>
+    <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna 1 [seed] of 1 [fruit] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>pak 1 [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>kies 1 andere speler. Bewaar voor elke actiesteen op zijn [grassland] 1 [wild] uit de voorraad op één van je vogels.</t>
+  </si>
+  <si>
+    <t>alle spelers leggen 1 [egg] op een [ground]-vogel naar keuze. Jij mag daarnaast nog 1 [egg] op 1 andere [ground]-vogel naar keuze leggen.</t>
+  </si>
+  <si>
+    <t>pak alle [invertebrate] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>kies 1 andere speler. Voor elke actiesteen die hij op zijn [wetland] heeft, stop je 1 [card] uit je hand onder deze vogel weg. Trek dan hetzelfde aantal [card].</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] op elk van je vogels met een [bowl]-nest.</t>
+  </si>
+  <si>
+    <t>leg ten hoogste 5 [seed] uit je voorraad af. Stop voor elk ervan 1 [card] van de gedekte stapel onder deze vogel weg.</t>
+  </si>
+  <si>
+    <t>pak 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>steel 1 [seed] uit de voorraad van een andere speler en bewaar het op deze kaart. Hij pakt 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>als deze vogel aan de voorwaarden van het "Einde ronde"-doel voldoet, telt hij dubbel.</t>
+  </si>
+  <si>
+    <t>pak alle [fish] die in het vogelhuisje liggen.</t>
+  </si>
+  <si>
+    <t>trek 2 [card].</t>
+  </si>
+  <si>
+    <t>kies 1–5 vogels in deze leefomgeving. Stop 1 [card] uit je hand onder elk ervan weg.</t>
+  </si>
+  <si>
+    <t>bekijk een [card] van de gedekte stapel. Is die &lt; 50 cm, stop hem dan weg onder deze kaart. Zo niet, leg hem dan af.</t>
+  </si>
+  <si>
+    <t>als een andere speler de "leg eieren"-actie uitvoert, legt deze vogel 1 [egg] op een andere vogel met een [bowl]- of [ground] nest.</t>
+  </si>
+  <si>
+    <t>als een andere speler de actie "Voedsel pakken" uitvoert en ten minste 1 [rodent] pakt, dan pak jij ook 1 [rodent] en bewaar je die op deze kaart.</t>
+  </si>
+  <si>
+    <t>kies een leefomgeving zonder [egg]. Leg 1 [egg] op elke vogel in die leefomgeving.</t>
+  </si>
+  <si>
+    <t>pak 1 [fruit] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>leg ten hoogste 5 [invertebrate] uit je voorraad af. Stop voor elk ervan 1 [card] van de gedekte stapel onder deze vogel weg.</t>
+  </si>
+  <si>
+    <t>speel een tweede vogel in je [wetland]. Betaal de normale kosten ervan.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, leg dan 1 [egg] op een vogel naar keuze.</t>
+  </si>
+  <si>
+    <t>als een andere speler een [grassland]-vogel speelt, stop jij een [card] uit je hand weg onder deze vogel.</t>
+  </si>
+  <si>
+    <t>kies 1–3 vogels in je [wetland]. Stop onder elk ervan 1 [card] weg. Stop je ten minste 1 kaart weg, trek dan 1 [card].</t>
+  </si>
+  <si>
+    <t>verwijder 1 [die] naar keuze uit het vogelhuisje. Pak dan 1 [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>gooi alle dobbelstenen opnieuw in het vogelhuisje. Doe je dat, dan pak je daarna 1 [seed] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>alle spelers leggen 1 [egg] op een [cavity]-vogel naar keuze. Jij mag daarnaast nog 1 [egg] op 1 andere [cavity]-vogel naar keuze leggen.</t>
+  </si>
+  <si>
+    <t>pak 3 [fish] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>leg 1 [fish] af om 2 [card] van de gedekte stapel onder deze vogel weg te stoppen.</t>
+  </si>
+  <si>
+    <t>pak 1 open [card] die in [wetland] kan leven.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, pak dan 1 [invertebrate] of [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>trek 1 nieuwe bonuskaart. Trek dan 1 [die] uit het vogelhuisje.</t>
   </si>
 </sst>
 </file>
@@ -3475,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3485,8 +3668,8 @@
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="141.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3523,7 +3706,7 @@
         <v>758</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -3543,7 +3726,7 @@
         <v>699</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -3563,7 +3746,7 @@
         <v>579</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -3583,7 +3766,7 @@
         <v>605</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -3623,7 +3806,7 @@
         <v>731</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>1046</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -3643,7 +3826,7 @@
         <v>790</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -3663,7 +3846,7 @@
         <v>573</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -3683,7 +3866,7 @@
         <v>576</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -3703,7 +3886,7 @@
         <v>575</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -3723,7 +3906,7 @@
         <v>657</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -3743,7 +3926,7 @@
         <v>703</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -3763,7 +3946,7 @@
         <v>794</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>978</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -3783,7 +3966,7 @@
         <v>580</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>1020</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -3803,7 +3986,7 @@
         <v>600</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>987</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -3823,7 +4006,7 @@
         <v>584</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>987</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -3843,7 +4026,7 @@
         <v>609</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>1042</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -3863,7 +4046,7 @@
         <v>578</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -3880,10 +4063,10 @@
         <v>510</v>
       </c>
       <c r="D20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>978</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3903,7 +4086,7 @@
         <v>590</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>1041</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -3923,7 +4106,7 @@
         <v>585</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -3943,7 +4126,7 @@
         <v>712</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>1055</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -3963,7 +4146,7 @@
         <v>588</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>1014</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -3983,7 +4166,7 @@
         <v>637</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -4003,7 +4186,7 @@
         <v>589</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -4023,7 +4206,7 @@
         <v>591</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -4043,7 +4226,7 @@
         <v>597</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -4063,7 +4246,7 @@
         <v>596</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -4083,7 +4266,7 @@
         <v>737</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>942</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -4103,7 +4286,7 @@
         <v>598</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -4123,7 +4306,7 @@
         <v>685</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -4143,7 +4326,7 @@
         <v>616</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>971</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -4163,7 +4346,7 @@
         <v>612</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -4203,7 +4386,7 @@
         <v>746</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>949</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -4243,7 +4426,7 @@
         <v>614</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>1012</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
@@ -4283,7 +4466,7 @@
         <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -4320,10 +4503,10 @@
         <v>502</v>
       </c>
       <c r="D42" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>1051</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
@@ -4343,7 +4526,7 @@
         <v>714</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -4363,7 +4546,7 @@
         <v>682</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -4383,7 +4566,7 @@
         <v>788</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -4423,7 +4606,7 @@
         <v>678</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -4463,7 +4646,7 @@
         <v>727</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>1047</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
@@ -4483,7 +4666,7 @@
         <v>620</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -4503,7 +4686,7 @@
         <v>619</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -4523,7 +4706,7 @@
         <v>651</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -4543,7 +4726,7 @@
         <v>622</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>1057</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>8</v>
@@ -4583,7 +4766,7 @@
         <v>647</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>977</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
@@ -4623,7 +4806,7 @@
         <v>628</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>8</v>
@@ -4663,7 +4846,7 @@
         <v>782</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>1004</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
@@ -4680,10 +4863,10 @@
         <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>956</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>8</v>
@@ -4703,7 +4886,7 @@
         <v>631</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>1005</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>8</v>
@@ -4723,7 +4906,7 @@
         <v>632</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>1042</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -4743,7 +4926,7 @@
         <v>635</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>8</v>
@@ -4763,7 +4946,7 @@
         <v>634</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
@@ -4783,7 +4966,7 @@
         <v>636</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>8</v>
@@ -4802,9 +4985,7 @@
       <c r="D66" t="s">
         <v>638</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4843,7 +5024,7 @@
         <v>643</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>940</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>8</v>
@@ -4863,7 +5044,7 @@
         <v>663</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>949</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>8</v>
@@ -4883,7 +5064,7 @@
         <v>664</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>1061</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>8</v>
@@ -4923,7 +5104,7 @@
         <v>199</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>8</v>
@@ -4943,7 +5124,7 @@
         <v>754</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>8</v>
@@ -4963,7 +5144,7 @@
         <v>667</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -4983,7 +5164,7 @@
         <v>760</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>1060</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>8</v>
@@ -5003,7 +5184,7 @@
         <v>572</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
@@ -5023,7 +5204,7 @@
         <v>680</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>1031</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
@@ -5043,7 +5224,7 @@
         <v>674</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>8</v>
@@ -5063,7 +5244,7 @@
         <v>774</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -5083,7 +5264,7 @@
         <v>705</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>1034</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>8</v>
@@ -5103,7 +5284,7 @@
         <v>693</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
@@ -5143,7 +5324,7 @@
         <v>701</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>8</v>
@@ -5163,7 +5344,7 @@
         <v>679</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>1039</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>8</v>
@@ -5200,10 +5381,10 @@
         <v>522</v>
       </c>
       <c r="D86" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>8</v>
@@ -5220,7 +5401,7 @@
         <v>518</v>
       </c>
       <c r="D87" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
@@ -5240,10 +5421,10 @@
         <v>528</v>
       </c>
       <c r="D88" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -5260,10 +5441,10 @@
         <v>484</v>
       </c>
       <c r="D89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>1032</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -5280,7 +5461,7 @@
         <v>524</v>
       </c>
       <c r="D90" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
@@ -5300,10 +5481,10 @@
         <v>520</v>
       </c>
       <c r="D91" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>1016</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -5323,7 +5504,7 @@
         <v>666</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>1058</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>8</v>
@@ -5343,7 +5524,7 @@
         <v>786</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>8</v>
@@ -5363,7 +5544,7 @@
         <v>594</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>949</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>8</v>
@@ -5383,7 +5564,7 @@
         <v>793</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>8</v>
@@ -5403,7 +5584,7 @@
         <v>795</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>1030</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
@@ -5423,7 +5604,7 @@
         <v>662</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>956</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>8</v>
@@ -5443,7 +5624,7 @@
         <v>661</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>1049</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>8</v>
@@ -5463,7 +5644,7 @@
         <v>652</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>8</v>
@@ -5483,7 +5664,7 @@
         <v>743</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>8</v>
@@ -5503,7 +5684,7 @@
         <v>695</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>8</v>
@@ -5523,7 +5704,7 @@
         <v>577</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>1018</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>8</v>
@@ -5543,7 +5724,7 @@
         <v>624</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>1029</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>8</v>
@@ -5563,7 +5744,7 @@
         <v>710</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>1040</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -5583,7 +5764,7 @@
         <v>736</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>977</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
@@ -5603,7 +5784,7 @@
         <v>764</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -5623,7 +5804,7 @@
         <v>586</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
@@ -5663,7 +5844,7 @@
         <v>644</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>8</v>
@@ -5683,7 +5864,7 @@
         <v>708</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>8</v>
@@ -5720,10 +5901,10 @@
         <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>8</v>
@@ -5743,7 +5924,7 @@
         <v>629</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>1004</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>8</v>
@@ -5763,7 +5944,7 @@
         <v>752</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>1054</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>8</v>
@@ -5783,7 +5964,7 @@
         <v>700</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>1009</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>8</v>
@@ -5803,7 +5984,7 @@
         <v>707</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>1044</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>8</v>
@@ -5823,7 +6004,7 @@
         <v>630</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
@@ -5843,7 +6024,7 @@
         <v>655</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
@@ -5863,7 +6044,7 @@
         <v>702</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>1050</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
@@ -5883,7 +6064,7 @@
         <v>610</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>941</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
@@ -5903,7 +6084,7 @@
         <v>745</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>1017</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
@@ -5923,7 +6104,7 @@
         <v>617</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>8</v>
@@ -5963,7 +6144,7 @@
         <v>713</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>8</v>
+        <v>1013</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>8</v>
@@ -5983,7 +6164,7 @@
         <v>625</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>8</v>
@@ -6003,7 +6184,7 @@
         <v>719</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>1036</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>8</v>
@@ -6023,7 +6204,7 @@
         <v>654</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>1015</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>8</v>
@@ -6043,7 +6224,7 @@
         <v>595</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>8</v>
@@ -6060,7 +6241,7 @@
         <v>172</v>
       </c>
       <c r="D129" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
@@ -6081,7 +6262,7 @@
         <v>721</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>1023</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>8</v>
@@ -6101,7 +6282,7 @@
         <v>722</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>8</v>
@@ -6121,7 +6302,7 @@
         <v>744</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>8</v>
@@ -6138,7 +6319,7 @@
         <v>516</v>
       </c>
       <c r="D133" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>8</v>
@@ -6158,7 +6339,7 @@
         <v>506</v>
       </c>
       <c r="D134" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>8</v>
@@ -6181,7 +6362,7 @@
         <v>763</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>8</v>
@@ -6201,7 +6382,7 @@
         <v>698</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>8</v>
@@ -6221,7 +6402,7 @@
         <v>670</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>8</v>
@@ -6261,7 +6442,7 @@
         <v>592</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>8</v>
@@ -6301,7 +6482,7 @@
         <v>729</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>8</v>
@@ -6321,7 +6502,7 @@
         <v>740</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>1053</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>8</v>
@@ -6341,7 +6522,7 @@
         <v>650</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>1045</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>8</v>
@@ -6361,7 +6542,7 @@
         <v>768</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>8</v>
@@ -6381,7 +6562,7 @@
         <v>715</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>8</v>
@@ -6401,7 +6582,7 @@
         <v>608</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>1025</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>8</v>
@@ -6421,7 +6602,7 @@
         <v>725</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>8</v>
@@ -6441,7 +6622,7 @@
         <v>671</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>8</v>
@@ -6461,7 +6642,7 @@
         <v>704</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>1038</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>8</v>
@@ -6481,7 +6662,7 @@
         <v>761</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>8</v>
+        <v>1019</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>8</v>
@@ -6501,7 +6682,7 @@
         <v>607</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>8</v>
@@ -6521,7 +6702,7 @@
         <v>726</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
@@ -6558,10 +6739,10 @@
         <v>486</v>
       </c>
       <c r="D154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
@@ -6581,7 +6762,7 @@
         <v>646</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>8</v>
+        <v>1027</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
@@ -6601,7 +6782,7 @@
         <v>718</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>8</v>
@@ -6621,7 +6802,7 @@
         <v>766</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>8</v>
@@ -6638,10 +6819,10 @@
         <v>526</v>
       </c>
       <c r="D158" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>8</v>
@@ -6681,7 +6862,7 @@
         <v>735</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>8</v>
+        <v>967</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>8</v>
@@ -6741,7 +6922,7 @@
         <v>658</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
@@ -6761,7 +6942,7 @@
         <v>755</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>1056</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>8</v>
@@ -6781,7 +6962,7 @@
         <v>574</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>8</v>
+        <v>1015</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -6801,7 +6982,7 @@
         <v>720</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -6821,7 +7002,7 @@
         <v>681</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -6838,10 +7019,10 @@
         <v>488</v>
       </c>
       <c r="D168" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>1010</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -6861,7 +7042,7 @@
         <v>673</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
@@ -6921,7 +7102,7 @@
         <v>672</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
@@ -6941,7 +7122,7 @@
         <v>799</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
@@ -6961,7 +7142,7 @@
         <v>706</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
@@ -6981,7 +7162,7 @@
         <v>796</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
@@ -7001,7 +7182,7 @@
         <v>750</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>8</v>
@@ -7021,7 +7202,7 @@
         <v>759</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>8</v>
@@ -7041,7 +7222,7 @@
         <v>686</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>8</v>
@@ -7061,7 +7242,7 @@
         <v>659</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>8</v>
+        <v>1021</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>8</v>
@@ -7081,7 +7262,7 @@
         <v>797</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>8</v>
+        <v>1059</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>8</v>
@@ -7101,7 +7282,7 @@
         <v>723</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>8</v>
+        <v>1005</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>8</v>
@@ -7121,7 +7302,7 @@
         <v>684</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>1026</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>8</v>
@@ -7141,7 +7322,7 @@
         <v>775</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>8</v>
@@ -7161,7 +7342,7 @@
         <v>779</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>8</v>
+        <v>946</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>8</v>
@@ -7181,7 +7362,7 @@
         <v>742</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>8</v>
+        <v>1048</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>8</v>
@@ -7201,7 +7382,7 @@
         <v>777</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>8</v>
@@ -7221,7 +7402,7 @@
         <v>771</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>8</v>
@@ -7241,7 +7422,7 @@
         <v>762</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>8</v>
@@ -7261,7 +7442,7 @@
         <v>688</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>8</v>
@@ -7281,7 +7462,7 @@
         <v>776</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>8</v>
+        <v>1011</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>8</v>
@@ -7301,7 +7482,7 @@
         <v>581</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>8</v>
@@ -7341,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>8</v>
+        <v>1012</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>8</v>
@@ -7361,7 +7542,7 @@
         <v>639</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>8</v>
@@ -7381,7 +7562,7 @@
         <v>669</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>8</v>
+        <v>942</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>8</v>
@@ -7401,7 +7582,7 @@
         <v>804</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>8</v>
@@ -7421,7 +7602,7 @@
         <v>770</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>8</v>
@@ -7441,7 +7622,7 @@
         <v>778</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>8</v>
@@ -7461,7 +7642,7 @@
         <v>621</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>8</v>
+        <v>1016</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>8</v>
@@ -7481,7 +7662,7 @@
         <v>769</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>8</v>
+        <v>945</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>8</v>
@@ -7501,7 +7682,7 @@
         <v>772</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>8</v>
@@ -7521,7 +7702,7 @@
         <v>773</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>949</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>8</v>
@@ -7541,7 +7722,7 @@
         <v>691</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>8</v>
@@ -7561,7 +7742,7 @@
         <v>780</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>8</v>
+        <v>975</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>8</v>
@@ -7581,7 +7762,7 @@
         <v>618</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>8</v>
@@ -7601,7 +7782,7 @@
         <v>783</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>8</v>
@@ -7621,7 +7802,7 @@
         <v>785</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>8</v>
+        <v>1035</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>8</v>
@@ -7641,7 +7822,7 @@
         <v>689</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>8</v>
@@ -7661,7 +7842,7 @@
         <v>641</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>8</v>
@@ -7681,7 +7862,7 @@
         <v>753</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>8</v>
@@ -7701,7 +7882,7 @@
         <v>748</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>8</v>
@@ -7721,7 +7902,7 @@
         <v>789</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>8</v>
@@ -7741,7 +7922,7 @@
         <v>791</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>8</v>
+        <v>991</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>8</v>
@@ -7761,7 +7942,7 @@
         <v>784</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>8</v>
+        <v>1028</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>8</v>
@@ -7781,7 +7962,7 @@
         <v>683</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>8</v>
@@ -7801,7 +7982,7 @@
         <v>747</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>8</v>
@@ -7821,7 +8002,7 @@
         <v>660</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>8</v>
@@ -7841,7 +8022,7 @@
         <v>697</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>8</v>
+        <v>981</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>8</v>
@@ -7881,7 +8062,7 @@
         <v>696</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>8</v>
@@ -7901,7 +8082,7 @@
         <v>730</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>8</v>
@@ -7921,7 +8102,7 @@
         <v>798</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>8</v>
@@ -7941,7 +8122,7 @@
         <v>717</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>8</v>
+        <v>1052</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>8</v>
@@ -7961,7 +8142,7 @@
         <v>626</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>8</v>
@@ -7981,7 +8162,7 @@
         <v>800</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>8</v>
+        <v>1003</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>8</v>
@@ -8001,7 +8182,7 @@
         <v>649</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>8</v>
+        <v>1043</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>8</v>
@@ -8021,7 +8202,7 @@
         <v>739</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>8</v>
@@ -8038,10 +8219,10 @@
         <v>504</v>
       </c>
       <c r="D228" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>8</v>
@@ -8081,7 +8262,7 @@
         <v>675</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>8</v>
@@ -8121,7 +8302,7 @@
         <v>711</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>8</v>
+        <v>951</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>8</v>
@@ -8138,7 +8319,7 @@
         <v>480</v>
       </c>
       <c r="D233" t="s">
-        <v>805</v>
+        <v>1001</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>8</v>
@@ -8161,7 +8342,7 @@
         <v>648</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>8</v>
+        <v>1043</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>8</v>
@@ -8181,7 +8362,7 @@
         <v>749</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>8</v>
+        <v>998</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>8</v>
@@ -8201,7 +8382,7 @@
         <v>692</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>8</v>
+        <v>963</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>8</v>
@@ -8221,7 +8402,7 @@
         <v>656</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>8</v>
@@ -8238,10 +8419,10 @@
         <v>500</v>
       </c>
       <c r="D238" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>8</v>
+        <v>1010</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>8</v>
@@ -8261,7 +8442,7 @@
         <v>687</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>8</v>
@@ -8281,7 +8462,7 @@
         <v>676</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>8</v>
+        <v>1022</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>8</v>
@@ -8301,7 +8482,7 @@
         <v>733</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>8</v>
@@ -8321,7 +8502,7 @@
         <v>507</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>8</v>
@@ -8338,10 +8519,10 @@
         <v>512</v>
       </c>
       <c r="D243" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>8</v>
@@ -8358,10 +8539,10 @@
         <v>494</v>
       </c>
       <c r="D244" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>8</v>
+        <v>1005</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>8</v>
@@ -8378,10 +8559,10 @@
         <v>496</v>
       </c>
       <c r="D245" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>8</v>
@@ -8398,10 +8579,10 @@
         <v>498</v>
       </c>
       <c r="D246" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>8</v>
+        <v>987</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>8</v>
@@ -8418,10 +8599,10 @@
         <v>492</v>
       </c>
       <c r="D247" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>8</v>
+        <v>1037</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>8</v>
@@ -8438,10 +8619,10 @@
         <v>490</v>
       </c>
       <c r="D248" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>8</v>
+        <v>967</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>8</v>
@@ -8461,7 +8642,7 @@
         <v>582</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>8</v>
+        <v>1058</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>8</v>
@@ -8481,7 +8662,7 @@
         <v>640</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>8</v>
+        <v>1021</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>8</v>
@@ -8501,7 +8682,7 @@
         <v>653</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>8</v>
@@ -8521,7 +8702,7 @@
         <v>792</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>8</v>
@@ -8541,7 +8722,7 @@
         <v>690</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>8</v>
@@ -8561,7 +8742,7 @@
         <v>787</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>8</v>
+        <v>964</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>8</v>
@@ -8601,7 +8782,7 @@
         <v>602</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>8</v>
@@ -8621,7 +8802,7 @@
         <v>633</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>8</v>
@@ -8661,7 +8842,7 @@
         <v>599</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>8</v>
+        <v>1047</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>8</v>
@@ -8681,7 +8862,7 @@
         <v>603</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>8</v>
+        <v>1033</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>8</v>
@@ -8701,7 +8882,7 @@
         <v>601</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>8</v>
@@ -8721,7 +8902,7 @@
         <v>606</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>8</v>
@@ -8785,16 +8966,16 @@
         <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -8808,16 +8989,16 @@
         <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -8831,16 +9012,16 @@
         <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -8854,16 +9035,16 @@
         <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -8877,16 +9058,16 @@
         <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -8900,16 +9081,16 @@
         <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -8923,16 +9104,16 @@
         <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -8946,16 +9127,16 @@
         <v>540</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -8969,16 +9150,16 @@
         <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
@@ -8992,16 +9173,16 @@
         <v>542</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -9015,16 +9196,16 @@
         <v>543</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>840</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -9038,16 +9219,16 @@
         <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -9061,16 +9242,16 @@
         <v>545</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -9084,16 +9265,16 @@
         <v>546</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -9107,16 +9288,16 @@
         <v>547</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
@@ -9130,16 +9311,16 @@
         <v>548</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>859</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -9153,16 +9334,16 @@
         <v>549</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
@@ -9176,16 +9357,16 @@
         <v>550</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>874</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -9199,16 +9380,16 @@
         <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -9222,16 +9403,16 @@
         <v>552</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -9245,16 +9426,16 @@
         <v>553</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -9268,16 +9449,16 @@
         <v>554</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -9291,16 +9472,16 @@
         <v>555</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -9314,16 +9495,16 @@
         <v>556</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -9337,16 +9518,16 @@
         <v>557</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -9360,16 +9541,16 @@
         <v>558</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -9383,16 +9564,16 @@
         <v>559</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>895</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -9406,16 +9587,16 @@
         <v>560</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -9429,16 +9610,16 @@
         <v>561</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -9452,16 +9633,16 @@
         <v>562</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -9475,16 +9656,16 @@
         <v>563</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -9498,13 +9679,13 @@
         <v>564</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -9521,13 +9702,13 @@
         <v>565</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -9571,7 +9752,7 @@
         <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9579,7 +9760,7 @@
         <v>568</v>
       </c>
       <c r="B3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9587,7 +9768,7 @@
         <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9595,7 +9776,7 @@
         <v>570</v>
       </c>
       <c r="B5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9603,7 +9784,7 @@
         <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik.huizinga/Dropbox/Software/Repos/GitHub/navarog/wingsearch/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B7A4D-2145-3440-B30D-8FEC16F9A061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8935062-6004-5940-A92D-08EFF98C5164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1069">
   <si>
     <t>id</t>
   </si>
@@ -3228,6 +3228,27 @@
   </si>
   <si>
     <t>trek 1 nieuwe bonuskaart. Trek dan 1 [die] uit het vogelhuisje.</t>
+  </si>
+  <si>
+    <t>kies 1 andere speler. Voor elke actiesteen op zijn [grassland], leg je 1 [egg] op deze vogel.</t>
+  </si>
+  <si>
+    <t>leg 1 [egg] af om 2 [card] te pakken.</t>
+  </si>
+  <si>
+    <t>leg deze vogel horizontaal neer, zodat deze 2 [wetland]-velden bedekt. Betaal de lagere eikosten.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, pak dan 1 [seed] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>stop een [card] uit je hand onder deze vogel weg. Doe je dat, pak dan 1 [invertebrate] uit de voorraad.</t>
+  </si>
+  <si>
+    <t>stop ten hoogste 3 [card] uit je hand onder deze vogel weg. Trek 1 [card] voor elke kaart die je hebt weggestopt.</t>
+  </si>
+  <si>
+    <t>steel 1 [fish] uit de voorraad van een andere speler en bewaar het op deze kaart. Hij pakt 1 [die] uit het vogelhuisje.</t>
   </si>
 </sst>
 </file>
@@ -3658,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4366,7 +4387,7 @@
         <v>613</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -4406,7 +4427,7 @@
         <v>709</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>1064</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -4486,7 +4507,7 @@
         <v>593</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -4586,7 +4607,7 @@
         <v>741</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
@@ -4626,7 +4647,7 @@
         <v>801</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>936</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4746,7 +4767,7 @@
         <v>623</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>1016</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
@@ -4786,7 +4807,7 @@
         <v>627</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
@@ -4826,7 +4847,7 @@
         <v>767</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>1005</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>8</v>
@@ -4985,7 +5006,9 @@
       <c r="D66" t="s">
         <v>638</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>1040</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5084,7 +5107,7 @@
         <v>756</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>1065</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>8</v>
@@ -5304,7 +5327,7 @@
         <v>694</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>1063</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>8</v>
@@ -5364,7 +5387,7 @@
         <v>738</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>1005</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>8</v>
@@ -5404,7 +5427,7 @@
         <v>822</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>1012</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>8</v>
@@ -5464,7 +5487,7 @@
         <v>825</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>938</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>8</v>
@@ -5824,7 +5847,7 @@
         <v>665</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>1065</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>8</v>
@@ -5884,7 +5907,7 @@
         <v>677</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>8</v>
+        <v>1040</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>8</v>
@@ -6124,7 +6147,7 @@
         <v>668</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>1062</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>8</v>
@@ -6243,7 +6266,9 @@
       <c r="D129" t="s">
         <v>954</v>
       </c>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>1068</v>
+      </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
@@ -6322,7 +6347,7 @@
         <v>821</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>8</v>
@@ -6422,7 +6447,7 @@
         <v>781</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>1067</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>8</v>
@@ -6462,7 +6487,7 @@
         <v>724</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>1063</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>8</v>
@@ -6722,7 +6747,7 @@
         <v>728</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>8</v>
+        <v>979</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
@@ -6842,7 +6867,7 @@
         <v>734</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>8</v>
+        <v>988</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>8</v>
@@ -6902,7 +6927,7 @@
         <v>642</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>8</v>
+        <v>981</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -7062,7 +7087,7 @@
         <v>587</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>8</v>
@@ -7082,7 +7107,7 @@
         <v>611</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>8</v>
+        <v>1010</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
@@ -7502,7 +7527,7 @@
         <v>765</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>8</v>
@@ -8042,7 +8067,7 @@
         <v>732</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>8</v>
+        <v>1027</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>8</v>
@@ -8282,7 +8307,7 @@
         <v>803</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>8</v>
+        <v>945</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>8</v>
@@ -8322,7 +8347,7 @@
         <v>1001</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>8</v>
+        <v>1066</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>8</v>
@@ -8762,7 +8787,7 @@
         <v>604</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>8</v>
+        <v>1004</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>8</v>
@@ -8822,7 +8847,7 @@
         <v>645</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>8</v>
+        <v>972</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>8</v>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E5BD4-9128-467F-B2A0-9B3D7439B148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF25B6C-CFAA-4222-8A5B-0B89B360B2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1265">
   <si>
     <t>id</t>
   </si>
@@ -3834,6 +3834,9 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
@@ -3995,8 +3998,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
     <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
@@ -10866,7 +10869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B39"/>
     </sheetView>
   </sheetViews>
@@ -11738,10 +11741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11792,9 +11795,14 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>571</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>832</v>
       </c>
     </row>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF25B6C-CFAA-4222-8A5B-0B89B360B2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B1679-ADFF-48A9-B9BB-7AAB3FC78593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1266">
   <si>
     <t>id</t>
   </si>
@@ -3837,6 +3837,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3885,7 +3888,19 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3934,14 +3949,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3964,18 +3983,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F262">
     <sortCondition ref="A1:A262"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{21F8B011-EDD2-4704-96EF-77D8E85133C1}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{52BE0686-1A6C-4298-8B68-C998C9935410}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{60025261-B5EC-4610-A46F-8E3DB819A90A}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4909BE4D-BCE4-4DD7-AC8F-D0437F348EBF}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3986,12 +4009,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4271,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4287,7 +4310,7 @@
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4306,8 +4329,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4326,8 +4361,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4346,8 +4393,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4366,8 +4425,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4386,8 +4457,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4406,8 +4489,20 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4426,8 +4521,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4446,8 +4553,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4466,8 +4585,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4486,8 +4617,20 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4506,8 +4649,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4526,8 +4681,20 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4546,8 +4713,20 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4566,8 +4745,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4586,8 +4777,20 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4606,8 +4809,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4626,8 +4841,20 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4646,8 +4873,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4666,8 +4905,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4686,8 +4937,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4706,8 +4969,20 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4726,8 +5001,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4746,8 +5033,20 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4766,8 +5065,20 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4786,8 +5097,20 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4806,8 +5129,20 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4826,8 +5161,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4846,8 +5193,20 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4866,8 +5225,20 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4886,8 +5257,20 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4906,8 +5289,20 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4926,8 +5321,20 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4946,8 +5353,20 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4966,8 +5385,20 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4986,8 +5417,20 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -5006,8 +5449,20 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -5026,8 +5481,20 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -5046,8 +5513,20 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -5066,8 +5545,20 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -5086,8 +5577,20 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -5106,8 +5609,20 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -5126,8 +5641,20 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -5146,8 +5673,20 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -5166,8 +5705,20 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5186,8 +5737,20 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5206,8 +5769,20 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5226,8 +5801,20 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5246,8 +5833,20 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5266,8 +5865,20 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5286,8 +5897,20 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5306,8 +5929,20 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5326,8 +5961,20 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5346,8 +5993,20 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5366,8 +6025,20 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5386,8 +6057,20 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5406,8 +6089,20 @@
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5426,8 +6121,20 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -5446,8 +6153,20 @@
       <c r="F58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -5466,8 +6185,20 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -5486,8 +6217,20 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -5506,8 +6249,20 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -5526,8 +6281,20 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -5546,8 +6313,20 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -5566,8 +6345,20 @@
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -5586,8 +6377,20 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -5606,8 +6409,20 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5626,8 +6441,20 @@
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5646,8 +6473,20 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5666,8 +6505,20 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5686,8 +6537,20 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5706,8 +6569,20 @@
       <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5726,8 +6601,20 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5746,8 +6633,20 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5766,8 +6665,20 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5786,8 +6697,20 @@
       <c r="F75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5806,8 +6729,20 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5826,8 +6761,20 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5846,8 +6793,20 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5866,8 +6825,20 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5886,8 +6857,20 @@
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5906,8 +6889,20 @@
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5926,8 +6921,20 @@
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5946,8 +6953,20 @@
       <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5966,8 +6985,20 @@
       <c r="F84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5986,8 +7017,20 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6006,8 +7049,20 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6026,8 +7081,20 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6046,8 +7113,20 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6066,8 +7145,20 @@
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6086,8 +7177,20 @@
       <c r="F90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6106,8 +7209,20 @@
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -6126,8 +7241,20 @@
       <c r="F92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -6146,8 +7273,20 @@
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -6166,8 +7305,20 @@
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -6186,8 +7337,20 @@
       <c r="F95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -6206,8 +7369,20 @@
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -6226,8 +7401,20 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -6246,8 +7433,20 @@
       <c r="F98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -6266,8 +7465,20 @@
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6286,8 +7497,20 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -6306,8 +7529,20 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -6326,8 +7561,20 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -6346,8 +7593,20 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -6366,8 +7625,20 @@
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -6386,8 +7657,20 @@
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -6406,8 +7689,20 @@
       <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -6426,8 +7721,20 @@
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -6446,8 +7753,20 @@
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -6466,8 +7785,20 @@
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -6486,8 +7817,20 @@
       <c r="F110" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -6506,8 +7849,20 @@
       <c r="F111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -6526,8 +7881,20 @@
       <c r="F112" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -6546,8 +7913,20 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -6566,8 +7945,20 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -6586,8 +7977,20 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -6606,8 +8009,20 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -6626,8 +8041,20 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -6646,8 +8073,20 @@
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -6666,8 +8105,20 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -6686,8 +8137,20 @@
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -6706,8 +8169,20 @@
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6726,8 +8201,20 @@
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6746,8 +8233,20 @@
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6766,8 +8265,20 @@
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6786,8 +8297,20 @@
       <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6806,8 +8329,20 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6826,8 +8361,20 @@
       <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6846,8 +8393,20 @@
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6866,8 +8425,20 @@
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6886,8 +8457,20 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -6906,8 +8489,20 @@
       <c r="F131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -6926,8 +8521,20 @@
       <c r="F132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -6946,8 +8553,20 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6966,8 +8585,20 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6986,8 +8617,20 @@
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7006,8 +8649,20 @@
       <c r="F136" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7026,8 +8681,20 @@
       <c r="F137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7046,8 +8713,20 @@
       <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7066,8 +8745,20 @@
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7086,8 +8777,20 @@
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7106,8 +8809,20 @@
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -7126,8 +8841,20 @@
       <c r="F142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -7146,8 +8873,20 @@
       <c r="F143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -7166,8 +8905,20 @@
       <c r="F144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -7186,8 +8937,20 @@
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -7206,8 +8969,20 @@
       <c r="F146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -7226,8 +9001,20 @@
       <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -7246,8 +9033,20 @@
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -7266,8 +9065,20 @@
       <c r="F149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -7286,8 +9097,20 @@
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -7306,8 +9129,20 @@
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -7326,8 +9161,20 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -7346,8 +9193,20 @@
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -7366,8 +9225,20 @@
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -7386,8 +9257,20 @@
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -7406,8 +9289,20 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -7426,8 +9321,20 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -7446,8 +9353,20 @@
       <c r="F158" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -7466,8 +9385,20 @@
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -7486,8 +9417,20 @@
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -7506,8 +9449,20 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -7526,8 +9481,20 @@
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -7546,8 +9513,20 @@
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -7566,8 +9545,20 @@
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -7586,8 +9577,20 @@
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -7606,8 +9609,20 @@
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -7626,8 +9641,20 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -7646,8 +9673,20 @@
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -7666,8 +9705,20 @@
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -7686,8 +9737,20 @@
       <c r="F170" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -7706,8 +9769,20 @@
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -7726,8 +9801,20 @@
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -7746,8 +9833,20 @@
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -7766,8 +9865,20 @@
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -7786,8 +9897,20 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -7806,8 +9929,20 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -7826,8 +9961,20 @@
       <c r="F177" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -7846,8 +9993,20 @@
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -7866,8 +10025,20 @@
       <c r="F179" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -7886,8 +10057,20 @@
       <c r="F180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -7906,8 +10089,20 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -7926,8 +10121,20 @@
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -7946,8 +10153,20 @@
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7966,8 +10185,20 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7986,8 +10217,20 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -8006,8 +10249,20 @@
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -8026,8 +10281,20 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -8046,8 +10313,20 @@
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -8066,8 +10345,20 @@
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -8086,8 +10377,20 @@
       <c r="F190" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -8106,8 +10409,20 @@
       <c r="F191" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -8126,8 +10441,20 @@
       <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -8146,8 +10473,20 @@
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -8166,8 +10505,20 @@
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -8186,8 +10537,20 @@
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -8206,8 +10569,20 @@
       <c r="F196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -8226,8 +10601,20 @@
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -8246,8 +10633,20 @@
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -8266,8 +10665,20 @@
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -8286,8 +10697,20 @@
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -8306,8 +10729,20 @@
       <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -8326,8 +10761,20 @@
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -8346,8 +10793,20 @@
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -8366,8 +10825,20 @@
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -8386,8 +10857,20 @@
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -8406,8 +10889,20 @@
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -8426,8 +10921,20 @@
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -8446,8 +10953,20 @@
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -8466,8 +10985,20 @@
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -8486,8 +11017,20 @@
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -8506,8 +11049,20 @@
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -8526,8 +11081,20 @@
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -8546,8 +11113,20 @@
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -8566,8 +11145,20 @@
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -8586,8 +11177,20 @@
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -8606,8 +11209,20 @@
       <c r="F216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -8626,8 +11241,20 @@
       <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -8646,8 +11273,20 @@
       <c r="F218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -8666,8 +11305,20 @@
       <c r="F219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -8686,8 +11337,20 @@
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -8706,8 +11369,20 @@
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -8726,8 +11401,20 @@
       <c r="F222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -8746,8 +11433,20 @@
       <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -8766,8 +11465,20 @@
       <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -8786,8 +11497,20 @@
       <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -8806,8 +11529,20 @@
       <c r="F226" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -8826,8 +11561,20 @@
       <c r="F227" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -8846,8 +11593,20 @@
       <c r="F228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -8866,8 +11625,20 @@
       <c r="F229" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -8886,8 +11657,20 @@
       <c r="F230" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -8906,8 +11689,20 @@
       <c r="F231" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -8926,8 +11721,20 @@
       <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -8946,8 +11753,20 @@
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -8966,8 +11785,20 @@
       <c r="F234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -8986,8 +11817,20 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -9006,8 +11849,20 @@
       <c r="F236" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -9026,8 +11881,20 @@
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -9046,8 +11913,20 @@
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -9066,8 +11945,20 @@
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -9086,8 +11977,20 @@
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -9106,8 +12009,20 @@
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -9126,8 +12041,20 @@
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -9146,8 +12073,20 @@
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -9166,8 +12105,20 @@
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -9186,8 +12137,20 @@
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -9206,8 +12169,20 @@
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -9226,8 +12201,20 @@
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -9246,8 +12233,20 @@
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -9266,8 +12265,20 @@
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -9286,8 +12297,20 @@
       <c r="F250" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -9306,8 +12329,20 @@
       <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -9326,8 +12361,20 @@
       <c r="F252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -9346,8 +12393,20 @@
       <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -9366,8 +12425,20 @@
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -9386,8 +12457,20 @@
       <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -9406,8 +12489,20 @@
       <c r="F256" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -9426,8 +12521,20 @@
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -9446,8 +12553,20 @@
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -9466,8 +12585,20 @@
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -9486,8 +12617,20 @@
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -9506,8 +12649,20 @@
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -9526,8 +12681,20 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>264</v>
       </c>
@@ -9540,8 +12707,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>265</v>
       </c>
@@ -9554,8 +12733,20 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>266</v>
       </c>
@@ -9568,8 +12759,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>267</v>
       </c>
@@ -9582,8 +12785,20 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>268</v>
       </c>
@@ -9596,8 +12811,20 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>269</v>
       </c>
@@ -9610,8 +12837,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>270</v>
       </c>
@@ -9624,8 +12863,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>271</v>
       </c>
@@ -9638,8 +12889,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>272</v>
       </c>
@@ -9652,8 +12915,20 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>273</v>
       </c>
@@ -9666,8 +12941,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>274</v>
       </c>
@@ -9680,8 +12967,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>275</v>
       </c>
@@ -9694,8 +12993,20 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>276</v>
       </c>
@@ -9708,8 +13019,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>277</v>
       </c>
@@ -9722,8 +13045,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>278</v>
       </c>
@@ -9736,8 +13071,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>279</v>
       </c>
@@ -9750,8 +13097,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>280</v>
       </c>
@@ -9764,8 +13123,20 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>281</v>
       </c>
@@ -9778,8 +13149,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>282</v>
       </c>
@@ -9792,8 +13175,20 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>283</v>
       </c>
@@ -9806,8 +13201,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>284</v>
       </c>
@@ -9820,8 +13227,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>285</v>
       </c>
@@ -9834,8 +13253,20 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>286</v>
       </c>
@@ -9848,8 +13279,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>287</v>
       </c>
@@ -9862,8 +13305,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>288</v>
       </c>
@@ -9876,8 +13331,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>289</v>
       </c>
@@ -9890,8 +13357,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>290</v>
       </c>
@@ -9904,8 +13383,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>291</v>
       </c>
@@ -9918,8 +13409,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>292</v>
       </c>
@@ -9932,8 +13435,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>293</v>
       </c>
@@ -9946,8 +13461,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>294</v>
       </c>
@@ -9960,8 +13487,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>295</v>
       </c>
@@ -9974,8 +13513,20 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>296</v>
       </c>
@@ -9988,8 +13539,20 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>297</v>
       </c>
@@ -10002,8 +13565,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>298</v>
       </c>
@@ -10016,8 +13591,20 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>299</v>
       </c>
@@ -10030,8 +13617,20 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>300</v>
       </c>
@@ -10044,8 +13643,20 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>301</v>
       </c>
@@ -10058,8 +13669,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>302</v>
       </c>
@@ -10072,8 +13695,20 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>303</v>
       </c>
@@ -10086,8 +13721,20 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>304</v>
       </c>
@@ -10100,8 +13747,20 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>305</v>
       </c>
@@ -10114,8 +13773,20 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>306</v>
       </c>
@@ -10128,8 +13799,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>307</v>
       </c>
@@ -10142,8 +13825,20 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>308</v>
       </c>
@@ -10156,8 +13851,20 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>309</v>
       </c>
@@ -10170,8 +13877,20 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>310</v>
       </c>
@@ -10184,8 +13903,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>311</v>
       </c>
@@ -10198,8 +13929,20 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>312</v>
       </c>
@@ -10212,8 +13955,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>313</v>
       </c>
@@ -10226,8 +13981,20 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>314</v>
       </c>
@@ -10240,8 +14007,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>315</v>
       </c>
@@ -10254,8 +14033,20 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>316</v>
       </c>
@@ -10268,8 +14059,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>317</v>
       </c>
@@ -10282,8 +14085,20 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>318</v>
       </c>
@@ -10296,8 +14111,20 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>319</v>
       </c>
@@ -10310,8 +14137,20 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>320</v>
       </c>
@@ -10324,8 +14163,20 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>321</v>
       </c>
@@ -10338,8 +14189,20 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>322</v>
       </c>
@@ -10352,8 +14215,20 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>323</v>
       </c>
@@ -10366,8 +14241,20 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>324</v>
       </c>
@@ -10380,8 +14267,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>325</v>
       </c>
@@ -10394,8 +14293,20 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>326</v>
       </c>
@@ -10408,8 +14319,20 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>327</v>
       </c>
@@ -10422,8 +14345,20 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>328</v>
       </c>
@@ -10436,8 +14371,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>329</v>
       </c>
@@ -10450,8 +14397,20 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>330</v>
       </c>
@@ -10464,8 +14423,20 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>331</v>
       </c>
@@ -10478,8 +14449,20 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>332</v>
       </c>
@@ -10492,8 +14475,20 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>333</v>
       </c>
@@ -10506,8 +14501,20 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>334</v>
       </c>
@@ -10520,8 +14527,20 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>335</v>
       </c>
@@ -10534,8 +14553,20 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>336</v>
       </c>
@@ -10548,8 +14579,20 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>337</v>
       </c>
@@ -10562,8 +14605,20 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>338</v>
       </c>
@@ -10576,8 +14631,20 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>339</v>
       </c>
@@ -10590,8 +14657,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>340</v>
       </c>
@@ -10604,8 +14683,20 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>341</v>
       </c>
@@ -10618,8 +14709,20 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>342</v>
       </c>
@@ -10632,8 +14735,20 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>343</v>
       </c>
@@ -10646,8 +14761,20 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>344</v>
       </c>
@@ -10660,8 +14787,20 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>345</v>
       </c>
@@ -10674,8 +14813,20 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>346</v>
       </c>
@@ -10688,8 +14839,20 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>347</v>
       </c>
@@ -10702,8 +14865,20 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>348</v>
       </c>
@@ -10716,8 +14891,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>349</v>
       </c>
@@ -10730,8 +14917,20 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>350</v>
       </c>
@@ -10744,8 +14943,20 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>351</v>
       </c>
@@ -10758,8 +14969,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>352</v>
       </c>
@@ -10772,8 +14995,20 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>353</v>
       </c>
@@ -10786,8 +15021,20 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>354</v>
       </c>
@@ -10800,8 +15047,20 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>355</v>
       </c>
@@ -10814,8 +15073,20 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>356</v>
       </c>
@@ -10828,8 +15099,20 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>357</v>
       </c>
@@ -10842,8 +15125,20 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>358</v>
       </c>
@@ -10856,6 +15151,18 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11743,7 +16050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B1679-ADFF-48A9-B9BB-7AAB3FC78593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0647F9-5056-4BD2-BDEB-2632F53E3DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2705,9 +2705,6 @@
     <t>Vogelteller</t>
   </si>
   <si>
-    <t>Vogels met een [focking]-eigenschap</t>
-  </si>
-  <si>
     <t>Gedragswetenschapper</t>
   </si>
   <si>
@@ -3840,6 +3837,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Vogels met een [flocking]-eigenschap</t>
   </si>
 </sst>
 </file>
@@ -3995,10 +3995,10 @@
     <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{21F8B011-EDD2-4704-96EF-77D8E85133C1}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{52BE0686-1A6C-4298-8B68-C998C9935410}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{60025261-B5EC-4610-A46F-8E3DB819A90A}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{4909BE4D-BCE4-4DD7-AC8F-D0437F348EBF}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{21F8B011-EDD2-4704-96EF-77D8E85133C1}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{52BE0686-1A6C-4298-8B68-C998C9935410}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{60025261-B5EC-4610-A46F-8E3DB819A90A}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{4909BE4D-BCE4-4DD7-AC8F-D0437F348EBF}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4009,12 +4009,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4296,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4356,7 +4356,7 @@
         <v>572</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -4388,7 +4388,7 @@
         <v>573</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -4397,7 +4397,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         <v>574</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -4429,7 +4429,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>8</v>
@@ -4452,7 +4452,7 @@
         <v>575</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -4461,7 +4461,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>8</v>
@@ -4484,7 +4484,7 @@
         <v>576</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4493,7 +4493,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>8</v>
@@ -4516,7 +4516,7 @@
         <v>577</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -4525,13 +4525,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4548,7 +4548,7 @@
         <v>578</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -4557,7 +4557,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
@@ -4580,7 +4580,7 @@
         <v>579</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -4589,7 +4589,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>8</v>
@@ -4612,7 +4612,7 @@
         <v>580</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -4621,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
         <v>581</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>8</v>
@@ -4676,7 +4676,7 @@
         <v>582</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -4685,13 +4685,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>8</v>
@@ -4740,7 +4740,7 @@
         <v>584</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -4752,7 +4752,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -4772,7 +4772,7 @@
         <v>585</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -4804,13 +4804,13 @@
         <v>586</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>8</v>
@@ -4819,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>587</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -4845,10 +4845,10 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
@@ -4868,7 +4868,7 @@
         <v>588</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -4900,7 +4900,7 @@
         <v>589</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -4932,7 +4932,7 @@
         <v>590</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4964,7 +4964,7 @@
         <v>591</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -4973,7 +4973,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -4996,7 +4996,7 @@
         <v>592</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -5028,7 +5028,7 @@
         <v>593</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -5060,7 +5060,7 @@
         <v>594</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -5092,22 +5092,22 @@
         <v>595</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5124,7 +5124,7 @@
         <v>596</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -5156,7 +5156,7 @@
         <v>597</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -5168,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
@@ -5188,7 +5188,7 @@
         <v>598</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -5220,7 +5220,7 @@
         <v>599</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -5235,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5252,7 +5252,7 @@
         <v>600</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -5267,7 +5267,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5284,7 +5284,7 @@
         <v>601</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -5299,7 +5299,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5316,7 +5316,7 @@
         <v>602</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -5331,7 +5331,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5348,7 +5348,7 @@
         <v>603</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -5363,7 +5363,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5380,13 +5380,13 @@
         <v>604</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>8</v>
@@ -5395,7 +5395,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5412,13 +5412,13 @@
         <v>605</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
@@ -5427,7 +5427,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5444,13 +5444,13 @@
         <v>606</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>8</v>
@@ -5459,7 +5459,7 @@
         <v>8</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5476,13 +5476,13 @@
         <v>607</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>8</v>
@@ -5491,7 +5491,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5508,13 +5508,13 @@
         <v>608</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>8</v>
@@ -5523,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5540,13 +5540,13 @@
         <v>609</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>8</v>
@@ -5555,7 +5555,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5572,13 +5572,13 @@
         <v>610</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>8</v>
@@ -5587,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5604,13 +5604,13 @@
         <v>611</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
@@ -5619,7 +5619,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5636,13 +5636,13 @@
         <v>612</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -5651,7 +5651,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5668,7 +5668,7 @@
         <v>613</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -5683,7 +5683,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>614</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -5715,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5738,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -5747,7 +5747,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5764,22 +5764,22 @@
         <v>616</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5796,7 +5796,7 @@
         <v>97</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -5808,7 +5808,7 @@
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -5828,7 +5828,7 @@
         <v>617</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5860,7 +5860,7 @@
         <v>618</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
@@ -5872,7 +5872,7 @@
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -5892,7 +5892,7 @@
         <v>619</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -5907,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5924,13 +5924,13 @@
         <v>620</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>8</v>
@@ -5956,7 +5956,7 @@
         <v>621</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -5971,7 +5971,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5988,7 +5988,7 @@
         <v>622</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>8</v>
@@ -6003,7 +6003,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6020,13 +6020,13 @@
         <v>623</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
@@ -6035,7 +6035,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6052,7 +6052,7 @@
         <v>624</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
@@ -6084,7 +6084,7 @@
         <v>625</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
@@ -6116,7 +6116,7 @@
         <v>626</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>8</v>
@@ -6148,7 +6148,7 @@
         <v>627</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>8</v>
@@ -6157,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -6180,7 +6180,7 @@
         <v>628</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
@@ -6189,7 +6189,7 @@
         <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -6212,7 +6212,7 @@
         <v>629</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>8</v>
@@ -6221,7 +6221,7 @@
         <v>8</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -6244,13 +6244,13 @@
         <v>630</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>8</v>
@@ -6276,7 +6276,7 @@
         <v>631</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -6285,7 +6285,7 @@
         <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -6308,7 +6308,7 @@
         <v>632</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>8</v>
@@ -6317,7 +6317,7 @@
         <v>8</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>8</v>
@@ -6340,7 +6340,7 @@
         <v>633</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
@@ -6352,7 +6352,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>8</v>
@@ -6372,7 +6372,7 @@
         <v>634</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>8</v>
@@ -6384,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>8</v>
@@ -6404,7 +6404,7 @@
         <v>635</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
@@ -6436,13 +6436,13 @@
         <v>636</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>8</v>
@@ -6468,7 +6468,7 @@
         <v>637</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>8</v>
@@ -6480,10 +6480,10 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
         <v>638</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>8</v>
@@ -6532,13 +6532,13 @@
         <v>639</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>8</v>
@@ -6547,7 +6547,7 @@
         <v>8</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6564,7 +6564,7 @@
         <v>640</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>8</v>
@@ -6573,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>8</v>
@@ -6596,7 +6596,7 @@
         <v>641</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>8</v>
@@ -6628,7 +6628,7 @@
         <v>642</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>8</v>
@@ -6640,7 +6640,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>8</v>
@@ -6660,7 +6660,7 @@
         <v>643</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -6672,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>8</v>
@@ -6692,7 +6692,7 @@
         <v>644</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>8</v>
@@ -6724,7 +6724,7 @@
         <v>645</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
@@ -6739,7 +6739,7 @@
         <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6756,7 +6756,7 @@
         <v>646</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
@@ -6771,7 +6771,7 @@
         <v>8</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6788,7 +6788,7 @@
         <v>647</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>8</v>
@@ -6820,7 +6820,7 @@
         <v>648</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -6852,7 +6852,7 @@
         <v>649</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>8</v>
@@ -6884,7 +6884,7 @@
         <v>650</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
@@ -6916,13 +6916,13 @@
         <v>651</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>8</v>
@@ -6931,7 +6931,7 @@
         <v>8</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6948,7 +6948,7 @@
         <v>652</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>8</v>
@@ -6977,10 +6977,10 @@
         <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>8</v>
@@ -7012,7 +7012,7 @@
         <v>653</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>8</v>
@@ -7044,7 +7044,7 @@
         <v>654</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>8</v>
@@ -7076,7 +7076,7 @@
         <v>655</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>8</v>
@@ -7108,7 +7108,7 @@
         <v>656</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -7117,7 +7117,7 @@
         <v>8</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>8</v>
@@ -7140,7 +7140,7 @@
         <v>657</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -7172,7 +7172,7 @@
         <v>658</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>8</v>
@@ -7204,7 +7204,7 @@
         <v>659</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -7236,7 +7236,7 @@
         <v>660</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>8</v>
@@ -7268,7 +7268,7 @@
         <v>661</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>8</v>
@@ -7300,22 +7300,22 @@
         <v>662</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7332,7 +7332,7 @@
         <v>663</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>8</v>
@@ -7364,7 +7364,7 @@
         <v>664</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
@@ -7373,10 +7373,10 @@
         <v>8</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>8</v>
@@ -7396,13 +7396,13 @@
         <v>665</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>8</v>
@@ -7428,7 +7428,7 @@
         <v>199</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>8</v>
@@ -7460,13 +7460,13 @@
         <v>666</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>8</v>
@@ -7492,7 +7492,7 @@
         <v>667</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>8</v>
@@ -7524,7 +7524,7 @@
         <v>668</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>8</v>
@@ -7556,7 +7556,7 @@
         <v>669</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>8</v>
@@ -7565,13 +7565,13 @@
         <v>8</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7588,7 +7588,7 @@
         <v>670</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>8</v>
@@ -7597,7 +7597,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>8</v>
@@ -7620,7 +7620,7 @@
         <v>671</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -7629,7 +7629,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>8</v>
@@ -7652,7 +7652,7 @@
         <v>672</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
@@ -7661,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>8</v>
@@ -7684,7 +7684,7 @@
         <v>673</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -7693,7 +7693,7 @@
         <v>8</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>674</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
@@ -7748,16 +7748,16 @@
         <v>675</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>8</v>
@@ -7780,7 +7780,7 @@
         <v>676</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>8</v>
@@ -7789,13 +7789,13 @@
         <v>8</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7812,7 +7812,7 @@
         <v>677</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>8</v>
@@ -7821,13 +7821,13 @@
         <v>8</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7844,7 +7844,7 @@
         <v>678</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>8</v>
@@ -7853,7 +7853,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>8</v>
@@ -7876,7 +7876,7 @@
         <v>679</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>8</v>
@@ -7885,7 +7885,7 @@
         <v>8</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>8</v>
@@ -7908,7 +7908,7 @@
         <v>680</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>8</v>
@@ -7917,7 +7917,7 @@
         <v>8</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>8</v>
@@ -7940,7 +7940,7 @@
         <v>681</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>8</v>
@@ -7949,7 +7949,7 @@
         <v>8</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>8</v>
@@ -7972,7 +7972,7 @@
         <v>682</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>8</v>
@@ -7981,7 +7981,7 @@
         <v>8</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>8</v>
@@ -8004,7 +8004,7 @@
         <v>683</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>8</v>
@@ -8013,7 +8013,7 @@
         <v>8</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>8</v>
@@ -8036,7 +8036,7 @@
         <v>684</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
@@ -8045,7 +8045,7 @@
         <v>8</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>8</v>
@@ -8068,7 +8068,7 @@
         <v>685</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
@@ -8077,7 +8077,7 @@
         <v>8</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         <v>686</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
@@ -8109,13 +8109,13 @@
         <v>8</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>687</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
@@ -8141,7 +8141,7 @@
         <v>8</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>8</v>
@@ -8164,7 +8164,7 @@
         <v>688</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
@@ -8173,7 +8173,7 @@
         <v>8</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>8</v>
@@ -8196,7 +8196,7 @@
         <v>689</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>8</v>
@@ -8205,7 +8205,7 @@
         <v>8</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>8</v>
@@ -8228,7 +8228,7 @@
         <v>690</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>8</v>
@@ -8237,7 +8237,7 @@
         <v>8</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>8</v>
@@ -8260,7 +8260,7 @@
         <v>691</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>8</v>
@@ -8275,7 +8275,7 @@
         <v>8</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -8292,7 +8292,7 @@
         <v>692</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>8</v>
@@ -8304,7 +8304,7 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>8</v>
@@ -8324,7 +8324,7 @@
         <v>693</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>8</v>
@@ -8336,7 +8336,7 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>8</v>
@@ -8356,7 +8356,7 @@
         <v>694</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>8</v>
@@ -8388,13 +8388,13 @@
         <v>695</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>8</v>
@@ -8403,7 +8403,7 @@
         <v>8</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -8420,7 +8420,7 @@
         <v>696</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
@@ -8435,7 +8435,7 @@
         <v>8</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -8452,7 +8452,7 @@
         <v>697</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>8</v>
@@ -8484,7 +8484,7 @@
         <v>698</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>8</v>
@@ -8499,7 +8499,7 @@
         <v>8</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -8516,7 +8516,7 @@
         <v>699</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>8</v>
@@ -8531,7 +8531,7 @@
         <v>8</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -8548,13 +8548,13 @@
         <v>700</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>8</v>
@@ -8580,13 +8580,13 @@
         <v>701</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>8</v>
@@ -8612,7 +8612,7 @@
         <v>702</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>8</v>
@@ -8644,7 +8644,7 @@
         <v>703</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>8</v>
@@ -8676,7 +8676,7 @@
         <v>704</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>8</v>
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>8</v>
@@ -8740,7 +8740,7 @@
         <v>706</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>8</v>
@@ -8749,7 +8749,7 @@
         <v>8</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>8</v>
@@ -8772,7 +8772,7 @@
         <v>707</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>8</v>
@@ -8804,7 +8804,7 @@
         <v>708</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>8</v>
@@ -8819,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -8836,7 +8836,7 @@
         <v>709</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>8</v>
@@ -8851,7 +8851,7 @@
         <v>8</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -8868,7 +8868,7 @@
         <v>710</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>8</v>
@@ -8883,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -8900,7 +8900,7 @@
         <v>711</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>8</v>
@@ -8932,7 +8932,7 @@
         <v>712</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>8</v>
@@ -8964,7 +8964,7 @@
         <v>713</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>8</v>
@@ -8996,7 +8996,7 @@
         <v>714</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>8</v>
@@ -9028,7 +9028,7 @@
         <v>715</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>8</v>
@@ -9092,7 +9092,7 @@
         <v>717</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>8</v>
@@ -9104,7 +9104,7 @@
         <v>8</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>8</v>
@@ -9124,7 +9124,7 @@
         <v>718</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>8</v>
@@ -9156,7 +9156,7 @@
         <v>719</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
@@ -9188,7 +9188,7 @@
         <v>720</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
@@ -9220,7 +9220,7 @@
         <v>721</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
@@ -9229,7 +9229,7 @@
         <v>8</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>8</v>
@@ -9252,7 +9252,7 @@
         <v>722</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
@@ -9267,7 +9267,7 @@
         <v>8</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>723</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>8</v>
@@ -9316,7 +9316,7 @@
         <v>724</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>8</v>
@@ -9348,7 +9348,7 @@
         <v>725</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>8</v>
@@ -9380,7 +9380,7 @@
         <v>726</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>8</v>
@@ -9395,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -9412,22 +9412,22 @@
         <v>727</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -9444,7 +9444,7 @@
         <v>728</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>8</v>
@@ -9476,7 +9476,7 @@
         <v>729</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -9508,7 +9508,7 @@
         <v>730</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
@@ -9540,13 +9540,13 @@
         <v>731</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>8</v>
@@ -9572,13 +9572,13 @@
         <v>732</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>8</v>
@@ -9604,7 +9604,7 @@
         <v>733</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -9636,7 +9636,7 @@
         <v>734</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -9645,7 +9645,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>8</v>
@@ -9668,7 +9668,7 @@
         <v>735</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -9680,7 +9680,7 @@
         <v>8</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>8</v>
@@ -9700,7 +9700,7 @@
         <v>736</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
@@ -9732,7 +9732,7 @@
         <v>737</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>8</v>
@@ -9741,13 +9741,13 @@
         <v>8</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -9764,7 +9764,7 @@
         <v>738</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
@@ -9773,7 +9773,7 @@
         <v>8</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>8</v>
@@ -9796,7 +9796,7 @@
         <v>739</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
@@ -9828,7 +9828,7 @@
         <v>740</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
@@ -9860,7 +9860,7 @@
         <v>741</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
@@ -9869,13 +9869,13 @@
         <v>8</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -9892,7 +9892,7 @@
         <v>742</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
@@ -9901,7 +9901,7 @@
         <v>8</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>8</v>
@@ -9924,7 +9924,7 @@
         <v>743</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>8</v>
@@ -9933,7 +9933,7 @@
         <v>8</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>8</v>
@@ -9956,7 +9956,7 @@
         <v>744</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>8</v>
@@ -9965,7 +9965,7 @@
         <v>8</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>8</v>
@@ -9988,7 +9988,7 @@
         <v>745</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>8</v>
@@ -9997,7 +9997,7 @@
         <v>8</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>8</v>
@@ -10020,7 +10020,7 @@
         <v>746</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>8</v>
@@ -10029,7 +10029,7 @@
         <v>8</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>8</v>
@@ -10052,7 +10052,7 @@
         <v>747</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>8</v>
@@ -10061,7 +10061,7 @@
         <v>8</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I180" s="3" t="s">
         <v>8</v>
@@ -10084,7 +10084,7 @@
         <v>748</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>8</v>
@@ -10093,7 +10093,7 @@
         <v>8</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>8</v>
@@ -10116,7 +10116,7 @@
         <v>749</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>8</v>
@@ -10148,7 +10148,7 @@
         <v>750</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>8</v>
@@ -10180,7 +10180,7 @@
         <v>751</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>8</v>
@@ -10195,7 +10195,7 @@
         <v>8</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -10212,13 +10212,13 @@
         <v>752</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>8</v>
@@ -10244,7 +10244,7 @@
         <v>753</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>8</v>
@@ -10256,7 +10256,7 @@
         <v>8</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>8</v>
@@ -10276,13 +10276,13 @@
         <v>754</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>8</v>
@@ -10308,7 +10308,7 @@
         <v>755</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>8</v>
@@ -10340,7 +10340,7 @@
         <v>756</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>8</v>
@@ -10404,7 +10404,7 @@
         <v>758</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>8</v>
@@ -10419,7 +10419,7 @@
         <v>8</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>759</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>8</v>
@@ -10451,7 +10451,7 @@
         <v>8</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -10468,7 +10468,7 @@
         <v>760</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>8</v>
@@ -10500,13 +10500,13 @@
         <v>761</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>8</v>
@@ -10515,7 +10515,7 @@
         <v>8</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -10532,7 +10532,7 @@
         <v>762</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>8</v>
@@ -10547,7 +10547,7 @@
         <v>8</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -10564,7 +10564,7 @@
         <v>763</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>8</v>
@@ -10579,7 +10579,7 @@
         <v>8</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -10596,13 +10596,13 @@
         <v>764</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>8</v>
@@ -10611,7 +10611,7 @@
         <v>8</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -10628,13 +10628,13 @@
         <v>765</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>8</v>
@@ -10643,7 +10643,7 @@
         <v>8</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -10660,13 +10660,13 @@
         <v>766</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>8</v>
@@ -10675,7 +10675,7 @@
         <v>8</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -10692,13 +10692,13 @@
         <v>767</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>8</v>
@@ -10707,7 +10707,7 @@
         <v>8</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -10724,7 +10724,7 @@
         <v>768</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>8</v>
@@ -10739,7 +10739,7 @@
         <v>8</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -10756,13 +10756,13 @@
         <v>769</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>8</v>
@@ -10771,7 +10771,7 @@
         <v>8</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -10788,13 +10788,13 @@
         <v>770</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>8</v>
@@ -10803,7 +10803,7 @@
         <v>8</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -10820,13 +10820,13 @@
         <v>771</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>8</v>
@@ -10835,7 +10835,7 @@
         <v>8</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -10852,13 +10852,13 @@
         <v>772</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>8</v>
@@ -10867,7 +10867,7 @@
         <v>8</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -10884,13 +10884,13 @@
         <v>773</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>8</v>
@@ -10899,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -10916,13 +10916,13 @@
         <v>774</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>8</v>
@@ -10931,7 +10931,7 @@
         <v>8</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -10948,13 +10948,13 @@
         <v>775</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>8</v>
@@ -10980,13 +10980,13 @@
         <v>776</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>8</v>
@@ -10995,7 +10995,7 @@
         <v>8</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -11012,13 +11012,13 @@
         <v>777</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>8</v>
@@ -11027,7 +11027,7 @@
         <v>8</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -11044,13 +11044,13 @@
         <v>778</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>8</v>
@@ -11059,7 +11059,7 @@
         <v>8</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -11076,13 +11076,13 @@
         <v>779</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>8</v>
@@ -11091,7 +11091,7 @@
         <v>8</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -11108,7 +11108,7 @@
         <v>780</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>8</v>
@@ -11123,7 +11123,7 @@
         <v>8</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -11140,7 +11140,7 @@
         <v>781</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>8</v>
@@ -11172,7 +11172,7 @@
         <v>782</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>8</v>
@@ -11181,7 +11181,7 @@
         <v>8</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>8</v>
@@ -11204,7 +11204,7 @@
         <v>783</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>8</v>
@@ -11213,10 +11213,10 @@
         <v>8</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J216" s="3" t="s">
         <v>8</v>
@@ -11236,7 +11236,7 @@
         <v>784</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>8</v>
@@ -11248,7 +11248,7 @@
         <v>8</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>8</v>
@@ -11268,7 +11268,7 @@
         <v>785</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>8</v>
@@ -11300,7 +11300,7 @@
         <v>786</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>8</v>
@@ -11332,13 +11332,13 @@
         <v>787</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>8</v>
@@ -11364,13 +11364,13 @@
         <v>788</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H221" s="3" t="s">
         <v>8</v>
@@ -11396,7 +11396,7 @@
         <v>789</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>8</v>
@@ -11428,7 +11428,7 @@
         <v>790</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>8</v>
@@ -11443,7 +11443,7 @@
         <v>8</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -11460,7 +11460,7 @@
         <v>791</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>8</v>
@@ -11475,7 +11475,7 @@
         <v>8</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -11492,7 +11492,7 @@
         <v>792</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>8</v>
@@ -11524,7 +11524,7 @@
         <v>793</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>8</v>
@@ -11556,7 +11556,7 @@
         <v>794</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>8</v>
@@ -11588,7 +11588,7 @@
         <v>795</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>8</v>
@@ -11600,7 +11600,7 @@
         <v>8</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>8</v>
@@ -11620,7 +11620,7 @@
         <v>796</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>8</v>
@@ -11652,7 +11652,7 @@
         <v>797</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>8</v>
@@ -11664,7 +11664,7 @@
         <v>8</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>8</v>
@@ -11684,7 +11684,7 @@
         <v>798</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>8</v>
@@ -11716,7 +11716,7 @@
         <v>799</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>8</v>
@@ -11748,7 +11748,7 @@
         <v>800</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>8</v>
@@ -11780,7 +11780,7 @@
         <v>801</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>8</v>
@@ -11844,7 +11844,7 @@
         <v>803</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>8</v>
@@ -11876,7 +11876,7 @@
         <v>804</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>8</v>
@@ -11888,7 +11888,7 @@
         <v>8</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J237" s="3" t="s">
         <v>8</v>
@@ -11905,10 +11905,10 @@
         <v>480</v>
       </c>
       <c r="D238" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>8</v>
@@ -11940,7 +11940,7 @@
         <v>805</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>8</v>
@@ -11955,7 +11955,7 @@
         <v>8</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11972,7 +11972,7 @@
         <v>806</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>8</v>
@@ -11981,7 +11981,7 @@
         <v>8</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>8</v>
@@ -12004,7 +12004,7 @@
         <v>807</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>8</v>
@@ -12013,7 +12013,7 @@
         <v>8</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I241" s="3" t="s">
         <v>8</v>
@@ -12036,7 +12036,7 @@
         <v>808</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>8</v>
@@ -12051,7 +12051,7 @@
         <v>8</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -12068,13 +12068,13 @@
         <v>809</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>8</v>
@@ -12083,7 +12083,7 @@
         <v>8</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -12100,13 +12100,13 @@
         <v>810</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>8</v>
@@ -12115,7 +12115,7 @@
         <v>8</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -12132,13 +12132,13 @@
         <v>811</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>8</v>
@@ -12147,7 +12147,7 @@
         <v>8</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -12164,13 +12164,13 @@
         <v>812</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>8</v>
@@ -12179,7 +12179,7 @@
         <v>8</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -12196,13 +12196,13 @@
         <v>813</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>8</v>
@@ -12211,7 +12211,7 @@
         <v>8</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -12228,13 +12228,13 @@
         <v>814</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>8</v>
@@ -12243,7 +12243,7 @@
         <v>8</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -12260,13 +12260,13 @@
         <v>815</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H249" s="3" t="s">
         <v>8</v>
@@ -12275,7 +12275,7 @@
         <v>8</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -12292,7 +12292,7 @@
         <v>816</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>8</v>
@@ -12356,7 +12356,7 @@
         <v>507</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>8</v>
@@ -12388,7 +12388,7 @@
         <v>818</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>8</v>
@@ -12400,7 +12400,7 @@
         <v>8</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>8</v>
@@ -12420,7 +12420,7 @@
         <v>819</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>8</v>
@@ -12452,7 +12452,7 @@
         <v>820</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>8</v>
@@ -12484,7 +12484,7 @@
         <v>821</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>8</v>
@@ -12516,13 +12516,13 @@
         <v>822</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>8</v>
@@ -12531,7 +12531,7 @@
         <v>8</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -12548,13 +12548,13 @@
         <v>823</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H258" s="3" t="s">
         <v>8</v>
@@ -12563,7 +12563,7 @@
         <v>8</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -12580,13 +12580,13 @@
         <v>824</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>8</v>
@@ -12595,7 +12595,7 @@
         <v>8</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -12612,13 +12612,13 @@
         <v>825</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H260" s="3" t="s">
         <v>8</v>
@@ -12627,7 +12627,7 @@
         <v>8</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -12644,13 +12644,13 @@
         <v>826</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H261" s="3" t="s">
         <v>8</v>
@@ -12659,7 +12659,7 @@
         <v>8</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -12676,7 +12676,7 @@
         <v>827</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>8</v>
@@ -12691,7 +12691,7 @@
         <v>8</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -12699,10 +12699,10 @@
         <v>264</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>1070</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -12714,7 +12714,7 @@
         <v>8</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J263" s="3" t="s">
         <v>8</v>
@@ -12725,10 +12725,10 @@
         <v>265</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>1072</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -12737,7 +12737,7 @@
         <v>8</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>8</v>
@@ -12751,10 +12751,10 @@
         <v>266</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>1073</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1074</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -12763,7 +12763,7 @@
         <v>8</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>8</v>
@@ -12777,10 +12777,10 @@
         <v>267</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>1076</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -12789,7 +12789,7 @@
         <v>8</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>8</v>
@@ -12803,10 +12803,10 @@
         <v>268</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>1078</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -12815,7 +12815,7 @@
         <v>8</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I267" s="3" t="s">
         <v>8</v>
@@ -12829,10 +12829,10 @@
         <v>269</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -12841,7 +12841,7 @@
         <v>8</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I268" s="3" t="s">
         <v>8</v>
@@ -12855,10 +12855,10 @@
         <v>270</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -12867,7 +12867,7 @@
         <v>8</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I269" s="3" t="s">
         <v>8</v>
@@ -12881,10 +12881,10 @@
         <v>271</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>1083</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>1084</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -12893,7 +12893,7 @@
         <v>8</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I270" s="3" t="s">
         <v>8</v>
@@ -12907,10 +12907,10 @@
         <v>272</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>1086</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -12919,7 +12919,7 @@
         <v>8</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>8</v>
@@ -12933,10 +12933,10 @@
         <v>273</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>1088</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -12945,7 +12945,7 @@
         <v>8</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>8</v>
@@ -12959,10 +12959,10 @@
         <v>274</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>1090</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -12977,7 +12977,7 @@
         <v>8</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -12985,10 +12985,10 @@
         <v>275</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -13003,7 +13003,7 @@
         <v>8</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -13011,16 +13011,16 @@
         <v>276</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>1094</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>8</v>
@@ -13029,7 +13029,7 @@
         <v>8</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -13037,10 +13037,10 @@
         <v>277</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>1096</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -13052,7 +13052,7 @@
         <v>8</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J276" s="3" t="s">
         <v>8</v>
@@ -13063,10 +13063,10 @@
         <v>278</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>1097</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>1098</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -13089,10 +13089,10 @@
         <v>279</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>1100</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -13107,7 +13107,7 @@
         <v>8</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -13115,10 +13115,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>1102</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -13141,10 +13141,10 @@
         <v>281</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -13167,10 +13167,10 @@
         <v>282</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -13182,7 +13182,7 @@
         <v>8</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J281" s="3" t="s">
         <v>8</v>
@@ -13193,16 +13193,16 @@
         <v>283</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>1108</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>8</v>
@@ -13219,10 +13219,10 @@
         <v>284</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>1110</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -13237,7 +13237,7 @@
         <v>8</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -13245,10 +13245,10 @@
         <v>285</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>1112</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -13257,13 +13257,13 @@
         <v>8</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I284" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -13271,10 +13271,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>1114</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -13283,7 +13283,7 @@
         <v>8</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>8</v>
@@ -13297,10 +13297,10 @@
         <v>287</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>1116</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -13323,10 +13323,10 @@
         <v>288</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -13349,16 +13349,16 @@
         <v>289</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>1120</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H288" s="3" t="s">
         <v>8</v>
@@ -13367,7 +13367,7 @@
         <v>8</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -13375,10 +13375,10 @@
         <v>290</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>1121</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>1122</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -13390,7 +13390,7 @@
         <v>8</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J289" s="3" t="s">
         <v>8</v>
@@ -13401,10 +13401,10 @@
         <v>291</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>1124</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -13419,7 +13419,7 @@
         <v>8</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -13427,10 +13427,10 @@
         <v>292</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>1125</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>1126</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -13445,7 +13445,7 @@
         <v>8</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -13453,10 +13453,10 @@
         <v>293</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>1127</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1128</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -13471,7 +13471,7 @@
         <v>8</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -13479,10 +13479,10 @@
         <v>294</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -13497,7 +13497,7 @@
         <v>8</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -13505,10 +13505,10 @@
         <v>295</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>1131</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>1132</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -13523,7 +13523,7 @@
         <v>8</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -13531,16 +13531,16 @@
         <v>296</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>1133</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1134</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H295" s="3" t="s">
         <v>8</v>
@@ -13549,7 +13549,7 @@
         <v>8</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -13557,10 +13557,10 @@
         <v>297</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>1135</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1136</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -13572,10 +13572,10 @@
         <v>8</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -13583,10 +13583,10 @@
         <v>298</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>1138</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -13598,7 +13598,7 @@
         <v>8</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J297" s="3" t="s">
         <v>8</v>
@@ -13609,10 +13609,10 @@
         <v>299</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1139</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1140</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -13635,10 +13635,10 @@
         <v>300</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1142</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -13661,10 +13661,10 @@
         <v>301</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -13687,10 +13687,10 @@
         <v>302</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1146</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -13713,10 +13713,10 @@
         <v>303</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>1148</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -13739,10 +13739,10 @@
         <v>304</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1150</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -13765,10 +13765,10 @@
         <v>305</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>1151</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>1152</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -13791,10 +13791,10 @@
         <v>306</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1153</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1154</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J305" s="3" t="s">
         <v>8</v>
@@ -13817,10 +13817,10 @@
         <v>307</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1155</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>1156</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -13843,10 +13843,10 @@
         <v>308</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1157</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1158</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -13869,10 +13869,10 @@
         <v>309</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1160</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -13895,10 +13895,10 @@
         <v>310</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1161</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1162</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -13910,7 +13910,7 @@
         <v>8</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J309" s="3" t="s">
         <v>8</v>
@@ -13921,10 +13921,10 @@
         <v>311</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>1163</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>1164</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -13933,7 +13933,7 @@
         <v>8</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I310" s="3" t="s">
         <v>8</v>
@@ -13947,10 +13947,10 @@
         <v>312</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1165</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1166</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -13973,10 +13973,10 @@
         <v>313</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>1167</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>1168</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -13999,16 +13999,16 @@
         <v>314</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1169</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1170</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>8</v>
@@ -14025,10 +14025,10 @@
         <v>315</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1171</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>1172</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -14051,10 +14051,10 @@
         <v>316</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>1173</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>1174</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -14077,10 +14077,10 @@
         <v>317</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1175</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1176</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -14089,7 +14089,7 @@
         <v>8</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I316" s="3" t="s">
         <v>8</v>
@@ -14103,10 +14103,10 @@
         <v>318</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>1178</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -14129,10 +14129,10 @@
         <v>319</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1180</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -14141,13 +14141,13 @@
         <v>8</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I318" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -14155,25 +14155,25 @@
         <v>320</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1181</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1182</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I319" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -14181,10 +14181,10 @@
         <v>321</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>1183</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>1184</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -14193,13 +14193,13 @@
         <v>8</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -14207,10 +14207,10 @@
         <v>322</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1185</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1186</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -14233,10 +14233,10 @@
         <v>323</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>1188</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -14248,7 +14248,7 @@
         <v>8</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J322" s="3" t="s">
         <v>8</v>
@@ -14259,10 +14259,10 @@
         <v>324</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1189</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>1190</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -14285,16 +14285,16 @@
         <v>325</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1191</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>1192</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>8</v>
@@ -14303,7 +14303,7 @@
         <v>8</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -14311,10 +14311,10 @@
         <v>326</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>1193</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>1194</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -14323,10 +14323,10 @@
         <v>8</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J325" s="3" t="s">
         <v>8</v>
@@ -14337,10 +14337,10 @@
         <v>327</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>1195</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>1196</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -14363,10 +14363,10 @@
         <v>328</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -14389,10 +14389,10 @@
         <v>329</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1199</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>1200</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -14415,16 +14415,16 @@
         <v>330</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>8</v>
@@ -14433,7 +14433,7 @@
         <v>8</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -14441,16 +14441,16 @@
         <v>331</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1203</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1204</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>8</v>
@@ -14459,7 +14459,7 @@
         <v>8</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -14467,16 +14467,16 @@
         <v>332</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>1206</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>8</v>
@@ -14485,7 +14485,7 @@
         <v>8</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -14493,16 +14493,16 @@
         <v>333</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>1207</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>1208</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>8</v>
@@ -14511,7 +14511,7 @@
         <v>8</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -14519,16 +14519,16 @@
         <v>334</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>8</v>
@@ -14537,7 +14537,7 @@
         <v>8</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -14545,10 +14545,10 @@
         <v>335</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>1211</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>1212</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -14571,16 +14571,16 @@
         <v>336</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>1213</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>1214</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>8</v>
@@ -14597,10 +14597,10 @@
         <v>337</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>1216</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -14615,7 +14615,7 @@
         <v>8</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -14623,10 +14623,10 @@
         <v>338</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>1217</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>1218</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -14641,7 +14641,7 @@
         <v>8</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -14649,10 +14649,10 @@
         <v>339</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>1219</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>1220</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -14667,7 +14667,7 @@
         <v>8</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -14675,10 +14675,10 @@
         <v>340</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>1221</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>1222</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -14701,16 +14701,16 @@
         <v>341</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H340" s="3" t="s">
         <v>8</v>
@@ -14719,7 +14719,7 @@
         <v>8</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -14727,10 +14727,10 @@
         <v>342</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>1225</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>1226</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -14739,7 +14739,7 @@
         <v>8</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I341" s="3" t="s">
         <v>8</v>
@@ -14753,10 +14753,10 @@
         <v>343</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1227</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>1228</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -14765,7 +14765,7 @@
         <v>8</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I342" s="3" t="s">
         <v>8</v>
@@ -14779,10 +14779,10 @@
         <v>344</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -14805,10 +14805,10 @@
         <v>345</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -14831,10 +14831,10 @@
         <v>346</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>1234</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -14857,10 +14857,10 @@
         <v>347</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C346" s="3" t="s">
         <v>1235</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>1236</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -14883,16 +14883,16 @@
         <v>348</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C347" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>1238</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H347" s="3" t="s">
         <v>8</v>
@@ -14901,7 +14901,7 @@
         <v>8</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -14909,10 +14909,10 @@
         <v>349</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>1239</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>1240</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -14924,7 +14924,7 @@
         <v>8</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J348" s="3" t="s">
         <v>8</v>
@@ -14935,25 +14935,25 @@
         <v>350</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>1241</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>1242</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H349" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -14961,10 +14961,10 @@
         <v>351</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>1244</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -14987,16 +14987,16 @@
         <v>352</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>1245</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>1246</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>8</v>
@@ -15013,10 +15013,10 @@
         <v>353</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>1247</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>1248</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -15039,25 +15039,25 @@
         <v>354</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>1249</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>1250</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I353" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -15065,16 +15065,16 @@
         <v>355</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>1251</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>1252</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>8</v>
@@ -15083,7 +15083,7 @@
         <v>8</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -15091,16 +15091,16 @@
         <v>356</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H355" s="3" t="s">
         <v>8</v>
@@ -15109,7 +15109,7 @@
         <v>8</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -15117,22 +15117,22 @@
         <v>357</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>1255</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>1256</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J356" s="3" t="s">
         <v>8</v>
@@ -15143,16 +15143,16 @@
         <v>358</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>1258</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H357" s="3" t="s">
         <v>8</v>
@@ -15176,8 +15176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15222,13 +15222,13 @@
         <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>836</v>
@@ -15245,16 +15245,16 @@
         <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -15268,16 +15268,16 @@
         <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -15291,16 +15291,16 @@
         <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -15317,7 +15317,7 @@
         <v>886</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>887</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -15337,16 +15337,16 @@
         <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -15406,16 +15406,16 @@
         <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
@@ -15475,13 +15475,13 @@
         <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>877</v>
@@ -15521,10 +15521,10 @@
         <v>546</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -15659,13 +15659,13 @@
         <v>552</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>877</v>
@@ -15682,13 +15682,13 @@
         <v>553</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>843</v>
@@ -15705,16 +15705,16 @@
         <v>554</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -15728,10 +15728,10 @@
         <v>555</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -15820,13 +15820,13 @@
         <v>559</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>843</v>
@@ -15912,13 +15912,13 @@
         <v>563</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>877</v>
@@ -15935,13 +15935,13 @@
         <v>564</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -15958,13 +15958,13 @@
         <v>565</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -15978,7 +15978,7 @@
         <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -15991,7 +15991,7 @@
         <v>1034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -16004,7 +16004,7 @@
         <v>1035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -16017,7 +16017,7 @@
         <v>1036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -16030,7 +16030,7 @@
         <v>1037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="1466">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4393,19 +4395,19 @@
     <t xml:space="preserve">ALS GEACTIVEERD</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">ALS GESPEELD</t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">EENMALIG TUSSEN BEURTEN</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">EINDE RONDE</t>
@@ -4414,18 +4416,27 @@
     <t xml:space="preserve">GAME END</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">van de kaarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -4503,7 +4514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4536,6 +4547,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4563,6 +4590,10 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15210,7 +15241,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
@@ -16259,7 +16290,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16276,7 +16307,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1453</v>
       </c>
@@ -16284,7 +16315,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1455</v>
       </c>
@@ -16292,7 +16323,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1457</v>
       </c>
@@ -16300,7 +16331,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1459</v>
       </c>
@@ -16308,12 +16339,12 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1462</v>
       </c>
@@ -16335,6 +16366,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B2" s="11" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:B"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAAHkEAABQSwMEFAACAAgAHJM1UVR9qGWoAAAA+AAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY/RCoIwGIVfRXbvNs1Q5HdedFlCIES3Yy0d6gw3m+/WRY/UKySU1V2X5/Ad+M7jdod86lrvKgejep2hAFPkSS36k9JVhkZ79hOUM9hz0fBKejOsTToZlaHa2ktKiHMOuxXuh4qElAbkWOxKUcuO+0oby7WQ6LM6/V8hBoeXDAtxnOB1HFEcJQGQpYZC6S8SzsaYAvkpYTO2dhwkM41fboEsEcj7BXsCUEsDBBQAAgAIAByTNVEPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAAckzVR5CzVm28BAABJBAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAA5ZNPS8NAEMXvhXyHJV5aWIKKVlBykFjRg6WS6qXxsN2Mycr+KTsbtZR+d6dNoYoBD+LJHJLs+21m3iQvCDIoZ1neXo8uol7Uw1p4KNlc+RJZyjSEqMfoyF3jJZCS4Wty5WRjwIb+tdKQZM4GWmA/zs6LBwSPxZ0I8FJMvKu8MEbZqnijE4Lwsi5QerUIWGx7JBJf4wGfXYFWRgXwacxjzjKnG2MxHXI2stKV9HR6dHx6yNl94wLkYakh3d8mY2fhacBbrwcxdTbESnYDoiRDMRmfijlt3JGd3m/H4my20y+1zqXQwmMafPO5ZFYLW1HF6XIB+3JTLyw+O29awxuI/Y7+fLWKVUmD3dowPEk2+9acreKRrbTCmllhgGggnQV4D1uYS0XvVT0r2c0zZwx9v042cW/gt8tvaEzOvojrQdRTtnPQL5lwtkH481S0XX7Ixdl/zsW4Owy2VJv/+BsZvS+0sCI4v+wOxOPkdxn5AFBLAQItABQAAgAIAByTNVFUfahlqAAAAPgAAAASAAAAAAAAAAAAAAAAAAAAAABDb25maWcvUGFja2FnZS54bWxQSwECLQAUAAIACAAckzVRD8rpq6QAAADpAAAAEwAAAAAAAAAAAAAAAAD0AAAAW0NvbnRlbnRfVHlwZXNdLnhtbFBLAQItABQAAgAIAByTNVHkLNWbbwEAAEkEAAATAAAAAAAAAAAAAAAAAOUBAABGb3JtdWxhcy9TZWN0aW9uMS5tUEsFBgAAAAADAAMAwgAAAKEDAAAAABABAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxQZXJtaXNzaW9uTGlzdCB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48Q2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz5mYWxzZTwvQ2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz48RmlyZXdhbGxFbmFibGVkPnRydWU8L0ZpcmV3YWxsRW5hYmxlZD48L1Blcm1pc3Npb25MaXN0PjMVAAAAAAAAERUAAO+7vzw/eG1sIHZlcnNpb249IjEuMCIgZW5jb2Rpbmc9InV0Zi04Ij8+PExvY2FsUGFja2FnZU1ldGFkYXRhRmlsZSB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48SXRlbXM+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+QWxsRm9ybXVsYXM8L0l0ZW1UeXBlPjxJdGVtUGF0aCAvPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXM+PEVudHJ5IFR5cGU9IklzUHJpdmF0ZSIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJGaWxsRW5hYmxlZCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJGaWxsT2JqZWN0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iRmlsbFRvRGF0YU1vZGVsRW5hYmxlZCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJCdWZmZXJOZXh0UmVmcmVzaCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJSZXN1bHRUeXBlIiBWYWx1ZT0ic1RhYmxlIiAvPjxFbnRyeSBUeXBlPSJOYW1lVXBkYXRlZEFmdGVyRmlsbCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJSZWNvdmVyeVRhcmdldFNoZWV0IiBWYWx1ZT0ic1NoZWV0MSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRDb2x1bW4iIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRSb3ciIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNiaXJkcyIgLz48RW50cnkgVHlwZT0iRmlsbGVkQ29tcGxldGVSZXN1bHRUb1dvcmtzaGVldCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJBZGRlZFRvRGF0YU1vZGVsIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb3VudCIgVmFsdWU9ImwyNjEiIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvZGUiIFZhbHVlPSJzVW5rbm93biIgLz48RW50cnkgVHlwZT0iRmlsbEVycm9yQ291bnQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbExhc3RVcGRhdGVkIiBWYWx1ZT0iZDIwMjAtMDktMjFUMTY6MjQ6MDYuNDM2NTcyMVoiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb2x1bW5UeXBlcyIgVmFsdWU9InNBd1lHQmdZRyIgLz48RW50cnkgVHlwZT0iRmlsbENvbHVtbk5hbWVzIiBWYWx1ZT0ic1smcXVvdDtpZCZxdW90OywmcXVvdDtFbmdsaXNoIG5hbWUmcXVvdDssJnF1b3Q7U2NpZW50aWZpYyBuYW1lJnF1b3Q7LCZxdW90O0NvbW1vbiBuYW1lJnF1b3Q7LCZxdW90O1Bvd2VyIHRleHQmcXVvdDssJnF1b3Q7Tm90ZSZxdW90O10iIC8+PEVudHJ5IFR5cGU9IkZpbGxTdGF0dXMiIFZhbHVlPSJzQ29tcGxldGUiIC8+PEVudHJ5IFR5cGU9IlJlbGF0aW9uc2hpcEluZm9Db250YWluZXIiIFZhbHVlPSJzeyZxdW90O2NvbHVtbkNvdW50JnF1b3Q7OjYsJnF1b3Q7a2V5Q29sdW1uTmFtZXMmcXVvdDs6W10sJnF1b3Q7cXVlcnlSZWxhdGlvbnNoaXBzJnF1b3Q7OltdLCZxdW90O2NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtDb2x1bW5Db3VudCZxdW90Ozo2LCZxdW90O0tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O0NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtSZWxhdGlvbnNoaXBJbmZvJnF1b3Q7OltdfSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Qcm9tb3RlZCUyMEhlYWRlcnM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9DaGFuZ2VkJTIwVHlwZTwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzPjxFbnRyeSBUeXBlPSJJc1ByaXZhdGUiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbEVuYWJsZWQiIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbE9iamVjdFR5cGUiIFZhbHVlPSJzVGFibGUiIC8+PEVudHJ5IFR5cGU9IkZpbGxUb0RhdGFNb2RlbEVuYWJsZWQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iQnVmZmVyTmV4dFJlZnJlc2giIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVzdWx0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iTmFtZVVwZGF0ZWRBZnRlckZpbGwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNib251c2VzIiAvPjxFbnRyeSBUeXBlPSJGaWxsZWRDb21wbGV0ZVJlc3VsdFRvV29ya3NoZWV0IiBWYWx1ZT0ibDEiIC8+PEVudHJ5IFR5cGU9IkFkZGVkVG9EYXRhTW9kZWwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbENvdW50IiBWYWx1ZT0ibDMzIiAvPjxFbnRyeSBUeXBlPSJGaWxsRXJyb3JDb2RlIiBWYWx1ZT0ic1Vua25vd24iIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvdW50IiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxMYXN0VXBkYXRlZCIgVmFsdWU9ImQyMDIwLTA5LTIxVDE2OjI0OjU3Ljg0NTcwNTRaIiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uVHlwZXMiIFZhbHVlPSJzQXdZR0JnWUdCZz09IiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uTmFtZXMiIFZhbHVlPSJzWyZxdW90O2lkJnF1b3Q7LCZxdW90O0VuZ2xpc2ggbmFtZSZxdW90OywmcXVvdDtOYW1lJnF1b3Q7LCZxdW90O0NvbmRpdGlvbiZxdW90OywmcXVvdDtFeHBsYW5hdG9yeSB0ZXh0JnF1b3Q7LCZxdW90O1ZQJnF1b3Q7LCZxdW90O05vdGUmcXVvdDtdIiAvPjxFbnRyeSBUeXBlPSJGaWxsU3RhdHVzIiBWYWx1ZT0ic0NvbXBsZXRlIiAvPjxFbnRyeSBUeXBlPSJSZWxhdGlvbnNoaXBJbmZvQ29udGFpbmVyIiBWYWx1ZT0ic3smcXVvdDtjb2x1bW5Db3VudCZxdW90Ozo3LCZxdW90O2tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O3F1ZXJ5UmVsYXRpb25zaGlwcyZxdW90OzpbXSwmcXVvdDtjb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7Q29sdW1uQ291bnQmcXVvdDs6NywmcXVvdDtLZXlDb2x1bW5OYW1lcyZxdW90OzpbXSwmcXVvdDtDb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7UmVsYXRpb25zaGlwSW5mbyZxdW90OzpbXX0iIC8+PC9TdGFibGVFbnRyaWVzPjwvSXRlbT48SXRlbT48SXRlbUxvY2F0aW9uPjxJdGVtVHlwZT5Gb3JtdWxhPC9JdGVtVHlwZT48SXRlbVBhdGg+U2VjdGlvbjEvYm9udXNlcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9ib251c2VzL1Byb21vdGVkJTIwSGVhZGVyczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCUyMFR5cGU8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAAMPVTOTTsnEW3BCpn531nnwAAAAACAAAAAAAQZgAAAAEAACAAAABqqtf0BhRFLmQ1UnB9JAYgugein6Su4KxWR/7zGuHsoAAAAAAOgAAAAAIAACAAAADHjhrYRrEEO2B2fKEbcP/HljaXS9xRUgoHBw3hh5c6UFAAAAC1+c8D9K2VoF5K3NPIlPcEAa/uKms+XJVFitIQ4I/f35lvHe4qzUSOpUZYuBUj4s2Lyr/RgcK5dixhA+cnA9RqGTGqnTyv34PdVc2FHewY9EAAAAA7FawTNmU1GiAm4MYe2+g7AQb2UlTnYdkopm883F2+UKZ7RkHla3LnohEme5oTn/4h+Y+izLS7/+tPrnGhneOY</DataMashup>
 </file>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1513">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4384,6 +4386,147 @@
   </si>
   <si>
     <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -4514,7 +4657,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4547,19 +4690,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4593,6 +4732,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -4755,9 +4898,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15242,14 +15387,16 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27"/>
@@ -16287,10 +16434,714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F47"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16304,52 +17155,52 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1452</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1453</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1454</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1455</v>
+        <v>1502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1456</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1457</v>
+        <v>1504</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1458</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1459</v>
+        <v>1506</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1460</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1461</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1462</v>
+        <v>1509</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1463</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -16366,36 +17217,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1464</v>
+      <c r="B1" s="9" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B2" s="11" t="b">
+      <c r="A2" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B2" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="1568">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2819,12 +2819,18 @@
     <t xml:space="preserve">oceania</t>
   </si>
   <si>
+    <t xml:space="preserve">Abbotts gent </t>
+  </si>
+  <si>
     <t xml:space="preserve">Australasian Pipit</t>
   </si>
   <si>
     <t xml:space="preserve">Anthus novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Nieuw-Zeelandse Pieper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australasian Shoveler</t>
   </si>
   <si>
@@ -2843,6 +2849,12 @@
     <t xml:space="preserve">Gymnorhina tibicen</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwartrugfluitvogel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leg 1 [egg] af van elke vogel in deze rij en kolom die een [egg] heeft, met uitzondering van deze vogel. Voor elk afgelegd [egg] bewaar je 2 [seed] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Owlet-Nightjar</t>
   </si>
   <si>
@@ -2855,12 +2867,18 @@
     <t xml:space="preserve">Corvus coronoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische raaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Reed Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Acrocephalus australis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische karekiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Shelduck</t>
   </si>
   <si>
@@ -2873,6 +2891,9 @@
     <t xml:space="preserve">Taeniopygia castanotis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische zebravink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Noddy</t>
   </si>
   <si>
@@ -2885,12 +2906,18 @@
     <t xml:space="preserve">Cygnus atratus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwarte Zwaan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black-Shouldered Kite</t>
   </si>
   <si>
     <t xml:space="preserve">Elanus axillaris</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische grijze wouw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blyth's Hornbill</t>
   </si>
   <si>
@@ -2945,6 +2972,9 @@
     <t xml:space="preserve">Platycercus eximius</t>
   </si>
   <si>
+    <t xml:space="preserve">Prachtrosella</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eastern Whipbird</t>
   </si>
   <si>
@@ -2957,12 +2987,18 @@
     <t xml:space="preserve">Dromaius novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Emoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Galah</t>
   </si>
   <si>
     <t xml:space="preserve">Eolophus roseicapilla</t>
   </si>
   <si>
+    <t xml:space="preserve">Roze kakatoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Golden-Headed Cisticola</t>
   </si>
   <si>
@@ -2975,6 +3011,9 @@
     <t xml:space="preserve">Erythrura gouldiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Gouldamadine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Pygmy-Goose</t>
   </si>
   <si>
@@ -2993,12 +3032,18 @@
     <t xml:space="preserve">Colluricincla harmonica</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijze lijsterdikkop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Teal</t>
   </si>
   <si>
     <t xml:space="preserve">Anas gracilis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische taling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Warbler</t>
   </si>
   <si>
@@ -3077,6 +3122,12 @@
     <t xml:space="preserve">Eudyptula minor</t>
   </si>
   <si>
+    <t xml:space="preserve">Dwergpinguïn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trek 5 [card] van de trekstapel en leg die af. Bewaar voor elke  [fish] in de voedselkosten ervan 1 [fish] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Pied Cormorant</t>
   </si>
   <si>
@@ -3101,6 +3152,9 @@
     <t xml:space="preserve">Leipoa ocellata</t>
   </si>
   <si>
+    <t xml:space="preserve">Thermometervogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maned Duck</t>
   </si>
   <si>
@@ -3125,6 +3179,9 @@
     <t xml:space="preserve">Dicaeum hirundinaceum</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodstuithoningvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Musk Duck</t>
   </si>
   <si>
@@ -3155,6 +3212,9 @@
     <t xml:space="preserve">Megapodius reinwardt</t>
   </si>
   <si>
+    <t xml:space="preserve">Rood boshoen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pacific Black Duck</t>
   </si>
   <si>
@@ -3173,6 +3233,9 @@
     <t xml:space="preserve">Psittrichas fulgidus</t>
   </si>
   <si>
+    <t xml:space="preserve">Borstelkoppapegaai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pheasant Coucal</t>
   </si>
   <si>
@@ -3191,12 +3254,18 @@
     <t xml:space="preserve">Pedionomus torquatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Trapvechtkwartel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Princess Stephanie's Astrapia</t>
   </si>
   <si>
     <t xml:space="preserve">Astrapia stephaniae</t>
   </si>
   <si>
+    <t xml:space="preserve">Stephanie-astrapia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pūkeko</t>
   </si>
   <si>
@@ -3209,12 +3278,18 @@
     <t xml:space="preserve">Trichoglossus moluccanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Lori van de Blauwe Bergen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red Wattlebird</t>
   </si>
   <si>
     <t xml:space="preserve">Anthochaera carunculata</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodlelhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Backed Fairywren</t>
   </si>
   <si>
@@ -3281,12 +3356,18 @@
     <t xml:space="preserve">Zosterops lateralis</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijsrugbrilvogel </t>
+  </si>
+  <si>
     <t xml:space="preserve">South Island Robin</t>
   </si>
   <si>
     <t xml:space="preserve">Petroica australis</t>
   </si>
   <si>
+    <t xml:space="preserve">Zuidereilandvliegenvanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Southern Cassowary</t>
   </si>
   <si>
@@ -3371,6 +3452,9 @@
     <t xml:space="preserve">Egretta novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Witwangreiger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Willie-Wagtail</t>
   </si>
   <si>
@@ -3440,6 +3524,9 @@
     <t xml:space="preserve">Monticola solitarius</t>
   </si>
   <si>
+    <t xml:space="preserve">Blauwe Rotslijster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brahminy Kite</t>
   </si>
   <si>
@@ -3536,6 +3623,12 @@
     <t xml:space="preserve">Bubo bubo</t>
   </si>
   <si>
+    <t xml:space="preserve">Oehoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trek ten hoogste 3 keer 1 [card] van de gedekte stapel. Als je stapt en de totale vleugelwijdte van de getrokken vogels is kleiner dan 110 cm, stop deze dan onder deze vogel weg. Zo niet, leg ze dan af.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eurasian Hoopoe</t>
   </si>
   <si>
@@ -3602,6 +3695,12 @@
     <t xml:space="preserve">Phalacrocorax carbo</t>
   </si>
   <si>
+    <t xml:space="preserve">Aalscholver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">je mag 1 [fish] van deze vogel naar je voorraad verplaatsen. Werp dan 2 [die] naar keuze. Werp je ten minste 1 [fish], bewaar dan 1 [fish] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great Hornbill</t>
   </si>
   <si>
@@ -4337,18 +4436,116 @@
     <t xml:space="preserve">Forest Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Bosdata-Analist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [forest] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 opeenvolgende vogels: 3[point]; 4 opeenvolgende vogels: 5[point]; 5 opeenvolgende vogels: 8[point]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grassland Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [grassland] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mechanical Engineer</t>
   </si>
   <si>
+    <t xml:space="preserve">Werktuigbouwkundige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets van de 4 nestsoorten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 set = [bowl] [cavity] [ground] [platform]; 1 set: 3[point]; 2 of meer sets: 8[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elke nestjoker geldt als 1 nestsoort naar keuze. Een kaart kan geen onderdeel van meerdere sets zijn.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Site Selection Expert</t>
   </si>
   <si>
+    <t xml:space="preserve">Locatieonderzoeksexpert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolommen met 2 of 3 gelijke nesten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">gelijke nesten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in een kolom: 1[point]; 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">gelijke nesten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> in een kolom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 3[point]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschillende kolommen mogen (maar dat hoeft niet) verschillende nestsoorten tellen. Een nestjoker geldt als 1 nestsoort naar keuze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wetland Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [wetland] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avian Theriogenologist</t>
   </si>
   <si>
@@ -4472,27 +4669,118 @@
     <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">[invertebrate] in voedselkosten van je vogels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">[fruit] + [seed] in voedselkosten van je vogels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">[rodent] + [fish]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in voedselkosten van je vogels</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">No Goal</t>
   </si>
   <si>
+    <t xml:space="preserve">Geen doel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Left</t>
   </si>
   <si>
+    <t xml:space="preserve">Snavel wijst naar links</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Right</t>
   </si>
   <si>
+    <t xml:space="preserve">Snavel wijst naar rechts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cubes on "Play a Bird"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[cube] op </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Speel een vogel"</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[bird] die </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">≤3[point] waard zijn</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Pairs of Matching Symbols</t>
   </si>
   <si>
@@ -4557,6 +4845,9 @@
   </si>
   <si>
     <t xml:space="preserve">GAME END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EINDE SPEL</t>
   </si>
   <si>
     <t xml:space="preserve">of cards</t>
@@ -4581,7 +4872,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4608,11 +4899,25 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4657,7 +4962,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4678,16 +4983,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4897,12 +5218,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C358" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A358" activeCellId="0" sqref="A358"/>
+      <selection pane="bottomRight" activeCell="F382" activeCellId="0" sqref="F382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11949,7 +12270,9 @@
       <c r="D263" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E263" s="2"/>
+      <c r="E263" s="5" t="s">
+        <v>929</v>
+      </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="4"/>
@@ -11964,15 +12287,17 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E264" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>932</v>
+      </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="4"/>
@@ -11987,10 +12312,10 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>928</v>
@@ -12010,10 +12335,10 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>928</v>
@@ -12033,16 +12358,20 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
+      <c r="E267" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="G267" s="2"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4" t="s">
@@ -12056,10 +12385,10 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>928</v>
@@ -12079,15 +12408,17 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E269" s="2"/>
+      <c r="E269" s="2" t="s">
+        <v>945</v>
+      </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="4"/>
@@ -12102,15 +12433,17 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E270" s="2"/>
+      <c r="E270" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="4"/>
@@ -12125,10 +12458,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>928</v>
@@ -12148,15 +12481,17 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E272" s="2"/>
+      <c r="E272" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="4"/>
@@ -12171,10 +12506,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>928</v>
@@ -12194,15 +12529,17 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E274" s="2"/>
+      <c r="E274" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="4"/>
@@ -12217,15 +12554,17 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" s="0" t="s">
+        <v>961</v>
+      </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="4" t="s">
@@ -12242,10 +12581,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>928</v>
@@ -12265,10 +12604,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>928</v>
@@ -12286,10 +12625,10 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>928</v>
@@ -12309,10 +12648,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>928</v>
@@ -12330,10 +12669,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>928</v>
@@ -12351,10 +12690,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>928</v>
@@ -12374,10 +12713,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>928</v>
@@ -12397,10 +12736,10 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>928</v>
@@ -12420,15 +12759,17 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E284" s="2"/>
+      <c r="E284" s="2" t="s">
+        <v>980</v>
+      </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="4"/>
@@ -12445,10 +12786,10 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>928</v>
@@ -12468,15 +12809,17 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E286" s="2"/>
+      <c r="E286" s="2" t="s">
+        <v>985</v>
+      </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="4"/>
@@ -12489,15 +12832,17 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E287" s="2"/>
+      <c r="E287" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="4"/>
@@ -12510,10 +12855,10 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>928</v>
@@ -12535,15 +12880,17 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E289" s="2"/>
+      <c r="E289" s="2" t="s">
+        <v>993</v>
+      </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="4"/>
@@ -12558,10 +12905,10 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>928</v>
@@ -12581,10 +12928,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>928</v>
@@ -12604,15 +12951,17 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E292" s="2"/>
+      <c r="E292" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="4"/>
@@ -12627,15 +12976,17 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E293" s="2"/>
+      <c r="E293" s="2" t="s">
+        <v>1003</v>
+      </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="4"/>
@@ -12650,10 +13001,10 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>928</v>
@@ -12673,10 +13024,10 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>928</v>
@@ -12698,10 +13049,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>928</v>
@@ -12723,10 +13074,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>928</v>
@@ -12746,10 +13097,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>928</v>
@@ -12767,15 +13118,17 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E299" s="2"/>
+      <c r="E299" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
       <c r="H299" s="4"/>
@@ -12788,10 +13141,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>928</v>
@@ -12809,10 +13162,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>928</v>
@@ -12830,10 +13183,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>928</v>
@@ -12851,10 +13204,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>928</v>
@@ -12872,10 +13225,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>928</v>
@@ -12893,10 +13246,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>928</v>
@@ -12916,16 +13269,20 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
+      <c r="E306" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>1031</v>
+      </c>
       <c r="G306" s="2"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
@@ -12937,10 +13294,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>928</v>
@@ -12958,10 +13315,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>928</v>
@@ -12979,10 +13336,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>928</v>
@@ -13002,15 +13359,17 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E310" s="2"/>
+      <c r="E310" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
       <c r="H310" s="4"/>
@@ -13025,10 +13384,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>928</v>
@@ -13046,10 +13405,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>928</v>
@@ -13067,10 +13426,10 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>928</v>
@@ -13090,15 +13449,17 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E314" s="2"/>
+      <c r="E314" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
       <c r="H314" s="4"/>
@@ -13111,10 +13472,10 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>928</v>
@@ -13132,10 +13493,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>928</v>
@@ -13155,10 +13516,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>928</v>
@@ -13176,10 +13537,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>928</v>
@@ -13201,15 +13562,17 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E319" s="2"/>
+      <c r="E319" s="2" t="s">
+        <v>1060</v>
+      </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="4" t="s">
@@ -13228,10 +13591,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>928</v>
@@ -13253,10 +13616,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>928</v>
@@ -13274,15 +13637,17 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E322" s="2"/>
+      <c r="E322" s="2" t="s">
+        <v>1067</v>
+      </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
       <c r="H322" s="4"/>
@@ -13297,10 +13662,10 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1047</v>
+        <v>1068</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>928</v>
@@ -13318,10 +13683,10 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>928</v>
@@ -13343,15 +13708,17 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1052</v>
+        <v>1073</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E325" s="2"/>
+      <c r="E325" s="6" t="s">
+        <v>1074</v>
+      </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="4"/>
@@ -13368,15 +13735,17 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1054</v>
+        <v>1076</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E326" s="2"/>
+      <c r="E326" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="4"/>
@@ -13389,10 +13758,10 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1055</v>
+        <v>1078</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>928</v>
@@ -13410,15 +13779,17 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1057</v>
+        <v>1080</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1058</v>
+        <v>1081</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E328" s="2"/>
+      <c r="E328" s="2" t="s">
+        <v>1082</v>
+      </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="4"/>
@@ -13431,15 +13802,17 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E329" s="2"/>
+      <c r="E329" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="4" t="s">
@@ -13456,10 +13829,10 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1061</v>
+        <v>1086</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1062</v>
+        <v>1087</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>928</v>
@@ -13481,10 +13854,10 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1063</v>
+        <v>1088</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1064</v>
+        <v>1089</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>928</v>
@@ -13506,10 +13879,10 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1065</v>
+        <v>1090</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1066</v>
+        <v>1091</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>928</v>
@@ -13531,10 +13904,10 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1067</v>
+        <v>1092</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1068</v>
+        <v>1093</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>928</v>
@@ -13556,10 +13929,10 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1069</v>
+        <v>1094</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1070</v>
+        <v>1095</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>928</v>
@@ -13577,10 +13950,10 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1071</v>
+        <v>1096</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1072</v>
+        <v>1097</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>928</v>
@@ -13600,10 +13973,10 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1073</v>
+        <v>1098</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1074</v>
+        <v>1099</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>928</v>
@@ -13623,10 +13996,10 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1076</v>
+        <v>1101</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>928</v>
@@ -13646,10 +14019,10 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1077</v>
+        <v>1102</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1078</v>
+        <v>1103</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>928</v>
@@ -13669,10 +14042,10 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1079</v>
+        <v>1104</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1080</v>
+        <v>1105</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>928</v>
@@ -13690,15 +14063,17 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1081</v>
+        <v>1106</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1082</v>
+        <v>1107</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E340" s="2"/>
+      <c r="E340" s="5" t="s">
+        <v>1108</v>
+      </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
       <c r="H340" s="4" t="s">
@@ -13715,15 +14090,17 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1083</v>
+        <v>1109</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E341" s="2"/>
+      <c r="E341" s="2" t="s">
+        <v>1111</v>
+      </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
       <c r="H341" s="4"/>
@@ -13738,10 +14115,10 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1085</v>
+        <v>1112</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1086</v>
+        <v>1113</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>928</v>
@@ -13761,10 +14138,10 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1087</v>
+        <v>1114</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1088</v>
+        <v>1115</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>928</v>
@@ -13782,10 +14159,10 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1089</v>
+        <v>1116</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1090</v>
+        <v>1117</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>928</v>
@@ -13803,10 +14180,10 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1091</v>
+        <v>1118</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1092</v>
+        <v>1119</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>928</v>
@@ -13824,10 +14201,10 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1094</v>
+        <v>1121</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>928</v>
@@ -13845,10 +14222,10 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1095</v>
+        <v>1122</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>928</v>
@@ -13870,10 +14247,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1097</v>
+        <v>1124</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1098</v>
+        <v>1125</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>928</v>
@@ -13893,10 +14270,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1099</v>
+        <v>1126</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1100</v>
+        <v>1127</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>928</v>
@@ -13920,10 +14297,10 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1101</v>
+        <v>1128</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1102</v>
+        <v>1129</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>928</v>
@@ -13941,10 +14318,10 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1103</v>
+        <v>1130</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1104</v>
+        <v>1131</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>928</v>
@@ -13964,10 +14341,10 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1105</v>
+        <v>1132</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1106</v>
+        <v>1133</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>928</v>
@@ -13985,10 +14362,10 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1107</v>
+        <v>1134</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>928</v>
@@ -14012,10 +14389,10 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1109</v>
+        <v>1136</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1110</v>
+        <v>1137</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>928</v>
@@ -14037,15 +14414,17 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1111</v>
+        <v>1138</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1112</v>
+        <v>1139</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E355" s="2"/>
+      <c r="E355" s="2" t="s">
+        <v>1140</v>
+      </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
       <c r="H355" s="4" t="s">
@@ -14062,10 +14441,10 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1113</v>
+        <v>1141</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1114</v>
+        <v>1142</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>928</v>
@@ -14087,10 +14466,10 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1116</v>
+        <v>1144</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>928</v>
@@ -14110,13 +14489,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1117</v>
+        <v>1145</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1118</v>
+        <v>1146</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,13 +14503,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1120</v>
+        <v>1148</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1121</v>
+        <v>1149</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14138,13 +14517,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1122</v>
+        <v>1150</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1123</v>
+        <v>1151</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14152,13 +14531,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1124</v>
+        <v>1152</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1125</v>
+        <v>1153</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,13 +14545,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1126</v>
+        <v>1154</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1127</v>
+        <v>1155</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14180,13 +14559,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1128</v>
+        <v>1156</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1129</v>
+        <v>1157</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,13 +14573,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1130</v>
+        <v>1158</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14208,13 +14587,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1132</v>
+        <v>1160</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14222,13 +14601,16 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14236,13 +14618,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1136</v>
+        <v>1165</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14250,13 +14632,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1139</v>
+        <v>1168</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14264,13 +14646,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1140</v>
+        <v>1169</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14278,13 +14660,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14292,13 +14674,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1145</v>
+        <v>1174</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14306,13 +14688,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1146</v>
+        <v>1175</v>
       </c>
       <c r="C372" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D372" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14320,13 +14702,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1148</v>
+        <v>1177</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1149</v>
+        <v>1178</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14334,13 +14716,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1150</v>
+        <v>1179</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1151</v>
+        <v>1180</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14348,13 +14730,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1152</v>
+        <v>1181</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1153</v>
+        <v>1182</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14362,13 +14744,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1154</v>
+        <v>1183</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1155</v>
+        <v>1184</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14376,13 +14758,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1156</v>
+        <v>1185</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14390,13 +14772,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1158</v>
+        <v>1187</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1159</v>
+        <v>1188</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14404,13 +14786,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1160</v>
+        <v>1189</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14418,13 +14800,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1162</v>
+        <v>1191</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14432,13 +14814,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1164</v>
+        <v>1193</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,13 +14828,19 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1167</v>
+        <v>1196</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,13 +14848,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1168</v>
+        <v>1199</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1169</v>
+        <v>1200</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14474,13 +14862,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1170</v>
+        <v>1201</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1171</v>
+        <v>1202</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14488,13 +14876,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1172</v>
+        <v>1203</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1173</v>
+        <v>1204</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,13 +14890,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1174</v>
+        <v>1205</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1175</v>
+        <v>1206</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,13 +14904,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1176</v>
+        <v>1207</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1177</v>
+        <v>1208</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14530,13 +14918,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1178</v>
+        <v>1209</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1179</v>
+        <v>1210</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,13 +14932,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1180</v>
+        <v>1211</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1181</v>
+        <v>1212</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14558,13 +14946,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1182</v>
+        <v>1213</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1183</v>
+        <v>1214</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,13 +14960,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1184</v>
+        <v>1215</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1185</v>
+        <v>1216</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,13 +14974,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1186</v>
+        <v>1217</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1187</v>
+        <v>1218</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14600,13 +14988,19 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1188</v>
+        <v>1219</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1189</v>
+        <v>1220</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,13 +15008,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1190</v>
+        <v>1223</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1191</v>
+        <v>1224</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,13 +15022,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1192</v>
+        <v>1225</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1193</v>
+        <v>1226</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14642,13 +15036,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1194</v>
+        <v>1227</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1195</v>
+        <v>1228</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14656,13 +15050,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1196</v>
+        <v>1229</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1197</v>
+        <v>1230</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14670,13 +15064,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1198</v>
+        <v>1231</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1199</v>
+        <v>1232</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,13 +15078,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1201</v>
+        <v>1234</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14698,13 +15092,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1202</v>
+        <v>1235</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1203</v>
+        <v>1236</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14712,13 +15106,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1204</v>
+        <v>1237</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1205</v>
+        <v>1238</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14726,13 +15120,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1206</v>
+        <v>1239</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1207</v>
+        <v>1240</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14740,13 +15134,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1208</v>
+        <v>1241</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1209</v>
+        <v>1242</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,13 +15148,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1210</v>
+        <v>1243</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1211</v>
+        <v>1244</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14768,13 +15162,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1212</v>
+        <v>1245</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1213</v>
+        <v>1246</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14782,13 +15176,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1214</v>
+        <v>1247</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1215</v>
+        <v>1248</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14796,13 +15190,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1216</v>
+        <v>1249</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,13 +15204,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1218</v>
+        <v>1251</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1219</v>
+        <v>1252</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14824,13 +15218,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1221</v>
+        <v>1254</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14838,13 +15232,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1222</v>
+        <v>1255</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1223</v>
+        <v>1256</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14852,13 +15246,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1224</v>
+        <v>1257</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14866,13 +15260,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1226</v>
+        <v>1259</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1227</v>
+        <v>1260</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,13 +15274,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1228</v>
+        <v>1261</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1229</v>
+        <v>1262</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14894,13 +15288,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1231</v>
+        <v>1264</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14908,13 +15302,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1232</v>
+        <v>1265</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1233</v>
+        <v>1266</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,13 +15316,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1234</v>
+        <v>1267</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1235</v>
+        <v>1268</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14936,13 +15330,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1236</v>
+        <v>1269</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1237</v>
+        <v>1270</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14950,13 +15344,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1238</v>
+        <v>1271</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1239</v>
+        <v>1272</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14964,13 +15358,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1240</v>
+        <v>1273</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1241</v>
+        <v>1274</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,13 +15372,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1242</v>
+        <v>1275</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1243</v>
+        <v>1276</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14992,13 +15386,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1244</v>
+        <v>1277</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1245</v>
+        <v>1278</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15006,13 +15400,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1246</v>
+        <v>1279</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1247</v>
+        <v>1280</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,13 +15414,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1249</v>
+        <v>1282</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,13 +15428,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1250</v>
+        <v>1283</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1251</v>
+        <v>1284</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,13 +15442,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1252</v>
+        <v>1285</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15062,13 +15456,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1255</v>
+        <v>1288</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15076,13 +15470,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1256</v>
+        <v>1289</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1257</v>
+        <v>1290</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,13 +15484,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1259</v>
+        <v>1292</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15104,13 +15498,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1260</v>
+        <v>1293</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1261</v>
+        <v>1294</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15118,13 +15512,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1262</v>
+        <v>1295</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1263</v>
+        <v>1296</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +15526,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1264</v>
+        <v>1297</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1265</v>
+        <v>1298</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,13 +15540,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1266</v>
+        <v>1299</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1267</v>
+        <v>1300</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,13 +15554,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,13 +15568,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1270</v>
+        <v>1303</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1271</v>
+        <v>1304</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,13 +15582,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,13 +15596,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15216,13 +15610,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1276</v>
+        <v>1309</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,13 +15624,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1278</v>
+        <v>1311</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15244,13 +15638,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1281</v>
+        <v>1314</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15258,13 +15652,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1282</v>
+        <v>1315</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1283</v>
+        <v>1316</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15272,13 +15666,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15286,13 +15680,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1287</v>
+        <v>1320</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15300,13 +15694,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,13 +15708,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1291</v>
+        <v>1324</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15328,13 +15722,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15342,13 +15736,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15356,16 +15750,19 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1297</v>
+        <v>1330</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E263" r:id="rId1" display="Abbotts gent "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15374,7 +15771,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15387,11 +15784,11 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15417,16 +15814,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1298</v>
+        <v>1331</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1300</v>
+        <v>1333</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1301</v>
+        <v>1334</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -15439,20 +15836,20 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1302</v>
+        <v>1335</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1303</v>
+        <v>1336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1304</v>
+        <v>1337</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -15461,20 +15858,20 @@
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1307</v>
+        <v>1340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1308</v>
+        <v>1341</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>1309</v>
+        <v>1342</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -15483,22 +15880,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1311</v>
+        <v>1344</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1312</v>
+        <v>1345</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1313</v>
+        <v>1346</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -15507,20 +15904,20 @@
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1316</v>
+        <v>1349</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1317</v>
+        <v>1350</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -15529,20 +15926,20 @@
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1320</v>
+        <v>1353</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1321</v>
+        <v>1354</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -15551,22 +15948,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1325</v>
+        <v>1358</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1326</v>
+        <v>1359</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1327</v>
+        <v>1360</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -15575,20 +15972,20 @@
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1329</v>
+        <v>1362</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1330</v>
+        <v>1363</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>1331</v>
+        <v>1364</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -15599,20 +15996,20 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1332</v>
+        <v>1365</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1334</v>
+        <v>1367</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1335</v>
+        <v>1368</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -15621,20 +16018,20 @@
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>1339</v>
+        <v>1372</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -15643,20 +16040,20 @@
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1341</v>
+        <v>1374</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1342</v>
+        <v>1375</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>1343</v>
+        <v>1376</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -15665,22 +16062,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1345</v>
+        <v>1378</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1346</v>
+        <v>1379</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1347</v>
+        <v>1380</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -15689,22 +16086,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1349</v>
+        <v>1382</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1350</v>
+        <v>1383</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1351</v>
+        <v>1384</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -15713,22 +16110,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1354</v>
+        <v>1387</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1355</v>
+        <v>1388</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1356</v>
+        <v>1389</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1357</v>
+        <v>1390</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -15737,20 +16134,20 @@
         <v>1013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1359</v>
+        <v>1392</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1360</v>
+        <v>1393</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -15759,22 +16156,22 @@
         <v>1014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1362</v>
+        <v>1395</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1363</v>
+        <v>1396</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1364</v>
+        <v>1397</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1365</v>
+        <v>1398</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -15783,22 +16180,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1367</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1368</v>
+        <v>1401</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1369</v>
+        <v>1402</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -15807,20 +16204,20 @@
         <v>1016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1371</v>
+        <v>1404</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1372</v>
+        <v>1405</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>1373</v>
+        <v>1406</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -15831,20 +16228,20 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1374</v>
+        <v>1407</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1375</v>
+        <v>1408</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1376</v>
+        <v>1409</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -15853,20 +16250,20 @@
         <v>1018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1378</v>
+        <v>1411</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1379</v>
+        <v>1412</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -15875,22 +16272,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1382</v>
+        <v>1415</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1383</v>
+        <v>1416</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1384</v>
+        <v>1417</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -15899,22 +16296,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1386</v>
+        <v>1419</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1387</v>
+        <v>1420</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1388</v>
+        <v>1421</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -15923,20 +16320,20 @@
         <v>1021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1390</v>
+        <v>1423</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1391</v>
+        <v>1424</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>1392</v>
+        <v>1425</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -15945,20 +16342,20 @@
         <v>1022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1394</v>
+        <v>1427</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1395</v>
+        <v>1428</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -15969,20 +16366,20 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1396</v>
+        <v>1429</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1397</v>
+        <v>1430</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1398</v>
+        <v>1431</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -15991,22 +16388,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1400</v>
+        <v>1433</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1401</v>
+        <v>1434</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1402</v>
+        <v>1435</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -16015,20 +16412,20 @@
         <v>1025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1404</v>
+        <v>1437</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1405</v>
+        <v>1438</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>1365</v>
+        <v>1398</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -16037,22 +16434,22 @@
         <v>1026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1407</v>
+        <v>1440</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1408</v>
+        <v>1441</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1409</v>
+        <v>1442</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1322</v>
+        <v>1355</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -16061,20 +16458,20 @@
         <v>1027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1411</v>
+        <v>1444</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1412</v>
+        <v>1445</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>1413</v>
+        <v>1446</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -16083,22 +16480,22 @@
         <v>1028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1415</v>
+        <v>1448</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1416</v>
+        <v>1449</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1417</v>
+        <v>1450</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -16107,20 +16504,20 @@
         <v>1029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1419</v>
+        <v>1452</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1420</v>
+        <v>1453</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>1421</v>
+        <v>1454</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -16129,22 +16526,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1423</v>
+        <v>1456</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1424</v>
+        <v>1457</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1425</v>
+        <v>1458</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -16153,19 +16550,19 @@
         <v>1032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1427</v>
+        <v>1460</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1428</v>
+        <v>1461</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1429</v>
+        <v>1462</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -16175,19 +16572,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1431</v>
+        <v>1464</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1432</v>
+        <v>1465</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1433</v>
+        <v>1466</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -16197,15 +16594,21 @@
         <v>1034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1469</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="8" t="s">
+        <v>1470</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16213,15 +16616,19 @@
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>1472</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="8" t="s">
+        <v>1470</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16229,15 +16636,23 @@
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C37" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1477</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,15 +16660,23 @@
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>1482</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16261,158 +16684,162 @@
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>1484</v>
+      </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="8" t="s">
+        <v>1470</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>1039</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>1119</v>
+      <c r="B40" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>1040</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1119</v>
+      <c r="B41" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>1041</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1119</v>
+      <c r="B42" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>1042</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1119</v>
+      <c r="B43" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="9" t="n">
         <v>1043</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1119</v>
+      <c r="B44" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>1044</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1119</v>
+      <c r="B45" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="9" t="n">
         <v>1045</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1119</v>
+      <c r="B46" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>1046</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1119</v>
+      <c r="B47" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="9" t="n">
         <v>1047</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1119</v>
+      <c r="B48" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>1048</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1119</v>
+      <c r="B49" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="9" t="n">
         <v>1049</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1119</v>
+      <c r="B50" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>1050</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1119</v>
+      <c r="B51" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>1051</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1119</v>
+      <c r="B52" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -16436,17 +16863,17 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
@@ -16461,662 +16888,677 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1452</v>
+        <v>1331</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>2005</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>2007</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="B40" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="B44" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="B45" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F47"/>
@@ -17141,7 +17583,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17155,52 +17597,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1499</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1500</v>
+        <v>1554</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1501</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1502</v>
+        <v>1556</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1503</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1504</v>
+        <v>1558</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1505</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1506</v>
+        <v>1560</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1507</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1508</v>
+        <v>1562</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1509</v>
+        <v>1564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1510</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -17233,22 +17678,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1511</v>
+        <v>1331</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B2" s="10" t="b">
+        <v>1567</v>
+      </c>
+      <c r="B2" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1636">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2837,12 +2837,18 @@
     <t xml:space="preserve">Spatula rhynchotis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische slobeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Ibis</t>
   </si>
   <si>
     <t xml:space="preserve">Threskiornis moluccus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische witte ibis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Magpie</t>
   </si>
   <si>
@@ -2861,6 +2867,9 @@
     <t xml:space="preserve">Aegotheles cristatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische dwergnachtzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Raven</t>
   </si>
   <si>
@@ -2885,6 +2894,9 @@
     <t xml:space="preserve">Tadorna tadornoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische bergeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Zebra Finch</t>
   </si>
   <si>
@@ -2900,6 +2912,9 @@
     <t xml:space="preserve">Anous minutus</t>
   </si>
   <si>
+    <t xml:space="preserve">Witkapnoddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Swan</t>
   </si>
   <si>
@@ -2924,48 +2939,72 @@
     <t xml:space="preserve">Rhyticeros plicatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Papoea-jaarvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brolga</t>
   </si>
   <si>
     <t xml:space="preserve">Antigone rubicunda</t>
   </si>
   <si>
+    <t xml:space="preserve">Brolgakraanvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brown Falcon</t>
   </si>
   <si>
     <t xml:space="preserve">Falco berigora</t>
   </si>
   <si>
+    <t xml:space="preserve">Grote bruine valk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budgerigar</t>
   </si>
   <si>
     <t xml:space="preserve">Melopsittacus undulatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Grasparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cockatiel</t>
   </si>
   <si>
     <t xml:space="preserve">Nymphicus hollandicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Valkparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Raggi's Bird-of-Paradise</t>
   </si>
   <si>
     <t xml:space="preserve">Paradisaea raggiana</t>
   </si>
   <si>
+    <t xml:space="preserve">Raggi's paradijsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crested Pigeon</t>
   </si>
   <si>
     <t xml:space="preserve">Ocyphaps lophotes</t>
   </si>
   <si>
+    <t xml:space="preserve">Spitskuifduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crimson Chat</t>
   </si>
   <si>
     <t xml:space="preserve">Epthianura tricolor</t>
   </si>
   <si>
+    <t xml:space="preserve">Scharlaken schijnpaapje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eastern Rosella</t>
   </si>
   <si>
@@ -2981,6 +3020,9 @@
     <t xml:space="preserve">Psophodes olivaceus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwartkopzwiepfluiter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emu</t>
   </si>
   <si>
@@ -3005,6 +3047,9 @@
     <t xml:space="preserve">Cisticola exilis</t>
   </si>
   <si>
+    <t xml:space="preserve">Goudkopgraszanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gould's Finch</t>
   </si>
   <si>
@@ -3020,12 +3065,18 @@
     <t xml:space="preserve">Nettapus pulchellus</t>
   </si>
   <si>
+    <t xml:space="preserve">Groene dwergeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Butcherbird</t>
   </si>
   <si>
     <t xml:space="preserve">Cracticus torquatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijsrugorgelvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Shrikethrush</t>
   </si>
   <si>
@@ -3050,30 +3101,45 @@
     <t xml:space="preserve">Gerygone igata</t>
   </si>
   <si>
+    <t xml:space="preserve">Maorimangrovezanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey-Headed Mannikin</t>
   </si>
   <si>
     <t xml:space="preserve">Lonchura caniceps</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijskopnon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horsfield's Bronze-Cuckoo</t>
   </si>
   <si>
     <t xml:space="preserve">Chrysococcyx basalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Horsfields bronskoekoek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horsfield's Bushlark</t>
   </si>
   <si>
     <t xml:space="preserve">Mirafra javanica</t>
   </si>
   <si>
+    <t xml:space="preserve">Oosterse struikleeuwerik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kākāpо̄</t>
   </si>
   <si>
     <t xml:space="preserve">Strigops habroptila</t>
   </si>
   <si>
+    <t xml:space="preserve">Kakapo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kea</t>
   </si>
   <si>
@@ -3086,36 +3152,54 @@
     <t xml:space="preserve">Larus dominicanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Kelpmeeuw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kererū</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiphaga novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Nieuw-Zeelandse vruchtenduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korimako</t>
   </si>
   <si>
     <t xml:space="preserve">Anthornis melanura</t>
   </si>
   <si>
+    <t xml:space="preserve">Maori-belhoningvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laughing Kookaburra</t>
   </si>
   <si>
     <t xml:space="preserve">Dacelo novaeguineae</t>
   </si>
   <si>
+    <t xml:space="preserve">Kookaburra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesser Frigatebird</t>
   </si>
   <si>
     <t xml:space="preserve">Fregata ariel</t>
   </si>
   <si>
+    <t xml:space="preserve">Kleine fregatvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lewin's Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Meliphaga lewinii</t>
   </si>
   <si>
+    <t xml:space="preserve">Geeloorhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Penguin</t>
   </si>
   <si>
@@ -3134,18 +3218,27 @@
     <t xml:space="preserve">Microcarbo melanoleucos</t>
   </si>
   <si>
+    <t xml:space="preserve">Kleine bonte aalscholver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magpie-Lark</t>
   </si>
   <si>
     <t xml:space="preserve">Grallina cyanoleuca</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische slijkekster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Major Mitchell's Cockatoo</t>
   </si>
   <si>
     <t xml:space="preserve">Lophochroa leadbeateri</t>
   </si>
   <si>
+    <t xml:space="preserve">Inka-kaketoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malleefowl</t>
   </si>
   <si>
@@ -3161,18 +3254,27 @@
     <t xml:space="preserve">Chenonetta jubata</t>
   </si>
   <si>
+    <t xml:space="preserve">Manengans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Many-Colored Fruit Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Ptilinopus perousii</t>
   </si>
   <si>
+    <t xml:space="preserve">Regenboogjufferduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masked Lapwing</t>
   </si>
   <si>
     <t xml:space="preserve">Vanellus miles</t>
   </si>
   <si>
+    <t xml:space="preserve">Maskerkievit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mistletoebird</t>
   </si>
   <si>
@@ -3188,24 +3290,36 @@
     <t xml:space="preserve">Biziura lobata</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische muskuseend</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Holland Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Phylidonyris novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Witooghoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Noisy Miner</t>
   </si>
   <si>
     <t xml:space="preserve">Manorina melanocephala</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuinhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Island Brown Kiwi</t>
   </si>
   <si>
     <t xml:space="preserve">Apteryx mantelli</t>
   </si>
   <si>
+    <t xml:space="preserve">Noordereilandkiwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orange-Footed Scrubfowl</t>
   </si>
   <si>
@@ -3221,12 +3335,18 @@
     <t xml:space="preserve">Anas superciliosa</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenkbrauweend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peaceful Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Geopelia placida</t>
   </si>
   <si>
+    <t xml:space="preserve">Goulds zebraduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pesquet's Parrot</t>
   </si>
   <si>
@@ -3242,12 +3362,18 @@
     <t xml:space="preserve">Centropus phasianinus</t>
   </si>
   <si>
+    <t xml:space="preserve">Fazantspoorkoekoek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pink-Eared Duck</t>
   </si>
   <si>
     <t xml:space="preserve">Malacorhynchus membranaceus</t>
   </si>
   <si>
+    <t xml:space="preserve">Lepelbekeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plains-Wanderer</t>
   </si>
   <si>
@@ -3272,6 +3398,9 @@
     <t xml:space="preserve">Porphyrio melanotus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische purperkoet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rainbow Lorikeet</t>
   </si>
   <si>
@@ -3296,60 +3425,90 @@
     <t xml:space="preserve">Malurus melanocephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodrugelfje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Capped Robin</t>
   </si>
   <si>
     <t xml:space="preserve">Petroica goodenovii</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodkapvliegenvanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Necked Avocet</t>
   </si>
   <si>
     <t xml:space="preserve">Recurvirostra novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische kluut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Winged Parrot</t>
   </si>
   <si>
     <t xml:space="preserve">Aprosmictus erythropterus</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodvleugelparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regent Bowerbird</t>
   </si>
   <si>
     <t xml:space="preserve">Sericulus chrysocephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Geelnekprieelvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Royal Spoonbill</t>
   </si>
   <si>
     <t xml:space="preserve">Platalea regia</t>
   </si>
   <si>
+    <t xml:space="preserve">Koningslepelaar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous Night-Heron</t>
   </si>
   <si>
     <t xml:space="preserve">Nycticorax caledonicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosse kwak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Ninox rufa</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosse valkuil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous-Banded Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Conopophila albogularis</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodborsthoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sacred Kingfisher</t>
   </si>
   <si>
     <t xml:space="preserve">Todiramphus sanctus</t>
   </si>
   <si>
+    <t xml:space="preserve">Heilige ijsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silvereye</t>
   </si>
   <si>
@@ -3374,78 +3533,117 @@
     <t xml:space="preserve">Casuarius casuarius</t>
   </si>
   <si>
+    <t xml:space="preserve">Helmkasuaris</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spangled Drongo</t>
   </si>
   <si>
     <t xml:space="preserve">Dicrurus bracteatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Glansvlekdrongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Splendid Fairywren</t>
   </si>
   <si>
     <t xml:space="preserve">Malurus splendens</t>
   </si>
   <si>
+    <t xml:space="preserve">Prachtelfje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spotless Crake</t>
   </si>
   <si>
     <t xml:space="preserve">Zapornia tabuensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Pacifisch porseleinhoen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stubble Quail</t>
   </si>
   <si>
     <t xml:space="preserve">Coturnix pectoralis</t>
   </si>
   <si>
+    <t xml:space="preserve">Stoppelveldkwartel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sulphur-Crested Cockatoo</t>
   </si>
   <si>
     <t xml:space="preserve">Cacatua galerita</t>
   </si>
   <si>
+    <t xml:space="preserve">Grote geelkuifkaketoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Superb Lyrebird</t>
   </si>
   <si>
     <t xml:space="preserve">Menura novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Liervogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tawny Frogmouth</t>
   </si>
   <si>
     <t xml:space="preserve">Podargus strigoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Uilnachtzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tūī</t>
   </si>
   <si>
     <t xml:space="preserve">Prosthemadera novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Toei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wedge-Tailed Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Aquila audax</t>
   </si>
   <si>
+    <t xml:space="preserve">Wigstaartarend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Welcome Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Hirundo neoxena</t>
   </si>
   <si>
+    <t xml:space="preserve">Welkomzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Bellied Sea-Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Haliaeetus leucogaster</t>
   </si>
   <si>
+    <t xml:space="preserve">Witbuikzeearend</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Breasted Woodswallow</t>
   </si>
   <si>
     <t xml:space="preserve">Artamus leucoryn</t>
   </si>
   <si>
+    <t xml:space="preserve">Witborstspitsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Faced Heron</t>
   </si>
   <si>
@@ -3461,10 +3659,16 @@
     <t xml:space="preserve">Rhipidura leucophrys</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuinwaaierstaart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrybill</t>
   </si>
   <si>
     <t xml:space="preserve">Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheefsnavelplevier</t>
   </si>
   <si>
     <t xml:space="preserve">Asian Emerald Dove</t>
@@ -5061,8 +5265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K357" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K357"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:K447"/>
   <tableColumns count="11">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
@@ -5219,11 +5423,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C358" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A358" activeCellId="0" sqref="A358"/>
-      <selection pane="bottomRight" activeCell="F382" activeCellId="0" sqref="F382"/>
+      <selection pane="bottomLeft" activeCell="A288" activeCellId="0" sqref="A288"/>
+      <selection pane="bottomRight" activeCell="E318" activeCellId="0" sqref="E318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12270,7 +12474,7 @@
       <c r="D263" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E263" s="5" t="s">
+      <c r="E263" s="1" t="s">
         <v>929</v>
       </c>
       <c r="F263" s="2"/>
@@ -12320,7 +12524,9 @@
       <c r="D265" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E265" s="2"/>
+      <c r="E265" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="4"/>
@@ -12335,15 +12541,17 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E266" s="2"/>
+      <c r="E266" s="2" t="s">
+        <v>938</v>
+      </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="4"/>
@@ -12358,19 +12566,19 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G267" s="2"/>
       <c r="H267" s="4"/>
@@ -12385,15 +12593,17 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E268" s="2"/>
+      <c r="E268" s="2" t="s">
+        <v>945</v>
+      </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="4"/>
@@ -12408,16 +12618,16 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -12433,16 +12643,16 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -12458,15 +12668,17 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="4"/>
@@ -12481,16 +12693,16 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -12506,15 +12718,17 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E273" s="2"/>
+      <c r="E273" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="4"/>
@@ -12529,16 +12743,16 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -12554,16 +12768,16 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E275" s="0" t="s">
-        <v>961</v>
+      <c r="E275" s="1" t="s">
+        <v>966</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -12581,15 +12795,17 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E276" s="2"/>
+      <c r="E276" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="4"/>
@@ -12604,15 +12820,17 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E277" s="2"/>
+      <c r="E277" s="2" t="s">
+        <v>972</v>
+      </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="4"/>
@@ -12625,15 +12843,17 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="4"/>
@@ -12648,15 +12868,17 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E279" s="2"/>
+      <c r="E279" s="2" t="s">
+        <v>978</v>
+      </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="4"/>
@@ -12669,15 +12891,17 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E280" s="2"/>
+      <c r="E280" s="2" t="s">
+        <v>981</v>
+      </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="4"/>
@@ -12690,15 +12914,17 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>984</v>
+      </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="4"/>
@@ -12713,15 +12939,17 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E282" s="2"/>
+      <c r="E282" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="4" t="s">
@@ -12736,15 +12964,17 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E283" s="2"/>
+      <c r="E283" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="4"/>
@@ -12759,16 +12989,16 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -12786,15 +13016,17 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>996</v>
+      </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="4"/>
@@ -12809,16 +13041,16 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -12832,16 +13064,16 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -12855,15 +13087,17 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E288" s="2"/>
+      <c r="E288" s="2" t="s">
+        <v>1005</v>
+      </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="4" t="s">
@@ -12880,16 +13114,16 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -12905,15 +13139,17 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="2" t="s">
+        <v>1011</v>
+      </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="4"/>
@@ -12928,15 +13164,17 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E291" s="2"/>
+      <c r="E291" s="2" t="s">
+        <v>1014</v>
+      </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="4"/>
@@ -12951,16 +13189,16 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -12976,16 +13214,16 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -13001,15 +13239,17 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E294" s="2"/>
+      <c r="E294" s="2" t="s">
+        <v>1023</v>
+      </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="4"/>
@@ -13024,15 +13264,17 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E295" s="2"/>
+      <c r="E295" s="2" t="s">
+        <v>1026</v>
+      </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="4" t="s">
@@ -13049,15 +13291,17 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E296" s="2"/>
+      <c r="E296" s="2" t="s">
+        <v>1029</v>
+      </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="4"/>
@@ -13074,15 +13318,17 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E297" s="2"/>
+      <c r="E297" s="2" t="s">
+        <v>1032</v>
+      </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="4"/>
@@ -13097,15 +13343,17 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E298" s="2"/>
+      <c r="E298" s="2" t="s">
+        <v>1035</v>
+      </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="4"/>
@@ -13118,16 +13366,16 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -13141,15 +13389,17 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E300" s="2"/>
+      <c r="E300" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
       <c r="H300" s="4"/>
@@ -13162,15 +13412,17 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E301" s="2"/>
+      <c r="E301" s="2" t="s">
+        <v>1043</v>
+      </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
       <c r="H301" s="4"/>
@@ -13183,15 +13435,17 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E302" s="2"/>
+      <c r="E302" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
       <c r="H302" s="4"/>
@@ -13204,15 +13458,17 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1022</v>
+        <v>1047</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1023</v>
+        <v>1048</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E303" s="2"/>
+      <c r="E303" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
       <c r="H303" s="4"/>
@@ -13225,15 +13481,17 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1024</v>
+        <v>1050</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1025</v>
+        <v>1051</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E304" s="2"/>
+      <c r="E304" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
       <c r="H304" s="4"/>
@@ -13246,15 +13504,17 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>1055</v>
+      </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="4"/>
@@ -13269,19 +13529,19 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="4"/>
@@ -13294,15 +13554,17 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E307" s="2"/>
+      <c r="E307" s="2" t="s">
+        <v>1062</v>
+      </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="4"/>
@@ -13315,15 +13577,17 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1034</v>
+        <v>1063</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1035</v>
+        <v>1064</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E308" s="2"/>
+      <c r="E308" s="2" t="s">
+        <v>1065</v>
+      </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="4"/>
@@ -13336,15 +13600,17 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1036</v>
+        <v>1066</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1037</v>
+        <v>1067</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E309" s="2"/>
+      <c r="E309" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="4"/>
@@ -13359,16 +13625,16 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1038</v>
+        <v>1069</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1039</v>
+        <v>1070</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1040</v>
+        <v>1071</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -13384,15 +13650,17 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1041</v>
+        <v>1072</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1042</v>
+        <v>1073</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E311" s="2"/>
+      <c r="E311" s="2" t="s">
+        <v>1074</v>
+      </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="4"/>
@@ -13405,15 +13673,17 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E312" s="2"/>
+      <c r="E312" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
       <c r="H312" s="4"/>
@@ -13426,15 +13696,17 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E313" s="2"/>
+      <c r="E313" s="2" t="s">
+        <v>1080</v>
+      </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
       <c r="H313" s="4" t="s">
@@ -13449,16 +13721,16 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1047</v>
+        <v>1081</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1048</v>
+        <v>1082</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1049</v>
+        <v>1083</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -13472,15 +13744,17 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1050</v>
+        <v>1084</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1051</v>
+        <v>1085</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E315" s="2"/>
+      <c r="E315" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="4"/>
@@ -13493,15 +13767,17 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1052</v>
+        <v>1087</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1053</v>
+        <v>1088</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E316" s="2"/>
+      <c r="E316" s="2" t="s">
+        <v>1089</v>
+      </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
       <c r="H316" s="4"/>
@@ -13516,15 +13792,17 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1054</v>
+        <v>1090</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E317" s="2"/>
+      <c r="E317" s="2" t="s">
+        <v>1092</v>
+      </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="4"/>
@@ -13537,15 +13815,17 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1056</v>
+        <v>1093</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1057</v>
+        <v>1094</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E318" s="2"/>
+      <c r="E318" s="2" t="s">
+        <v>1095</v>
+      </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="4"/>
@@ -13562,16 +13842,16 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -13591,15 +13871,17 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1062</v>
+        <v>1100</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E320" s="2"/>
+      <c r="E320" s="2" t="s">
+        <v>1101</v>
+      </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="4"/>
@@ -13616,15 +13898,17 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1063</v>
+        <v>1102</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1064</v>
+        <v>1103</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E321" s="2"/>
+      <c r="E321" s="2" t="s">
+        <v>1104</v>
+      </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="4"/>
@@ -13637,16 +13921,16 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1066</v>
+        <v>1106</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1067</v>
+        <v>1107</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -13662,15 +13946,17 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1069</v>
+        <v>1109</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E323" s="2"/>
+      <c r="E323" s="2" t="s">
+        <v>1110</v>
+      </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
       <c r="H323" s="4"/>
@@ -13683,15 +13969,17 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1070</v>
+        <v>1111</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1071</v>
+        <v>1112</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E324" s="2"/>
+      <c r="E324" s="2" t="s">
+        <v>1113</v>
+      </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="4" t="s">
@@ -13708,16 +13996,16 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1072</v>
+        <v>1114</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1073</v>
+        <v>1115</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>1074</v>
+        <v>1116</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -13735,16 +14023,16 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1075</v>
+        <v>1117</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1076</v>
+        <v>1118</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1077</v>
+        <v>1119</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -13758,15 +14046,17 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1078</v>
+        <v>1120</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1079</v>
+        <v>1121</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E327" s="2"/>
+      <c r="E327" s="2" t="s">
+        <v>1122</v>
+      </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="4"/>
@@ -13779,16 +14069,16 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1080</v>
+        <v>1123</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1081</v>
+        <v>1124</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -13802,16 +14092,16 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1083</v>
+        <v>1126</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1084</v>
+        <v>1127</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1085</v>
+        <v>1128</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -13829,15 +14119,17 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1087</v>
+        <v>1130</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E330" s="2"/>
+      <c r="E330" s="2" t="s">
+        <v>1131</v>
+      </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="4" t="s">
@@ -13854,15 +14146,17 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1088</v>
+        <v>1132</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1089</v>
+        <v>1133</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E331" s="2"/>
+      <c r="E331" s="2" t="s">
+        <v>1134</v>
+      </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="4" t="s">
@@ -13879,15 +14173,17 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1090</v>
+        <v>1135</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1091</v>
+        <v>1136</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E332" s="2"/>
+      <c r="E332" s="2" t="s">
+        <v>1137</v>
+      </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
       <c r="H332" s="4" t="s">
@@ -13904,15 +14200,17 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1092</v>
+        <v>1138</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1093</v>
+        <v>1139</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E333" s="2"/>
+      <c r="E333" s="2" t="s">
+        <v>1140</v>
+      </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
       <c r="H333" s="4" t="s">
@@ -13929,15 +14227,17 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1095</v>
+        <v>1142</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E334" s="2"/>
+      <c r="E334" s="2" t="s">
+        <v>1143</v>
+      </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
       <c r="H334" s="4"/>
@@ -13950,15 +14250,17 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1096</v>
+        <v>1144</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1097</v>
+        <v>1145</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E335" s="2"/>
+      <c r="E335" s="2" t="s">
+        <v>1146</v>
+      </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="4" t="s">
@@ -13973,15 +14275,17 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1098</v>
+        <v>1147</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1099</v>
+        <v>1148</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E336" s="2"/>
+      <c r="E336" s="2" t="s">
+        <v>1149</v>
+      </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="4"/>
@@ -13996,15 +14300,17 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1101</v>
+        <v>1151</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E337" s="2"/>
+      <c r="E337" s="2" t="s">
+        <v>1152</v>
+      </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="4"/>
@@ -14019,15 +14325,17 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1102</v>
+        <v>1153</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1103</v>
+        <v>1154</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E338" s="2"/>
+      <c r="E338" s="2" t="s">
+        <v>1155</v>
+      </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="4"/>
@@ -14042,15 +14350,17 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1104</v>
+        <v>1156</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1105</v>
+        <v>1157</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E339" s="2"/>
+      <c r="E339" s="2" t="s">
+        <v>1158</v>
+      </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
       <c r="H339" s="4"/>
@@ -14063,16 +14373,16 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1106</v>
+        <v>1159</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1107</v>
+        <v>1160</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>1108</v>
+        <v>1161</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -14090,16 +14400,16 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1109</v>
+        <v>1162</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1110</v>
+        <v>1163</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1111</v>
+        <v>1164</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -14115,15 +14425,17 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1112</v>
+        <v>1165</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1113</v>
+        <v>1166</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E342" s="2"/>
+      <c r="E342" s="2" t="s">
+        <v>1167</v>
+      </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
       <c r="H342" s="4"/>
@@ -14138,15 +14450,17 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1114</v>
+        <v>1168</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1115</v>
+        <v>1169</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E343" s="2"/>
+      <c r="E343" s="2" t="s">
+        <v>1170</v>
+      </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
       <c r="H343" s="4"/>
@@ -14159,15 +14473,17 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1116</v>
+        <v>1171</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1117</v>
+        <v>1172</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E344" s="2"/>
+      <c r="E344" s="2" t="s">
+        <v>1173</v>
+      </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" s="4"/>
@@ -14180,15 +14496,17 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1118</v>
+        <v>1174</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1119</v>
+        <v>1175</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E345" s="2"/>
+      <c r="E345" s="2" t="s">
+        <v>1176</v>
+      </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
       <c r="H345" s="4"/>
@@ -14201,15 +14519,17 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1120</v>
+        <v>1177</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1121</v>
+        <v>1178</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E346" s="2"/>
+      <c r="E346" s="2" t="s">
+        <v>1179</v>
+      </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
       <c r="H346" s="4"/>
@@ -14222,15 +14542,17 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1123</v>
+        <v>1181</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E347" s="2"/>
+      <c r="E347" s="2" t="s">
+        <v>1182</v>
+      </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
       <c r="H347" s="4" t="s">
@@ -14247,15 +14569,17 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1124</v>
+        <v>1183</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1125</v>
+        <v>1184</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E348" s="2"/>
+      <c r="E348" s="2" t="s">
+        <v>1185</v>
+      </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
       <c r="H348" s="4"/>
@@ -14270,15 +14594,17 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1126</v>
+        <v>1186</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1127</v>
+        <v>1187</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E349" s="2"/>
+      <c r="E349" s="2" t="s">
+        <v>1188</v>
+      </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="4" t="s">
@@ -14297,15 +14623,17 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E350" s="2"/>
+      <c r="E350" s="2" t="s">
+        <v>1191</v>
+      </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="4"/>
@@ -14318,15 +14646,17 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1130</v>
+        <v>1192</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1131</v>
+        <v>1193</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E351" s="2"/>
+      <c r="E351" s="2" t="s">
+        <v>1194</v>
+      </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="4" t="s">
@@ -14341,15 +14671,17 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1132</v>
+        <v>1195</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1133</v>
+        <v>1196</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E352" s="2"/>
+      <c r="E352" s="2" t="s">
+        <v>1197</v>
+      </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" s="4"/>
@@ -14362,15 +14694,17 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1134</v>
+        <v>1198</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1135</v>
+        <v>1199</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E353" s="2"/>
+      <c r="E353" s="2" t="s">
+        <v>1200</v>
+      </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="4" t="s">
@@ -14389,15 +14723,17 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1136</v>
+        <v>1201</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1137</v>
+        <v>1202</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E354" s="2"/>
+      <c r="E354" s="2" t="s">
+        <v>1203</v>
+      </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
       <c r="H354" s="4" t="s">
@@ -14414,16 +14750,16 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1138</v>
+        <v>1204</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1139</v>
+        <v>1205</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>928</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1140</v>
+        <v>1206</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -14441,15 +14777,17 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1141</v>
+        <v>1207</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1142</v>
+        <v>1208</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E356" s="2"/>
+      <c r="E356" s="2" t="s">
+        <v>1209</v>
+      </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="4" t="s">
@@ -14466,15 +14804,17 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1143</v>
+        <v>1210</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1144</v>
+        <v>1211</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E357" s="2"/>
+      <c r="E357" s="2" t="s">
+        <v>1212</v>
+      </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
       <c r="H357" s="4" t="s">
@@ -14489,13 +14829,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1145</v>
+        <v>1213</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1146</v>
+        <v>1214</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14503,13 +14843,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1149</v>
+        <v>1217</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14517,13 +14857,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1150</v>
+        <v>1218</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1151</v>
+        <v>1219</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14531,13 +14871,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1152</v>
+        <v>1220</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1153</v>
+        <v>1221</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14545,13 +14885,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1154</v>
+        <v>1222</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1155</v>
+        <v>1223</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14559,13 +14899,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1156</v>
+        <v>1224</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1157</v>
+        <v>1225</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14573,13 +14913,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1158</v>
+        <v>1226</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1159</v>
+        <v>1227</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14587,13 +14927,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1160</v>
+        <v>1228</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1161</v>
+        <v>1229</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,16 +14941,16 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1162</v>
+        <v>1230</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1163</v>
+        <v>1231</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1164</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14618,13 +14958,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1165</v>
+        <v>1233</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1166</v>
+        <v>1234</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14632,13 +14972,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1167</v>
+        <v>1235</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1168</v>
+        <v>1236</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14646,13 +14986,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1169</v>
+        <v>1237</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1170</v>
+        <v>1238</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14660,13 +15000,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1171</v>
+        <v>1239</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1172</v>
+        <v>1240</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14674,13 +15014,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1173</v>
+        <v>1241</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1174</v>
+        <v>1242</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14688,13 +15028,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1175</v>
+        <v>1243</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1176</v>
+        <v>1244</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14702,13 +15042,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1177</v>
+        <v>1245</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1178</v>
+        <v>1246</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14716,13 +15056,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1179</v>
+        <v>1247</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1180</v>
+        <v>1248</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14730,13 +15070,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1181</v>
+        <v>1249</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1182</v>
+        <v>1250</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14744,13 +15084,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1183</v>
+        <v>1251</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1184</v>
+        <v>1252</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14758,13 +15098,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1185</v>
+        <v>1253</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1186</v>
+        <v>1254</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14772,13 +15112,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1187</v>
+        <v>1255</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1188</v>
+        <v>1256</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14786,13 +15126,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1189</v>
+        <v>1257</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1190</v>
+        <v>1258</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14800,13 +15140,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1191</v>
+        <v>1259</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1192</v>
+        <v>1260</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14814,13 +15154,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1193</v>
+        <v>1261</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1194</v>
+        <v>1262</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14828,19 +15168,19 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1195</v>
+        <v>1263</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1196</v>
+        <v>1264</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1197</v>
+        <v>1265</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1198</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14848,13 +15188,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1199</v>
+        <v>1267</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14862,13 +15202,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1201</v>
+        <v>1269</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1202</v>
+        <v>1270</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14876,13 +15216,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1204</v>
+        <v>1272</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,13 +15230,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1205</v>
+        <v>1273</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1206</v>
+        <v>1274</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14904,13 +15244,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1207</v>
+        <v>1275</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1208</v>
+        <v>1276</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14918,13 +15258,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1209</v>
+        <v>1277</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1210</v>
+        <v>1278</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14932,13 +15272,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1211</v>
+        <v>1279</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1212</v>
+        <v>1280</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14946,13 +15286,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1213</v>
+        <v>1281</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1214</v>
+        <v>1282</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14960,13 +15300,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D391" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14974,13 +15314,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1217</v>
+        <v>1285</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1218</v>
+        <v>1286</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,19 +15328,19 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1219</v>
+        <v>1287</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1220</v>
+        <v>1288</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1221</v>
+        <v>1289</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1222</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15008,13 +15348,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1223</v>
+        <v>1291</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1224</v>
+        <v>1292</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15022,13 +15362,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1225</v>
+        <v>1293</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1226</v>
+        <v>1294</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15036,13 +15376,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1227</v>
+        <v>1295</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1228</v>
+        <v>1296</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15050,13 +15390,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1229</v>
+        <v>1297</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1230</v>
+        <v>1298</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15064,13 +15404,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1231</v>
+        <v>1299</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1232</v>
+        <v>1300</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15078,13 +15418,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1233</v>
+        <v>1301</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1234</v>
+        <v>1302</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15092,13 +15432,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1235</v>
+        <v>1303</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1236</v>
+        <v>1304</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15106,13 +15446,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1237</v>
+        <v>1305</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1238</v>
+        <v>1306</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15120,13 +15460,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1239</v>
+        <v>1307</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1240</v>
+        <v>1308</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15134,13 +15474,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1241</v>
+        <v>1309</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1242</v>
+        <v>1310</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15148,13 +15488,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1243</v>
+        <v>1311</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1244</v>
+        <v>1312</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15162,13 +15502,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1245</v>
+        <v>1313</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1246</v>
+        <v>1314</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15176,13 +15516,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1247</v>
+        <v>1315</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1248</v>
+        <v>1316</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15190,13 +15530,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1249</v>
+        <v>1317</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1250</v>
+        <v>1318</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,13 +15544,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1251</v>
+        <v>1319</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1252</v>
+        <v>1320</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15218,13 +15558,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1253</v>
+        <v>1321</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1254</v>
+        <v>1322</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15232,13 +15572,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1255</v>
+        <v>1323</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1256</v>
+        <v>1324</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15246,13 +15586,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1257</v>
+        <v>1325</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1258</v>
+        <v>1326</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15260,13 +15600,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1259</v>
+        <v>1327</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1260</v>
+        <v>1328</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,13 +15614,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1261</v>
+        <v>1329</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1262</v>
+        <v>1330</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15288,13 +15628,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1263</v>
+        <v>1331</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1264</v>
+        <v>1332</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15302,13 +15642,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1265</v>
+        <v>1333</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1266</v>
+        <v>1334</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15316,13 +15656,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1267</v>
+        <v>1335</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1268</v>
+        <v>1336</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15330,13 +15670,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1269</v>
+        <v>1337</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1270</v>
+        <v>1338</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15344,13 +15684,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1271</v>
+        <v>1339</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1272</v>
+        <v>1340</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15358,13 +15698,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1273</v>
+        <v>1341</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1274</v>
+        <v>1342</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15372,13 +15712,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1276</v>
+        <v>1344</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15386,13 +15726,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1277</v>
+        <v>1345</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15400,13 +15740,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1279</v>
+        <v>1347</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1280</v>
+        <v>1348</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15414,13 +15754,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1281</v>
+        <v>1349</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1282</v>
+        <v>1350</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15428,13 +15768,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1283</v>
+        <v>1351</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1284</v>
+        <v>1352</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15442,13 +15782,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1285</v>
+        <v>1353</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1286</v>
+        <v>1354</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15456,13 +15796,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1287</v>
+        <v>1355</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1288</v>
+        <v>1356</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15470,13 +15810,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1289</v>
+        <v>1357</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1290</v>
+        <v>1358</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15484,13 +15824,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1291</v>
+        <v>1359</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1292</v>
+        <v>1360</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15498,13 +15838,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1293</v>
+        <v>1361</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1294</v>
+        <v>1362</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15512,13 +15852,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1295</v>
+        <v>1363</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1296</v>
+        <v>1364</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15526,13 +15866,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1297</v>
+        <v>1365</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1298</v>
+        <v>1366</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15540,13 +15880,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1299</v>
+        <v>1367</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1300</v>
+        <v>1368</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15554,13 +15894,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1301</v>
+        <v>1369</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1302</v>
+        <v>1370</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15568,13 +15908,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1303</v>
+        <v>1371</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1304</v>
+        <v>1372</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15582,13 +15922,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1305</v>
+        <v>1373</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15596,13 +15936,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1307</v>
+        <v>1375</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1308</v>
+        <v>1376</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15610,13 +15950,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1309</v>
+        <v>1377</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1310</v>
+        <v>1378</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15624,13 +15964,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1311</v>
+        <v>1379</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1312</v>
+        <v>1380</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15638,13 +15978,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1313</v>
+        <v>1381</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1314</v>
+        <v>1382</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15652,13 +15992,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1315</v>
+        <v>1383</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1316</v>
+        <v>1384</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15666,13 +16006,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1317</v>
+        <v>1385</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1318</v>
+        <v>1386</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15680,13 +16020,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1319</v>
+        <v>1387</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1320</v>
+        <v>1388</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15694,13 +16034,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1321</v>
+        <v>1389</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1322</v>
+        <v>1390</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15708,13 +16048,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1323</v>
+        <v>1391</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1324</v>
+        <v>1392</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15722,13 +16062,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1325</v>
+        <v>1393</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1326</v>
+        <v>1394</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15736,13 +16076,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1327</v>
+        <v>1395</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1328</v>
+        <v>1396</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15750,19 +16090,16 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1329</v>
+        <v>1397</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1330</v>
+        <v>1398</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E263" r:id="rId1" display="Abbotts gent "/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15771,7 +16108,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15814,16 +16151,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1331</v>
+        <v>1399</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1332</v>
+        <v>1400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1333</v>
+        <v>1401</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1334</v>
+        <v>1402</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -15840,16 +16177,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1335</v>
+        <v>1403</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1336</v>
+        <v>1404</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1337</v>
+        <v>1405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1338</v>
+        <v>1406</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -15858,20 +16195,20 @@
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1339</v>
+        <v>1407</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1340</v>
+        <v>1408</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1341</v>
+        <v>1409</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>1342</v>
+        <v>1410</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -15880,22 +16217,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1343</v>
+        <v>1411</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1344</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1345</v>
+        <v>1413</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1346</v>
+        <v>1414</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1347</v>
+        <v>1415</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -15904,20 +16241,20 @@
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1348</v>
+        <v>1416</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1349</v>
+        <v>1417</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1350</v>
+        <v>1418</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1351</v>
+        <v>1419</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -15926,20 +16263,20 @@
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1352</v>
+        <v>1420</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1353</v>
+        <v>1421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1354</v>
+        <v>1422</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -15948,22 +16285,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1356</v>
+        <v>1424</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1357</v>
+        <v>1425</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1358</v>
+        <v>1426</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1359</v>
+        <v>1427</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1360</v>
+        <v>1428</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -15972,20 +16309,20 @@
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1361</v>
+        <v>1429</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1362</v>
+        <v>1430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1363</v>
+        <v>1431</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>1364</v>
+        <v>1432</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -16000,16 +16337,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1365</v>
+        <v>1433</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1366</v>
+        <v>1434</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1367</v>
+        <v>1435</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1368</v>
+        <v>1436</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -16018,20 +16355,20 @@
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1369</v>
+        <v>1437</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1370</v>
+        <v>1438</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1371</v>
+        <v>1439</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>1372</v>
+        <v>1440</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -16040,20 +16377,20 @@
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1373</v>
+        <v>1441</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1374</v>
+        <v>1442</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>1376</v>
+        <v>1444</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -16062,22 +16399,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1377</v>
+        <v>1445</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1378</v>
+        <v>1446</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1379</v>
+        <v>1447</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1380</v>
+        <v>1448</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -16086,22 +16423,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1381</v>
+        <v>1449</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1382</v>
+        <v>1450</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1383</v>
+        <v>1451</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1384</v>
+        <v>1452</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1385</v>
+        <v>1453</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -16110,22 +16447,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1386</v>
+        <v>1454</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1387</v>
+        <v>1455</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1388</v>
+        <v>1456</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1389</v>
+        <v>1457</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1390</v>
+        <v>1458</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -16134,20 +16471,20 @@
         <v>1013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1391</v>
+        <v>1459</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1392</v>
+        <v>1460</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1393</v>
+        <v>1461</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -16156,22 +16493,22 @@
         <v>1014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1394</v>
+        <v>1462</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1395</v>
+        <v>1463</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1396</v>
+        <v>1464</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1397</v>
+        <v>1465</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1398</v>
+        <v>1466</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -16180,22 +16517,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1399</v>
+        <v>1467</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1400</v>
+        <v>1468</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1401</v>
+        <v>1469</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1402</v>
+        <v>1470</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -16204,20 +16541,20 @@
         <v>1016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1403</v>
+        <v>1471</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1404</v>
+        <v>1472</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1405</v>
+        <v>1473</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>1406</v>
+        <v>1474</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -16232,16 +16569,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1407</v>
+        <v>1475</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1408</v>
+        <v>1476</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1409</v>
+        <v>1477</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -16250,20 +16587,20 @@
         <v>1018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1410</v>
+        <v>1478</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1411</v>
+        <v>1479</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1412</v>
+        <v>1480</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>1413</v>
+        <v>1481</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -16272,22 +16609,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1414</v>
+        <v>1482</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1415</v>
+        <v>1483</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1416</v>
+        <v>1484</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1417</v>
+        <v>1485</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1385</v>
+        <v>1453</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -16296,22 +16633,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1418</v>
+        <v>1486</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1419</v>
+        <v>1487</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1420</v>
+        <v>1488</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1421</v>
+        <v>1489</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -16320,20 +16657,20 @@
         <v>1021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1422</v>
+        <v>1490</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1423</v>
+        <v>1491</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1424</v>
+        <v>1492</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>1425</v>
+        <v>1493</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -16342,20 +16679,20 @@
         <v>1022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1426</v>
+        <v>1494</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1427</v>
+        <v>1495</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1428</v>
+        <v>1496</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>1413</v>
+        <v>1481</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -16370,16 +16707,16 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1429</v>
+        <v>1497</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1430</v>
+        <v>1498</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1431</v>
+        <v>1499</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1413</v>
+        <v>1481</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -16388,22 +16725,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1432</v>
+        <v>1500</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1433</v>
+        <v>1501</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1434</v>
+        <v>1502</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1435</v>
+        <v>1503</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1385</v>
+        <v>1453</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -16412,20 +16749,20 @@
         <v>1025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1436</v>
+        <v>1504</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1437</v>
+        <v>1505</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1438</v>
+        <v>1506</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>1398</v>
+        <v>1466</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -16434,22 +16771,22 @@
         <v>1026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1439</v>
+        <v>1507</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1440</v>
+        <v>1508</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1441</v>
+        <v>1509</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1442</v>
+        <v>1510</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1355</v>
+        <v>1423</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -16458,20 +16795,20 @@
         <v>1027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1443</v>
+        <v>1511</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1444</v>
+        <v>1512</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1445</v>
+        <v>1513</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>1446</v>
+        <v>1514</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -16480,22 +16817,22 @@
         <v>1028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1447</v>
+        <v>1515</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1448</v>
+        <v>1516</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1449</v>
+        <v>1517</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1450</v>
+        <v>1518</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1338</v>
+        <v>1406</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -16504,20 +16841,20 @@
         <v>1029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1451</v>
+        <v>1519</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1452</v>
+        <v>1520</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1453</v>
+        <v>1521</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>1454</v>
+        <v>1522</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -16526,22 +16863,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1455</v>
+        <v>1523</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1456</v>
+        <v>1524</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1457</v>
+        <v>1525</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1458</v>
+        <v>1526</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1385</v>
+        <v>1453</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -16550,19 +16887,19 @@
         <v>1032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1459</v>
+        <v>1527</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1460</v>
+        <v>1528</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1461</v>
+        <v>1529</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1462</v>
+        <v>1530</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -16572,19 +16909,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1463</v>
+        <v>1531</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1464</v>
+        <v>1532</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1465</v>
+        <v>1533</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1466</v>
+        <v>1534</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -16594,20 +16931,20 @@
         <v>1034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1467</v>
+        <v>1535</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1468</v>
+        <v>1536</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1469</v>
+        <v>1537</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="8" t="s">
-        <v>1470</v>
+        <v>1538</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -16616,18 +16953,18 @@
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1471</v>
+        <v>1539</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>1472</v>
+        <v>1540</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="8" t="s">
-        <v>1470</v>
+        <v>1538</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -16636,22 +16973,22 @@
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1473</v>
+        <v>1541</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1474</v>
+        <v>1542</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1475</v>
+        <v>1543</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1476</v>
+        <v>1544</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1477</v>
+        <v>1545</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -16660,22 +16997,22 @@
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1478</v>
+        <v>1546</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1479</v>
+        <v>1547</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1480</v>
+        <v>1548</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1481</v>
+        <v>1549</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1482</v>
+        <v>1550</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -16684,18 +17021,18 @@
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1483</v>
+        <v>1551</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>1484</v>
+        <v>1552</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="8" t="s">
-        <v>1470</v>
+        <v>1538</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -16704,10 +17041,10 @@
         <v>1039</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1485</v>
+        <v>1553</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16715,10 +17052,10 @@
         <v>1040</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1486</v>
+        <v>1554</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16726,10 +17063,10 @@
         <v>1041</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16737,10 +17074,10 @@
         <v>1042</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1488</v>
+        <v>1556</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16748,10 +17085,10 @@
         <v>1043</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1489</v>
+        <v>1557</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16759,10 +17096,10 @@
         <v>1044</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1490</v>
+        <v>1558</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16770,10 +17107,10 @@
         <v>1045</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1491</v>
+        <v>1559</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,10 +17118,10 @@
         <v>1046</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1492</v>
+        <v>1560</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16792,10 +17129,10 @@
         <v>1047</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1493</v>
+        <v>1561</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16803,10 +17140,10 @@
         <v>1048</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1494</v>
+        <v>1562</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16814,10 +17151,10 @@
         <v>1049</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1495</v>
+        <v>1563</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16825,10 +17162,10 @@
         <v>1050</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1496</v>
+        <v>1564</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16836,10 +17173,10 @@
         <v>1051</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1497</v>
+        <v>1565</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -16892,13 +17229,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1331</v>
+        <v>1399</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>1332</v>
+        <v>1400</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>1498</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16906,7 +17243,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1499</v>
+        <v>1567</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
@@ -16920,7 +17257,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1500</v>
+        <v>1568</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
@@ -16934,7 +17271,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1501</v>
+        <v>1569</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
@@ -16948,7 +17285,7 @@
         <v>2013</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1502</v>
+        <v>1570</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -16962,7 +17299,7 @@
         <v>2014</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1503</v>
+        <v>1571</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
@@ -16976,7 +17313,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1504</v>
+        <v>1572</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -16990,7 +17327,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1505</v>
+        <v>1573</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
@@ -17004,7 +17341,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1506</v>
+        <v>1574</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
@@ -17018,7 +17355,7 @@
         <v>2021</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1507</v>
+        <v>1575</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
@@ -17032,7 +17369,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1508</v>
+        <v>1576</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
@@ -17046,7 +17383,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1509</v>
+        <v>1577</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
@@ -17060,7 +17397,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1510</v>
+        <v>1578</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
@@ -17074,7 +17411,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1511</v>
+        <v>1579</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
@@ -17088,7 +17425,7 @@
         <v>2016</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1512</v>
+        <v>1580</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -17102,7 +17439,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1513</v>
+        <v>1581</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
@@ -17116,7 +17453,7 @@
         <v>2024</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1514</v>
+        <v>1582</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
@@ -17130,7 +17467,7 @@
         <v>2020</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1515</v>
+        <v>1583</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>78</v>
@@ -17144,7 +17481,7 @@
         <v>2003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1516</v>
+        <v>1584</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>78</v>
@@ -17158,7 +17495,7 @@
         <v>2004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1517</v>
+        <v>1585</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>78</v>
@@ -17172,7 +17509,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1518</v>
+        <v>1586</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>78</v>
@@ -17186,7 +17523,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1519</v>
+        <v>1587</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>78</v>
@@ -17200,7 +17537,7 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1520</v>
+        <v>1588</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>78</v>
@@ -17214,7 +17551,7 @@
         <v>2009</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1521</v>
+        <v>1589</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>78</v>
@@ -17228,7 +17565,7 @@
         <v>2025</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1522</v>
+        <v>1590</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>78</v>
@@ -17242,7 +17579,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1523</v>
+        <v>1591</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>78</v>
@@ -17256,7 +17593,7 @@
         <v>2019</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1524</v>
+        <v>1592</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>78</v>
@@ -17270,14 +17607,14 @@
         <v>2031</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1525</v>
+        <v>1593</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="9" t="s">
-        <v>1526</v>
+        <v>1594</v>
       </c>
       <c r="F28" s="9"/>
     </row>
@@ -17286,14 +17623,14 @@
         <v>2030</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1527</v>
+        <v>1595</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
-        <v>1528</v>
+        <v>1596</v>
       </c>
       <c r="F29" s="9"/>
     </row>
@@ -17302,14 +17639,14 @@
         <v>2033</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1529</v>
+        <v>1597</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="11" t="s">
-        <v>1530</v>
+        <v>1598</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -17318,14 +17655,14 @@
         <v>2032</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1531</v>
+        <v>1599</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>1532</v>
+        <v>1600</v>
       </c>
       <c r="F31" s="9"/>
     </row>
@@ -17334,14 +17671,14 @@
         <v>2026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1533</v>
+        <v>1601</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>1534</v>
+        <v>1602</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -17350,13 +17687,13 @@
         <v>2027</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1535</v>
+        <v>1603</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>928</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1536</v>
+        <v>1604</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -17365,14 +17702,14 @@
         <v>2029</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1537</v>
+        <v>1605</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
-        <v>1538</v>
+        <v>1606</v>
       </c>
       <c r="F34" s="9"/>
     </row>
@@ -17381,14 +17718,14 @@
         <v>2028</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1539</v>
+        <v>1607</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="9" t="s">
-        <v>1540</v>
+        <v>1608</v>
       </c>
       <c r="F35" s="9"/>
     </row>
@@ -17397,10 +17734,10 @@
         <v>2043</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1541</v>
+        <v>1609</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -17411,10 +17748,10 @@
         <v>2040</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1542</v>
+        <v>1610</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -17425,10 +17762,10 @@
         <v>2035</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1543</v>
+        <v>1611</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -17439,10 +17776,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1544</v>
+        <v>1612</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -17453,10 +17790,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1545</v>
+        <v>1613</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -17467,10 +17804,10 @@
         <v>2044</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1546</v>
+        <v>1614</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -17481,10 +17818,10 @@
         <v>2036</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1547</v>
+        <v>1615</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -17495,10 +17832,10 @@
         <v>2034</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1548</v>
+        <v>1616</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -17509,10 +17846,10 @@
         <v>2037</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1549</v>
+        <v>1617</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -17523,10 +17860,10 @@
         <v>2038</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1550</v>
+        <v>1618</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -17537,10 +17874,10 @@
         <v>2039</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1551</v>
+        <v>1619</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -17551,10 +17888,10 @@
         <v>2045</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1552</v>
+        <v>1620</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1147</v>
+        <v>1215</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -17597,55 +17934,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1553</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1554</v>
+        <v>1622</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1555</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1556</v>
+        <v>1624</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1557</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1558</v>
+        <v>1626</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1559</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1560</v>
+        <v>1628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1561</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1562</v>
+        <v>1630</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1563</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1564</v>
+        <v>1632</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1565</v>
+        <v>1633</v>
       </c>
     </row>
   </sheetData>
@@ -17683,15 +18020,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1331</v>
+        <v>1399</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1566</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1567</v>
+        <v>1635</v>
       </c>
       <c r="B2" s="14" t="b">
         <f aca="false">FALSE()</f>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1636">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2819,216 +2819,327 @@
     <t xml:space="preserve">oceania</t>
   </si>
   <si>
+    <t xml:space="preserve">Abbotts gent </t>
+  </si>
+  <si>
     <t xml:space="preserve">Australasian Pipit</t>
   </si>
   <si>
     <t xml:space="preserve">Anthus novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Nieuw-Zeelandse Pieper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australasian Shoveler</t>
   </si>
   <si>
     <t xml:space="preserve">Spatula rhynchotis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische slobeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Ibis</t>
   </si>
   <si>
     <t xml:space="preserve">Threskiornis moluccus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische witte ibis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Magpie</t>
   </si>
   <si>
     <t xml:space="preserve">Gymnorhina tibicen</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwartrugfluitvogel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leg 1 [egg] af van elke vogel in deze rij en kolom die een [egg] heeft, met uitzondering van deze vogel. Voor elk afgelegd [egg] bewaar je 2 [seed] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Owlet-Nightjar</t>
   </si>
   <si>
     <t xml:space="preserve">Aegotheles cristatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische dwergnachtzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Raven</t>
   </si>
   <si>
     <t xml:space="preserve">Corvus coronoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische raaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Reed Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Acrocephalus australis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische karekiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Shelduck</t>
   </si>
   <si>
     <t xml:space="preserve">Tadorna tadornoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische bergeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australian Zebra Finch</t>
   </si>
   <si>
     <t xml:space="preserve">Taeniopygia castanotis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische zebravink</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Noddy</t>
   </si>
   <si>
     <t xml:space="preserve">Anous minutus</t>
   </si>
   <si>
+    <t xml:space="preserve">Witkapnoddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Swan</t>
   </si>
   <si>
     <t xml:space="preserve">Cygnus atratus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwarte Zwaan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black-Shouldered Kite</t>
   </si>
   <si>
     <t xml:space="preserve">Elanus axillaris</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische grijze wouw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blyth's Hornbill</t>
   </si>
   <si>
     <t xml:space="preserve">Rhyticeros plicatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Papoea-jaarvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brolga</t>
   </si>
   <si>
     <t xml:space="preserve">Antigone rubicunda</t>
   </si>
   <si>
+    <t xml:space="preserve">Brolgakraanvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brown Falcon</t>
   </si>
   <si>
     <t xml:space="preserve">Falco berigora</t>
   </si>
   <si>
+    <t xml:space="preserve">Grote bruine valk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budgerigar</t>
   </si>
   <si>
     <t xml:space="preserve">Melopsittacus undulatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Grasparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cockatiel</t>
   </si>
   <si>
     <t xml:space="preserve">Nymphicus hollandicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Valkparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count Raggi's Bird-of-Paradise</t>
   </si>
   <si>
     <t xml:space="preserve">Paradisaea raggiana</t>
   </si>
   <si>
+    <t xml:space="preserve">Raggi's paradijsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crested Pigeon</t>
   </si>
   <si>
     <t xml:space="preserve">Ocyphaps lophotes</t>
   </si>
   <si>
+    <t xml:space="preserve">Spitskuifduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crimson Chat</t>
   </si>
   <si>
     <t xml:space="preserve">Epthianura tricolor</t>
   </si>
   <si>
+    <t xml:space="preserve">Scharlaken schijnpaapje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eastern Rosella</t>
   </si>
   <si>
     <t xml:space="preserve">Platycercus eximius</t>
   </si>
   <si>
+    <t xml:space="preserve">Prachtrosella</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eastern Whipbird</t>
   </si>
   <si>
     <t xml:space="preserve">Psophodes olivaceus</t>
   </si>
   <si>
+    <t xml:space="preserve">Zwartkopzwiepfluiter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emu</t>
   </si>
   <si>
     <t xml:space="preserve">Dromaius novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Emoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Galah</t>
   </si>
   <si>
     <t xml:space="preserve">Eolophus roseicapilla</t>
   </si>
   <si>
+    <t xml:space="preserve">Roze kakatoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Golden-Headed Cisticola</t>
   </si>
   <si>
     <t xml:space="preserve">Cisticola exilis</t>
   </si>
   <si>
+    <t xml:space="preserve">Goudkopgraszanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gould's Finch</t>
   </si>
   <si>
     <t xml:space="preserve">Erythrura gouldiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Gouldamadine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Pygmy-Goose</t>
   </si>
   <si>
     <t xml:space="preserve">Nettapus pulchellus</t>
   </si>
   <si>
+    <t xml:space="preserve">Groene dwergeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Butcherbird</t>
   </si>
   <si>
     <t xml:space="preserve">Cracticus torquatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijsrugorgelvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Shrikethrush</t>
   </si>
   <si>
     <t xml:space="preserve">Colluricincla harmonica</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijze lijsterdikkop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Teal</t>
   </si>
   <si>
     <t xml:space="preserve">Anas gracilis</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische taling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Gerygone igata</t>
   </si>
   <si>
+    <t xml:space="preserve">Maorimangrovezanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grey-Headed Mannikin</t>
   </si>
   <si>
     <t xml:space="preserve">Lonchura caniceps</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijskopnon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horsfield's Bronze-Cuckoo</t>
   </si>
   <si>
     <t xml:space="preserve">Chrysococcyx basalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Horsfields bronskoekoek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horsfield's Bushlark</t>
   </si>
   <si>
     <t xml:space="preserve">Mirafra javanica</t>
   </si>
   <si>
+    <t xml:space="preserve">Oosterse struikleeuwerik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kākāpо̄</t>
   </si>
   <si>
     <t xml:space="preserve">Strigops habroptila</t>
   </si>
   <si>
+    <t xml:space="preserve">Kakapo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kea</t>
   </si>
   <si>
@@ -3041,348 +3152,525 @@
     <t xml:space="preserve">Larus dominicanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Kelpmeeuw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kererū</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiphaga novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Nieuw-Zeelandse vruchtenduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korimako</t>
   </si>
   <si>
     <t xml:space="preserve">Anthornis melanura</t>
   </si>
   <si>
+    <t xml:space="preserve">Maori-belhoningvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laughing Kookaburra</t>
   </si>
   <si>
     <t xml:space="preserve">Dacelo novaeguineae</t>
   </si>
   <si>
+    <t xml:space="preserve">Kookaburra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesser Frigatebird</t>
   </si>
   <si>
     <t xml:space="preserve">Fregata ariel</t>
   </si>
   <si>
+    <t xml:space="preserve">Kleine fregatvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lewin's Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Meliphaga lewinii</t>
   </si>
   <si>
+    <t xml:space="preserve">Geeloorhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Penguin</t>
   </si>
   <si>
     <t xml:space="preserve">Eudyptula minor</t>
   </si>
   <si>
+    <t xml:space="preserve">Dwergpinguïn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trek 5 [card] van de trekstapel en leg die af. Bewaar voor elke  [fish] in de voedselkosten ervan 1 [fish] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Pied Cormorant</t>
   </si>
   <si>
     <t xml:space="preserve">Microcarbo melanoleucos</t>
   </si>
   <si>
+    <t xml:space="preserve">Kleine bonte aalscholver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magpie-Lark</t>
   </si>
   <si>
     <t xml:space="preserve">Grallina cyanoleuca</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische slijkekster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Major Mitchell's Cockatoo</t>
   </si>
   <si>
     <t xml:space="preserve">Lophochroa leadbeateri</t>
   </si>
   <si>
+    <t xml:space="preserve">Inka-kaketoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malleefowl</t>
   </si>
   <si>
     <t xml:space="preserve">Leipoa ocellata</t>
   </si>
   <si>
+    <t xml:space="preserve">Thermometervogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maned Duck</t>
   </si>
   <si>
     <t xml:space="preserve">Chenonetta jubata</t>
   </si>
   <si>
+    <t xml:space="preserve">Manengans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Many-Colored Fruit Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Ptilinopus perousii</t>
   </si>
   <si>
+    <t xml:space="preserve">Regenboogjufferduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masked Lapwing</t>
   </si>
   <si>
     <t xml:space="preserve">Vanellus miles</t>
   </si>
   <si>
+    <t xml:space="preserve">Maskerkievit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mistletoebird</t>
   </si>
   <si>
     <t xml:space="preserve">Dicaeum hirundinaceum</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodstuithoningvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Musk Duck</t>
   </si>
   <si>
     <t xml:space="preserve">Biziura lobata</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische muskuseend</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Holland Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Phylidonyris novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Witooghoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Noisy Miner</t>
   </si>
   <si>
     <t xml:space="preserve">Manorina melanocephala</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuinhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Island Brown Kiwi</t>
   </si>
   <si>
     <t xml:space="preserve">Apteryx mantelli</t>
   </si>
   <si>
+    <t xml:space="preserve">Noordereilandkiwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orange-Footed Scrubfowl</t>
   </si>
   <si>
     <t xml:space="preserve">Megapodius reinwardt</t>
   </si>
   <si>
+    <t xml:space="preserve">Rood boshoen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pacific Black Duck</t>
   </si>
   <si>
     <t xml:space="preserve">Anas superciliosa</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenkbrauweend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peaceful Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Geopelia placida</t>
   </si>
   <si>
+    <t xml:space="preserve">Goulds zebraduif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pesquet's Parrot</t>
   </si>
   <si>
     <t xml:space="preserve">Psittrichas fulgidus</t>
   </si>
   <si>
+    <t xml:space="preserve">Borstelkoppapegaai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pheasant Coucal</t>
   </si>
   <si>
     <t xml:space="preserve">Centropus phasianinus</t>
   </si>
   <si>
+    <t xml:space="preserve">Fazantspoorkoekoek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pink-Eared Duck</t>
   </si>
   <si>
     <t xml:space="preserve">Malacorhynchus membranaceus</t>
   </si>
   <si>
+    <t xml:space="preserve">Lepelbekeend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plains-Wanderer</t>
   </si>
   <si>
     <t xml:space="preserve">Pedionomus torquatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Trapvechtkwartel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Princess Stephanie's Astrapia</t>
   </si>
   <si>
     <t xml:space="preserve">Astrapia stephaniae</t>
   </si>
   <si>
+    <t xml:space="preserve">Stephanie-astrapia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pūkeko</t>
   </si>
   <si>
     <t xml:space="preserve">Porphyrio melanotus</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische purperkoet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rainbow Lorikeet</t>
   </si>
   <si>
     <t xml:space="preserve">Trichoglossus moluccanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Lori van de Blauwe Bergen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red Wattlebird</t>
   </si>
   <si>
     <t xml:space="preserve">Anthochaera carunculata</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodlelhoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Backed Fairywren</t>
   </si>
   <si>
     <t xml:space="preserve">Malurus melanocephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodrugelfje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Capped Robin</t>
   </si>
   <si>
     <t xml:space="preserve">Petroica goodenovii</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodkapvliegenvanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Necked Avocet</t>
   </si>
   <si>
     <t xml:space="preserve">Recurvirostra novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Australische kluut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Winged Parrot</t>
   </si>
   <si>
     <t xml:space="preserve">Aprosmictus erythropterus</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodvleugelparkiet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regent Bowerbird</t>
   </si>
   <si>
     <t xml:space="preserve">Sericulus chrysocephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Geelnekprieelvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Royal Spoonbill</t>
   </si>
   <si>
     <t xml:space="preserve">Platalea regia</t>
   </si>
   <si>
+    <t xml:space="preserve">Koningslepelaar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous Night-Heron</t>
   </si>
   <si>
     <t xml:space="preserve">Nycticorax caledonicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosse kwak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Ninox rufa</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosse valkuil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rufous-Banded Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Conopophila albogularis</t>
   </si>
   <si>
+    <t xml:space="preserve">Roodborsthoningeter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sacred Kingfisher</t>
   </si>
   <si>
     <t xml:space="preserve">Todiramphus sanctus</t>
   </si>
   <si>
+    <t xml:space="preserve">Heilige ijsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silvereye</t>
   </si>
   <si>
     <t xml:space="preserve">Zosterops lateralis</t>
   </si>
   <si>
+    <t xml:space="preserve">Grijsrugbrilvogel </t>
+  </si>
+  <si>
     <t xml:space="preserve">South Island Robin</t>
   </si>
   <si>
     <t xml:space="preserve">Petroica australis</t>
   </si>
   <si>
+    <t xml:space="preserve">Zuidereilandvliegenvanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Southern Cassowary</t>
   </si>
   <si>
     <t xml:space="preserve">Casuarius casuarius</t>
   </si>
   <si>
+    <t xml:space="preserve">Helmkasuaris</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spangled Drongo</t>
   </si>
   <si>
     <t xml:space="preserve">Dicrurus bracteatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Glansvlekdrongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Splendid Fairywren</t>
   </si>
   <si>
     <t xml:space="preserve">Malurus splendens</t>
   </si>
   <si>
+    <t xml:space="preserve">Prachtelfje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spotless Crake</t>
   </si>
   <si>
     <t xml:space="preserve">Zapornia tabuensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Pacifisch porseleinhoen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stubble Quail</t>
   </si>
   <si>
     <t xml:space="preserve">Coturnix pectoralis</t>
   </si>
   <si>
+    <t xml:space="preserve">Stoppelveldkwartel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sulphur-Crested Cockatoo</t>
   </si>
   <si>
     <t xml:space="preserve">Cacatua galerita</t>
   </si>
   <si>
+    <t xml:space="preserve">Grote geelkuifkaketoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Superb Lyrebird</t>
   </si>
   <si>
     <t xml:space="preserve">Menura novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Liervogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tawny Frogmouth</t>
   </si>
   <si>
     <t xml:space="preserve">Podargus strigoides</t>
   </si>
   <si>
+    <t xml:space="preserve">Uilnachtzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tūī</t>
   </si>
   <si>
     <t xml:space="preserve">Prosthemadera novaeseelandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Toei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wedge-Tailed Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Aquila audax</t>
   </si>
   <si>
+    <t xml:space="preserve">Wigstaartarend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Welcome Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Hirundo neoxena</t>
   </si>
   <si>
+    <t xml:space="preserve">Welkomzwaluw</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Bellied Sea-Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Haliaeetus leucogaster</t>
   </si>
   <si>
+    <t xml:space="preserve">Witbuikzeearend</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Breasted Woodswallow</t>
   </si>
   <si>
     <t xml:space="preserve">Artamus leucoryn</t>
   </si>
   <si>
+    <t xml:space="preserve">Witborstspitsvogel</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Faced Heron</t>
   </si>
   <si>
     <t xml:space="preserve">Egretta novaehollandiae</t>
   </si>
   <si>
+    <t xml:space="preserve">Witwangreiger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Willie-Wagtail</t>
   </si>
   <si>
     <t xml:space="preserve">Rhipidura leucophrys</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuinwaaierstaart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrybill</t>
   </si>
   <si>
     <t xml:space="preserve">Anarhynchus frontalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Scheefsnavelplevier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asian Emerald Dove</t>
   </si>
   <si>
@@ -3440,6 +3728,9 @@
     <t xml:space="preserve">Monticola solitarius</t>
   </si>
   <si>
+    <t xml:space="preserve">Blauwe Rotslijster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brahminy Kite</t>
   </si>
   <si>
@@ -3536,6 +3827,12 @@
     <t xml:space="preserve">Bubo bubo</t>
   </si>
   <si>
+    <t xml:space="preserve">Oehoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trek ten hoogste 3 keer 1 [card] van de gedekte stapel. Als je stapt en de totale vleugelwijdte van de getrokken vogels is kleiner dan 110 cm, stop deze dan onder deze vogel weg. Zo niet, leg ze dan af.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eurasian Hoopoe</t>
   </si>
   <si>
@@ -3602,6 +3899,12 @@
     <t xml:space="preserve">Phalacrocorax carbo</t>
   </si>
   <si>
+    <t xml:space="preserve">Aalscholver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">je mag 1 [fish] van deze vogel naar je voorraad verplaatsen. Werp dan 2 [die] naar keuze. Werp je ten minste 1 [fish], bewaar dan 1 [fish] uit de voorraad op deze vogel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great Hornbill</t>
   </si>
   <si>
@@ -4337,18 +4640,116 @@
     <t xml:space="preserve">Forest Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Bosdata-Analist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [forest] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 opeenvolgende vogels: 3[point]; 4 opeenvolgende vogels: 5[point]; 5 opeenvolgende vogels: 8[point]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grassland Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [grassland] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mechanical Engineer</t>
   </si>
   <si>
+    <t xml:space="preserve">Werktuigbouwkundige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets van de 4 nestsoorten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 set = [bowl] [cavity] [ground] [platform]; 1 set: 3[point]; 2 of meer sets: 8[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elke nestjoker geldt als 1 nestsoort naar keuze. Een kaart kan geen onderdeel van meerdere sets zijn.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Site Selection Expert</t>
   </si>
   <si>
+    <t xml:space="preserve">Locatieonderzoeksexpert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolommen met 2 of 3 gelijke nesten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">gelijke nesten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in een kolom: 1[point]; 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">gelijke nesten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> in een kolom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 3[point]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschillende kolommen mogen (maar dat hoeft niet) verschillende nestsoorten tellen. Een nestjoker geldt als 1 nestsoort naar keuze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wetland Data Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Opeenvolgende vogels in [wetland] met oplopende of aflopende vleugelwijdten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avian Theriogenologist</t>
   </si>
   <si>
@@ -4472,27 +4873,118 @@
     <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">[invertebrate] in voedselkosten van je vogels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">[fruit] + [seed] in voedselkosten van je vogels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">[rodent] + [fish]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in voedselkosten van je vogels</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">No Goal</t>
   </si>
   <si>
+    <t xml:space="preserve">Geen doel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Left</t>
   </si>
   <si>
+    <t xml:space="preserve">Snavel wijst naar links</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Right</t>
   </si>
   <si>
+    <t xml:space="preserve">Snavel wijst naar rechts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cubes on "Play a Bird"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[cube] op </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Speel een vogel"</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[bird] die </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">≤3[point] waard zijn</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Pairs of Matching Symbols</t>
   </si>
   <si>
@@ -4557,6 +5049,9 @@
   </si>
   <si>
     <t xml:space="preserve">GAME END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EINDE SPEL</t>
   </si>
   <si>
     <t xml:space="preserve">of cards</t>
@@ -4581,7 +5076,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4608,11 +5103,25 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4657,7 +5166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4678,16 +5187,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4740,8 +5265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K357" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K357"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:K447"/>
   <tableColumns count="11">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
@@ -4897,12 +5422,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A288" activeCellId="0" sqref="A288"/>
+      <selection pane="bottomRight" activeCell="E318" activeCellId="0" sqref="E318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11949,7 +12474,9 @@
       <c r="D263" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E263" s="2"/>
+      <c r="E263" s="1" t="s">
+        <v>929</v>
+      </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="4"/>
@@ -11964,15 +12491,17 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E264" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>932</v>
+      </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="4"/>
@@ -11987,15 +12516,17 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E265" s="2"/>
+      <c r="E265" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="4"/>
@@ -12010,15 +12541,17 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E266" s="2"/>
+      <c r="E266" s="2" t="s">
+        <v>938</v>
+      </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="4"/>
@@ -12033,16 +12566,20 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
+      <c r="E267" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>942</v>
+      </c>
       <c r="G267" s="2"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4" t="s">
@@ -12056,15 +12593,17 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E268" s="2"/>
+      <c r="E268" s="2" t="s">
+        <v>945</v>
+      </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="4"/>
@@ -12079,15 +12618,17 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E269" s="2"/>
+      <c r="E269" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="4"/>
@@ -12102,15 +12643,17 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E270" s="2"/>
+      <c r="E270" s="2" t="s">
+        <v>951</v>
+      </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="4"/>
@@ -12125,15 +12668,17 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="4"/>
@@ -12148,15 +12693,17 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E272" s="2"/>
+      <c r="E272" s="2" t="s">
+        <v>957</v>
+      </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="4"/>
@@ -12171,15 +12718,17 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E273" s="2"/>
+      <c r="E273" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="4"/>
@@ -12194,15 +12743,17 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E274" s="2"/>
+      <c r="E274" s="2" t="s">
+        <v>963</v>
+      </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="4"/>
@@ -12217,15 +12768,17 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" s="1" t="s">
+        <v>966</v>
+      </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="4" t="s">
@@ -12242,15 +12795,17 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E276" s="2"/>
+      <c r="E276" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="4"/>
@@ -12265,15 +12820,17 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E277" s="2"/>
+      <c r="E277" s="2" t="s">
+        <v>972</v>
+      </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="4"/>
@@ -12286,15 +12843,17 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="4"/>
@@ -12309,15 +12868,17 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E279" s="2"/>
+      <c r="E279" s="2" t="s">
+        <v>978</v>
+      </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="4"/>
@@ -12330,15 +12891,17 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E280" s="2"/>
+      <c r="E280" s="2" t="s">
+        <v>981</v>
+      </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="4"/>
@@ -12351,15 +12914,17 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>984</v>
+      </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="4"/>
@@ -12374,15 +12939,17 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E282" s="2"/>
+      <c r="E282" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="4" t="s">
@@ -12397,15 +12964,17 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E283" s="2"/>
+      <c r="E283" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="4"/>
@@ -12420,15 +12989,17 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E284" s="2"/>
+      <c r="E284" s="2" t="s">
+        <v>993</v>
+      </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="4"/>
@@ -12445,15 +13016,17 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>971</v>
+        <v>994</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>996</v>
+      </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="4"/>
@@ -12468,15 +13041,17 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E286" s="2"/>
+      <c r="E286" s="2" t="s">
+        <v>999</v>
+      </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="4"/>
@@ -12489,15 +13064,17 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>976</v>
+        <v>1001</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E287" s="2"/>
+      <c r="E287" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="4"/>
@@ -12510,15 +13087,17 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>977</v>
+        <v>1003</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E288" s="2"/>
+      <c r="E288" s="2" t="s">
+        <v>1005</v>
+      </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="4" t="s">
@@ -12535,15 +13114,17 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E289" s="2"/>
+      <c r="E289" s="2" t="s">
+        <v>1008</v>
+      </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="4"/>
@@ -12558,15 +13139,17 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="2" t="s">
+        <v>1011</v>
+      </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="4"/>
@@ -12581,15 +13164,17 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E291" s="2"/>
+      <c r="E291" s="2" t="s">
+        <v>1014</v>
+      </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="4"/>
@@ -12604,15 +13189,17 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E292" s="2"/>
+      <c r="E292" s="2" t="s">
+        <v>1017</v>
+      </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="4"/>
@@ -12627,15 +13214,17 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>988</v>
+        <v>1019</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E293" s="2"/>
+      <c r="E293" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="4"/>
@@ -12650,15 +13239,17 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E294" s="2"/>
+      <c r="E294" s="2" t="s">
+        <v>1023</v>
+      </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="4"/>
@@ -12673,15 +13264,17 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>991</v>
+        <v>1024</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E295" s="2"/>
+      <c r="E295" s="2" t="s">
+        <v>1026</v>
+      </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="4" t="s">
@@ -12698,15 +13291,17 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>993</v>
+        <v>1027</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>994</v>
+        <v>1028</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E296" s="2"/>
+      <c r="E296" s="2" t="s">
+        <v>1029</v>
+      </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="4"/>
@@ -12723,15 +13318,17 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>996</v>
+        <v>1031</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E297" s="2"/>
+      <c r="E297" s="2" t="s">
+        <v>1032</v>
+      </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="4"/>
@@ -12746,15 +13343,17 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>998</v>
+        <v>1034</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E298" s="2"/>
+      <c r="E298" s="2" t="s">
+        <v>1035</v>
+      </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="4"/>
@@ -12767,15 +13366,17 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>999</v>
+        <v>1036</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1000</v>
+        <v>1037</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E299" s="2"/>
+      <c r="E299" s="3" t="s">
+        <v>1036</v>
+      </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
       <c r="H299" s="4"/>
@@ -12788,15 +13389,17 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1001</v>
+        <v>1038</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1002</v>
+        <v>1039</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E300" s="2"/>
+      <c r="E300" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
       <c r="H300" s="4"/>
@@ -12809,15 +13412,17 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1003</v>
+        <v>1041</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1004</v>
+        <v>1042</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E301" s="2"/>
+      <c r="E301" s="2" t="s">
+        <v>1043</v>
+      </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
       <c r="H301" s="4"/>
@@ -12830,15 +13435,17 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1005</v>
+        <v>1044</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1006</v>
+        <v>1045</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E302" s="2"/>
+      <c r="E302" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
       <c r="H302" s="4"/>
@@ -12851,15 +13458,17 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1007</v>
+        <v>1047</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E303" s="2"/>
+      <c r="E303" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
       <c r="H303" s="4"/>
@@ -12872,15 +13481,17 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E304" s="2"/>
+      <c r="E304" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
       <c r="H304" s="4"/>
@@ -12893,15 +13504,17 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1011</v>
+        <v>1053</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>1055</v>
+      </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="4"/>
@@ -12916,16 +13529,20 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1013</v>
+        <v>1056</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1014</v>
+        <v>1057</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
+      <c r="E306" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="G306" s="2"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
@@ -12937,15 +13554,17 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1015</v>
+        <v>1060</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1016</v>
+        <v>1061</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E307" s="2"/>
+      <c r="E307" s="2" t="s">
+        <v>1062</v>
+      </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="4"/>
@@ -12958,15 +13577,17 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1017</v>
+        <v>1063</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1018</v>
+        <v>1064</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E308" s="2"/>
+      <c r="E308" s="2" t="s">
+        <v>1065</v>
+      </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="4"/>
@@ -12979,15 +13600,17 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1019</v>
+        <v>1066</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1020</v>
+        <v>1067</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E309" s="2"/>
+      <c r="E309" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="4"/>
@@ -13002,15 +13625,17 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1021</v>
+        <v>1069</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1022</v>
+        <v>1070</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E310" s="2"/>
+      <c r="E310" s="2" t="s">
+        <v>1071</v>
+      </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
       <c r="H310" s="4"/>
@@ -13025,15 +13650,17 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1024</v>
+        <v>1073</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E311" s="2"/>
+      <c r="E311" s="2" t="s">
+        <v>1074</v>
+      </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="4"/>
@@ -13046,15 +13673,17 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1026</v>
+        <v>1076</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E312" s="2"/>
+      <c r="E312" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
       <c r="H312" s="4"/>
@@ -13067,15 +13696,17 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1027</v>
+        <v>1078</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1028</v>
+        <v>1079</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E313" s="2"/>
+      <c r="E313" s="2" t="s">
+        <v>1080</v>
+      </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
       <c r="H313" s="4" t="s">
@@ -13090,15 +13721,17 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1029</v>
+        <v>1081</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1030</v>
+        <v>1082</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E314" s="2"/>
+      <c r="E314" s="2" t="s">
+        <v>1083</v>
+      </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
       <c r="H314" s="4"/>
@@ -13111,15 +13744,17 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1031</v>
+        <v>1084</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1032</v>
+        <v>1085</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E315" s="2"/>
+      <c r="E315" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="4"/>
@@ -13132,15 +13767,17 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1033</v>
+        <v>1087</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1034</v>
+        <v>1088</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E316" s="2"/>
+      <c r="E316" s="2" t="s">
+        <v>1089</v>
+      </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
       <c r="H316" s="4"/>
@@ -13155,15 +13792,17 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1035</v>
+        <v>1090</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1036</v>
+        <v>1091</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E317" s="2"/>
+      <c r="E317" s="2" t="s">
+        <v>1092</v>
+      </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="4"/>
@@ -13176,15 +13815,17 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1037</v>
+        <v>1093</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1038</v>
+        <v>1094</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E318" s="2"/>
+      <c r="E318" s="2" t="s">
+        <v>1095</v>
+      </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="4"/>
@@ -13201,15 +13842,17 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1039</v>
+        <v>1096</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1040</v>
+        <v>1097</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E319" s="2"/>
+      <c r="E319" s="2" t="s">
+        <v>1098</v>
+      </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="4" t="s">
@@ -13228,15 +13871,17 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1041</v>
+        <v>1099</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1042</v>
+        <v>1100</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E320" s="2"/>
+      <c r="E320" s="2" t="s">
+        <v>1101</v>
+      </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="4"/>
@@ -13253,15 +13898,17 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1043</v>
+        <v>1102</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1044</v>
+        <v>1103</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E321" s="2"/>
+      <c r="E321" s="2" t="s">
+        <v>1104</v>
+      </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="4"/>
@@ -13274,15 +13921,17 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1045</v>
+        <v>1105</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1046</v>
+        <v>1106</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E322" s="2"/>
+      <c r="E322" s="2" t="s">
+        <v>1107</v>
+      </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
       <c r="H322" s="4"/>
@@ -13297,15 +13946,17 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1047</v>
+        <v>1108</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E323" s="2"/>
+      <c r="E323" s="2" t="s">
+        <v>1110</v>
+      </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
       <c r="H323" s="4"/>
@@ -13318,15 +13969,17 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1049</v>
+        <v>1111</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1050</v>
+        <v>1112</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E324" s="2"/>
+      <c r="E324" s="2" t="s">
+        <v>1113</v>
+      </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="4" t="s">
@@ -13343,15 +13996,17 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1051</v>
+        <v>1114</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1052</v>
+        <v>1115</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E325" s="2"/>
+      <c r="E325" s="6" t="s">
+        <v>1116</v>
+      </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="4"/>
@@ -13368,15 +14023,17 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1053</v>
+        <v>1117</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1054</v>
+        <v>1118</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E326" s="2"/>
+      <c r="E326" s="2" t="s">
+        <v>1119</v>
+      </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="4"/>
@@ -13389,15 +14046,17 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1055</v>
+        <v>1120</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1056</v>
+        <v>1121</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E327" s="2"/>
+      <c r="E327" s="2" t="s">
+        <v>1122</v>
+      </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="4"/>
@@ -13410,15 +14069,17 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1057</v>
+        <v>1123</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1058</v>
+        <v>1124</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E328" s="2"/>
+      <c r="E328" s="2" t="s">
+        <v>1125</v>
+      </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="4"/>
@@ -13431,15 +14092,17 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1059</v>
+        <v>1126</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1060</v>
+        <v>1127</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E329" s="2"/>
+      <c r="E329" s="2" t="s">
+        <v>1128</v>
+      </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="4" t="s">
@@ -13456,15 +14119,17 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1061</v>
+        <v>1129</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1062</v>
+        <v>1130</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E330" s="2"/>
+      <c r="E330" s="2" t="s">
+        <v>1131</v>
+      </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="4" t="s">
@@ -13481,15 +14146,17 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E331" s="2"/>
+      <c r="E331" s="2" t="s">
+        <v>1134</v>
+      </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="4" t="s">
@@ -13506,15 +14173,17 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1065</v>
+        <v>1135</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E332" s="2"/>
+      <c r="E332" s="2" t="s">
+        <v>1137</v>
+      </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
       <c r="H332" s="4" t="s">
@@ -13531,15 +14200,17 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1067</v>
+        <v>1138</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1068</v>
+        <v>1139</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E333" s="2"/>
+      <c r="E333" s="2" t="s">
+        <v>1140</v>
+      </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
       <c r="H333" s="4" t="s">
@@ -13556,15 +14227,17 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1069</v>
+        <v>1141</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1070</v>
+        <v>1142</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E334" s="2"/>
+      <c r="E334" s="2" t="s">
+        <v>1143</v>
+      </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
       <c r="H334" s="4"/>
@@ -13577,15 +14250,17 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1071</v>
+        <v>1144</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1072</v>
+        <v>1145</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E335" s="2"/>
+      <c r="E335" s="2" t="s">
+        <v>1146</v>
+      </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="4" t="s">
@@ -13600,15 +14275,17 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1073</v>
+        <v>1147</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1074</v>
+        <v>1148</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E336" s="2"/>
+      <c r="E336" s="2" t="s">
+        <v>1149</v>
+      </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="4"/>
@@ -13623,15 +14300,17 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1076</v>
+        <v>1151</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E337" s="2"/>
+      <c r="E337" s="2" t="s">
+        <v>1152</v>
+      </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="4"/>
@@ -13646,15 +14325,17 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1077</v>
+        <v>1153</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1078</v>
+        <v>1154</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E338" s="2"/>
+      <c r="E338" s="2" t="s">
+        <v>1155</v>
+      </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="4"/>
@@ -13669,15 +14350,17 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1079</v>
+        <v>1156</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1080</v>
+        <v>1157</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E339" s="2"/>
+      <c r="E339" s="2" t="s">
+        <v>1158</v>
+      </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
       <c r="H339" s="4"/>
@@ -13690,15 +14373,17 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1081</v>
+        <v>1159</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1082</v>
+        <v>1160</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E340" s="2"/>
+      <c r="E340" s="5" t="s">
+        <v>1161</v>
+      </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
       <c r="H340" s="4" t="s">
@@ -13715,15 +14400,17 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1083</v>
+        <v>1162</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1084</v>
+        <v>1163</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E341" s="2"/>
+      <c r="E341" s="2" t="s">
+        <v>1164</v>
+      </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
       <c r="H341" s="4"/>
@@ -13738,15 +14425,17 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1085</v>
+        <v>1165</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1086</v>
+        <v>1166</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E342" s="2"/>
+      <c r="E342" s="2" t="s">
+        <v>1167</v>
+      </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
       <c r="H342" s="4"/>
@@ -13761,15 +14450,17 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1087</v>
+        <v>1168</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1088</v>
+        <v>1169</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E343" s="2"/>
+      <c r="E343" s="2" t="s">
+        <v>1170</v>
+      </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
       <c r="H343" s="4"/>
@@ -13782,15 +14473,17 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1089</v>
+        <v>1171</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1090</v>
+        <v>1172</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E344" s="2"/>
+      <c r="E344" s="2" t="s">
+        <v>1173</v>
+      </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" s="4"/>
@@ -13803,15 +14496,17 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1091</v>
+        <v>1174</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1092</v>
+        <v>1175</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E345" s="2"/>
+      <c r="E345" s="2" t="s">
+        <v>1176</v>
+      </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
       <c r="H345" s="4"/>
@@ -13824,15 +14519,17 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1093</v>
+        <v>1177</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1094</v>
+        <v>1178</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E346" s="2"/>
+      <c r="E346" s="2" t="s">
+        <v>1179</v>
+      </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
       <c r="H346" s="4"/>
@@ -13845,15 +14542,17 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1095</v>
+        <v>1180</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1096</v>
+        <v>1181</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E347" s="2"/>
+      <c r="E347" s="2" t="s">
+        <v>1182</v>
+      </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
       <c r="H347" s="4" t="s">
@@ -13870,15 +14569,17 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1097</v>
+        <v>1183</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1098</v>
+        <v>1184</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E348" s="2"/>
+      <c r="E348" s="2" t="s">
+        <v>1185</v>
+      </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
       <c r="H348" s="4"/>
@@ -13893,15 +14594,17 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1099</v>
+        <v>1186</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1100</v>
+        <v>1187</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E349" s="2"/>
+      <c r="E349" s="2" t="s">
+        <v>1188</v>
+      </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="4" t="s">
@@ -13920,15 +14623,17 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1101</v>
+        <v>1189</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1102</v>
+        <v>1190</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E350" s="2"/>
+      <c r="E350" s="2" t="s">
+        <v>1191</v>
+      </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="4"/>
@@ -13941,15 +14646,17 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1103</v>
+        <v>1192</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1104</v>
+        <v>1193</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E351" s="2"/>
+      <c r="E351" s="2" t="s">
+        <v>1194</v>
+      </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="4" t="s">
@@ -13964,15 +14671,17 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1105</v>
+        <v>1195</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1106</v>
+        <v>1196</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E352" s="2"/>
+      <c r="E352" s="2" t="s">
+        <v>1197</v>
+      </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" s="4"/>
@@ -13985,15 +14694,17 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1107</v>
+        <v>1198</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1108</v>
+        <v>1199</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E353" s="2"/>
+      <c r="E353" s="2" t="s">
+        <v>1200</v>
+      </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="4" t="s">
@@ -14012,15 +14723,17 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1109</v>
+        <v>1201</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1110</v>
+        <v>1202</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E354" s="2"/>
+      <c r="E354" s="2" t="s">
+        <v>1203</v>
+      </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
       <c r="H354" s="4" t="s">
@@ -14037,15 +14750,17 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1111</v>
+        <v>1204</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1112</v>
+        <v>1205</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E355" s="2"/>
+      <c r="E355" s="2" t="s">
+        <v>1206</v>
+      </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
       <c r="H355" s="4" t="s">
@@ -14062,15 +14777,17 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1113</v>
+        <v>1207</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1114</v>
+        <v>1208</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E356" s="2"/>
+      <c r="E356" s="2" t="s">
+        <v>1209</v>
+      </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="4" t="s">
@@ -14087,15 +14804,17 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1115</v>
+        <v>1210</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1116</v>
+        <v>1211</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E357" s="2"/>
+      <c r="E357" s="2" t="s">
+        <v>1212</v>
+      </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
       <c r="H357" s="4" t="s">
@@ -14110,13 +14829,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1117</v>
+        <v>1213</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1118</v>
+        <v>1214</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,13 +14843,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1120</v>
+        <v>1216</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1121</v>
+        <v>1217</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14138,13 +14857,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1122</v>
+        <v>1218</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1123</v>
+        <v>1219</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14152,13 +14871,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1124</v>
+        <v>1220</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1125</v>
+        <v>1221</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,13 +14885,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1126</v>
+        <v>1222</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1127</v>
+        <v>1223</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14180,13 +14899,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1128</v>
+        <v>1224</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1129</v>
+        <v>1225</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,13 +14913,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1130</v>
+        <v>1226</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1131</v>
+        <v>1227</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14208,13 +14927,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1132</v>
+        <v>1228</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1133</v>
+        <v>1229</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14222,13 +14941,16 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1134</v>
+        <v>1230</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1135</v>
+        <v>1231</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14236,13 +14958,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1136</v>
+        <v>1233</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1137</v>
+        <v>1234</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14250,13 +14972,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1138</v>
+        <v>1235</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1139</v>
+        <v>1236</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14264,13 +14986,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1140</v>
+        <v>1237</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1141</v>
+        <v>1238</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14278,13 +15000,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1142</v>
+        <v>1239</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1143</v>
+        <v>1240</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14292,13 +15014,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1144</v>
+        <v>1241</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1145</v>
+        <v>1242</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14306,13 +15028,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1146</v>
+        <v>1243</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1147</v>
+        <v>1244</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14320,13 +15042,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1148</v>
+        <v>1245</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1149</v>
+        <v>1246</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14334,13 +15056,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1150</v>
+        <v>1247</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1151</v>
+        <v>1248</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14348,13 +15070,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1152</v>
+        <v>1249</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1153</v>
+        <v>1250</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14362,13 +15084,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1154</v>
+        <v>1251</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1155</v>
+        <v>1252</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14376,13 +15098,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1156</v>
+        <v>1253</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1157</v>
+        <v>1254</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14390,13 +15112,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1158</v>
+        <v>1255</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1159</v>
+        <v>1256</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14404,13 +15126,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1160</v>
+        <v>1257</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1161</v>
+        <v>1258</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14418,13 +15140,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1162</v>
+        <v>1259</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1163</v>
+        <v>1260</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14432,13 +15154,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1164</v>
+        <v>1261</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1165</v>
+        <v>1262</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,13 +15168,19 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1166</v>
+        <v>1263</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1167</v>
+        <v>1264</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,13 +15188,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1168</v>
+        <v>1267</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1169</v>
+        <v>1268</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14474,13 +15202,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1170</v>
+        <v>1269</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1171</v>
+        <v>1270</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14488,13 +15216,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1172</v>
+        <v>1271</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1173</v>
+        <v>1272</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,13 +15230,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1174</v>
+        <v>1273</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1175</v>
+        <v>1274</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,13 +15244,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1176</v>
+        <v>1275</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1177</v>
+        <v>1276</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14530,13 +15258,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1178</v>
+        <v>1277</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1179</v>
+        <v>1278</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,13 +15272,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1180</v>
+        <v>1279</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1181</v>
+        <v>1280</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14558,13 +15286,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1182</v>
+        <v>1281</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1183</v>
+        <v>1282</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,13 +15300,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1184</v>
+        <v>1283</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1185</v>
+        <v>1284</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,13 +15314,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1186</v>
+        <v>1285</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1187</v>
+        <v>1286</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14600,13 +15328,19 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1188</v>
+        <v>1287</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1189</v>
+        <v>1288</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,13 +15348,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1190</v>
+        <v>1291</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1191</v>
+        <v>1292</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,13 +15362,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1192</v>
+        <v>1293</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1193</v>
+        <v>1294</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14642,13 +15376,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1194</v>
+        <v>1295</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1195</v>
+        <v>1296</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14656,13 +15390,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1196</v>
+        <v>1297</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1197</v>
+        <v>1298</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14670,13 +15404,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1198</v>
+        <v>1299</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1199</v>
+        <v>1300</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,13 +15418,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1200</v>
+        <v>1301</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1201</v>
+        <v>1302</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14698,13 +15432,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1202</v>
+        <v>1303</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1203</v>
+        <v>1304</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14712,13 +15446,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1204</v>
+        <v>1305</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1205</v>
+        <v>1306</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14726,13 +15460,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1206</v>
+        <v>1307</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1207</v>
+        <v>1308</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14740,13 +15474,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1208</v>
+        <v>1309</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1209</v>
+        <v>1310</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,13 +15488,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1210</v>
+        <v>1311</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1211</v>
+        <v>1312</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14768,13 +15502,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1212</v>
+        <v>1313</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1213</v>
+        <v>1314</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14782,13 +15516,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1214</v>
+        <v>1315</v>
       </c>
       <c r="C406" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D406" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14796,13 +15530,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1216</v>
+        <v>1317</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1217</v>
+        <v>1318</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,13 +15544,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1218</v>
+        <v>1319</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1219</v>
+        <v>1320</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14824,13 +15558,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1220</v>
+        <v>1321</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1221</v>
+        <v>1322</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14838,13 +15572,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1222</v>
+        <v>1323</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1223</v>
+        <v>1324</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14852,13 +15586,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1224</v>
+        <v>1325</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1225</v>
+        <v>1326</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14866,13 +15600,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1226</v>
+        <v>1327</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1227</v>
+        <v>1328</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,13 +15614,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1228</v>
+        <v>1329</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1229</v>
+        <v>1330</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14894,13 +15628,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1230</v>
+        <v>1331</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1231</v>
+        <v>1332</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14908,13 +15642,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1232</v>
+        <v>1333</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1233</v>
+        <v>1334</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,13 +15656,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1234</v>
+        <v>1335</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1235</v>
+        <v>1336</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14936,13 +15670,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1236</v>
+        <v>1337</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1237</v>
+        <v>1338</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14950,13 +15684,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1238</v>
+        <v>1339</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1239</v>
+        <v>1340</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14964,13 +15698,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1240</v>
+        <v>1341</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1241</v>
+        <v>1342</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,13 +15712,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1242</v>
+        <v>1343</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1243</v>
+        <v>1344</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14992,13 +15726,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1244</v>
+        <v>1345</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1245</v>
+        <v>1346</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15006,13 +15740,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1246</v>
+        <v>1347</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1247</v>
+        <v>1348</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,13 +15754,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1248</v>
+        <v>1349</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1249</v>
+        <v>1350</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,13 +15768,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1250</v>
+        <v>1351</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1251</v>
+        <v>1352</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,13 +15782,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1252</v>
+        <v>1353</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1253</v>
+        <v>1354</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15062,13 +15796,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1254</v>
+        <v>1355</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1255</v>
+        <v>1356</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15076,13 +15810,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1256</v>
+        <v>1357</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1257</v>
+        <v>1358</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,13 +15824,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1258</v>
+        <v>1359</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1259</v>
+        <v>1360</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15104,13 +15838,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1260</v>
+        <v>1361</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1261</v>
+        <v>1362</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15118,13 +15852,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1262</v>
+        <v>1363</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1263</v>
+        <v>1364</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +15866,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1264</v>
+        <v>1365</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1265</v>
+        <v>1366</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,13 +15880,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1266</v>
+        <v>1367</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1267</v>
+        <v>1368</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,13 +15894,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1268</v>
+        <v>1369</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1269</v>
+        <v>1370</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,13 +15908,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1270</v>
+        <v>1371</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1271</v>
+        <v>1372</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,13 +15922,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1272</v>
+        <v>1373</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1273</v>
+        <v>1374</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,13 +15936,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1274</v>
+        <v>1375</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1275</v>
+        <v>1376</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15216,13 +15950,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1276</v>
+        <v>1377</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1277</v>
+        <v>1378</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,13 +15964,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1278</v>
+        <v>1379</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1279</v>
+        <v>1380</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15244,13 +15978,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1280</v>
+        <v>1381</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1281</v>
+        <v>1382</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15258,13 +15992,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1282</v>
+        <v>1383</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1283</v>
+        <v>1384</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15272,13 +16006,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1284</v>
+        <v>1385</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1285</v>
+        <v>1386</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15286,13 +16020,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1286</v>
+        <v>1387</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1287</v>
+        <v>1388</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15300,13 +16034,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1288</v>
+        <v>1389</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1289</v>
+        <v>1390</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,13 +16048,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1290</v>
+        <v>1391</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1291</v>
+        <v>1392</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15328,13 +16062,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1292</v>
+        <v>1393</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1293</v>
+        <v>1394</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15342,13 +16076,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1294</v>
+        <v>1395</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1295</v>
+        <v>1396</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15356,13 +16090,13 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1296</v>
+        <v>1397</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1297</v>
+        <v>1398</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1119</v>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -15387,11 +16121,11 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15417,16 +16151,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1298</v>
+        <v>1399</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1299</v>
+        <v>1400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1300</v>
+        <v>1401</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1301</v>
+        <v>1402</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -15439,20 +16173,20 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1302</v>
+        <v>1403</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1303</v>
+        <v>1404</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1304</v>
+        <v>1405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1305</v>
+        <v>1406</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -15461,20 +16195,20 @@
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1307</v>
+        <v>1408</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1308</v>
+        <v>1409</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>1309</v>
+        <v>1410</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -15483,22 +16217,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1311</v>
+        <v>1412</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1312</v>
+        <v>1413</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1313</v>
+        <v>1414</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1314</v>
+        <v>1415</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -15507,20 +16241,20 @@
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1316</v>
+        <v>1417</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1317</v>
+        <v>1418</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1318</v>
+        <v>1419</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -15529,20 +16263,20 @@
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1320</v>
+        <v>1421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1321</v>
+        <v>1422</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -15551,22 +16285,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1324</v>
+        <v>1425</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1325</v>
+        <v>1426</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1326</v>
+        <v>1427</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1327</v>
+        <v>1428</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -15575,20 +16309,20 @@
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1329</v>
+        <v>1430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1330</v>
+        <v>1431</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>1331</v>
+        <v>1432</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -15599,20 +16333,20 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1332</v>
+        <v>1433</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1333</v>
+        <v>1434</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1334</v>
+        <v>1435</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1335</v>
+        <v>1436</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -15621,20 +16355,20 @@
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1337</v>
+        <v>1438</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1338</v>
+        <v>1439</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>1339</v>
+        <v>1440</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -15643,20 +16377,20 @@
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1341</v>
+        <v>1442</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1342</v>
+        <v>1443</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>1343</v>
+        <v>1444</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -15665,22 +16399,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1345</v>
+        <v>1446</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1346</v>
+        <v>1447</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -15689,22 +16423,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1349</v>
+        <v>1450</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1351</v>
+        <v>1452</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -15713,22 +16447,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1354</v>
+        <v>1455</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1355</v>
+        <v>1456</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1356</v>
+        <v>1457</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1357</v>
+        <v>1458</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -15737,20 +16471,20 @@
         <v>1013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1359</v>
+        <v>1460</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1360</v>
+        <v>1461</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -15759,22 +16493,22 @@
         <v>1014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1362</v>
+        <v>1463</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1363</v>
+        <v>1464</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1364</v>
+        <v>1465</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1365</v>
+        <v>1466</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -15783,22 +16517,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1367</v>
+        <v>1468</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1368</v>
+        <v>1469</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1369</v>
+        <v>1470</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -15807,20 +16541,20 @@
         <v>1016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1371</v>
+        <v>1472</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1372</v>
+        <v>1473</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>1373</v>
+        <v>1474</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -15831,20 +16565,20 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1374</v>
+        <v>1475</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1375</v>
+        <v>1476</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1376</v>
+        <v>1477</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -15853,20 +16587,20 @@
         <v>1018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1378</v>
+        <v>1479</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1379</v>
+        <v>1480</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>1380</v>
+        <v>1481</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -15875,22 +16609,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1382</v>
+        <v>1483</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1383</v>
+        <v>1484</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1384</v>
+        <v>1485</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -15899,22 +16633,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1386</v>
+        <v>1487</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1387</v>
+        <v>1488</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1388</v>
+        <v>1489</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -15923,20 +16657,20 @@
         <v>1021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1390</v>
+        <v>1491</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1391</v>
+        <v>1492</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>1392</v>
+        <v>1493</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -15945,20 +16679,20 @@
         <v>1022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1394</v>
+        <v>1495</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1395</v>
+        <v>1496</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>1380</v>
+        <v>1481</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -15969,20 +16703,20 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1396</v>
+        <v>1497</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1397</v>
+        <v>1498</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1398</v>
+        <v>1499</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1380</v>
+        <v>1481</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -15991,22 +16725,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1400</v>
+        <v>1501</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1401</v>
+        <v>1502</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1402</v>
+        <v>1503</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -16015,20 +16749,20 @@
         <v>1025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1404</v>
+        <v>1505</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1405</v>
+        <v>1506</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>1365</v>
+        <v>1466</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -16037,22 +16771,22 @@
         <v>1026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1407</v>
+        <v>1508</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1408</v>
+        <v>1509</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1409</v>
+        <v>1510</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1322</v>
+        <v>1423</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -16061,20 +16795,20 @@
         <v>1027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1411</v>
+        <v>1512</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1412</v>
+        <v>1513</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>1413</v>
+        <v>1514</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -16083,22 +16817,22 @@
         <v>1028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1415</v>
+        <v>1516</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1416</v>
+        <v>1517</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1417</v>
+        <v>1518</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1305</v>
+        <v>1406</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -16107,20 +16841,20 @@
         <v>1029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1419</v>
+        <v>1520</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1420</v>
+        <v>1521</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>1421</v>
+        <v>1522</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -16129,22 +16863,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1423</v>
+        <v>1524</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1424</v>
+        <v>1525</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1425</v>
+        <v>1526</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -16153,19 +16887,19 @@
         <v>1032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1427</v>
+        <v>1528</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1428</v>
+        <v>1529</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1429</v>
+        <v>1530</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -16175,19 +16909,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1431</v>
+        <v>1532</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1432</v>
+        <v>1533</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1433</v>
+        <v>1534</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -16197,15 +16931,21 @@
         <v>1034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1537</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="8" t="s">
+        <v>1538</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16213,15 +16953,19 @@
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>1540</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="8" t="s">
+        <v>1538</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16229,15 +16973,23 @@
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C37" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1545</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,15 +16997,23 @@
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>1550</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16261,158 +17021,162 @@
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>1552</v>
+      </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="8" t="s">
+        <v>1538</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>1039</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>1119</v>
+      <c r="B40" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>1040</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1119</v>
+      <c r="B41" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>1041</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1119</v>
+      <c r="B42" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>1042</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1119</v>
+      <c r="B43" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="9" t="n">
         <v>1043</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1119</v>
+      <c r="B44" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>1044</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1119</v>
+      <c r="B45" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="9" t="n">
         <v>1045</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1119</v>
+      <c r="B46" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>1046</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1119</v>
+      <c r="B47" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="9" t="n">
         <v>1047</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1119</v>
+      <c r="B48" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>1048</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1119</v>
+      <c r="B49" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="9" t="n">
         <v>1049</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1119</v>
+      <c r="B50" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>1050</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>1119</v>
+      <c r="B51" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>1051</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1119</v>
+      <c r="B52" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -16436,17 +17200,17 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
@@ -16461,662 +17225,677 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1452</v>
+        <v>1399</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>2005</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>2007</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>2031</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>2030</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>2033</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>2032</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>2026</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>2027</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="9" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>928</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="B40" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="B44" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="B45" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>2039</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>2045</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F47"/>
@@ -17141,7 +17920,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17155,52 +17934,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1499</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1500</v>
+        <v>1622</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1501</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1502</v>
+        <v>1624</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1503</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1504</v>
+        <v>1626</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1505</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1506</v>
+        <v>1628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1507</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1508</v>
+        <v>1630</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1509</v>
+        <v>1632</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1510</v>
+        <v>1633</v>
       </c>
     </row>
   </sheetData>
@@ -17233,22 +18015,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1511</v>
+        <v>1399</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B2" s="10" t="b">
+        <v>1635</v>
+      </c>
+      <c r="B2" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/nl.xlsx
+++ b/i18n/nl.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Goals!$A$1:$F$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parameters!$A:$B</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$H$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1927">
   <si>
     <t>id</t>
   </si>
@@ -5884,6 +5884,9 @@
   <si>
     <t>trek 5 [card] van de trekstapel en leg die af. Bewaar voor elke [fish] in de voedselkosten ervan 1 [fish] uit de voorraad op deze vogel.</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -5892,7 +5895,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5925,6 +5928,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5946,7 +5955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5972,6 +5981,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5990,15 +6000,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L447" totalsRowShown="0">
+  <autoFilter ref="A1:L447"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -6147,13 +6158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
-      <selection pane="bottomRight" activeCell="F307" sqref="F307"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,11 +6174,12 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="141.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6186,23 +6198,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6221,12 +6236,12 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6245,14 +6260,14 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6271,14 +6286,14 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6297,14 +6312,14 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6323,14 +6338,14 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6349,16 +6364,16 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6377,14 +6392,14 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -6403,14 +6418,14 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -6429,16 +6444,16 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -6457,14 +6472,14 @@
       <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6483,16 +6498,16 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6508,14 +6523,14 @@
       <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -6534,14 +6549,14 @@
       <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -6560,12 +6575,12 @@
       <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -6584,16 +6599,16 @@
       <c r="F16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -6612,16 +6627,16 @@
       <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -6640,12 +6655,12 @@
       <c r="F18" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -6664,12 +6679,12 @@
       <c r="F19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -6688,12 +6703,12 @@
       <c r="F20" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -6712,14 +6727,14 @@
       <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -6738,12 +6753,12 @@
       <c r="F22" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -6762,12 +6777,12 @@
       <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -6786,14 +6801,14 @@
       <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -6812,18 +6827,18 @@
       <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -6842,12 +6857,12 @@
       <c r="F26" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -6866,14 +6881,14 @@
       <c r="F27" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -6892,12 +6907,12 @@
       <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -6916,14 +6931,14 @@
       <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -6942,14 +6957,14 @@
       <c r="F30" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6968,14 +6983,14 @@
       <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6994,14 +7009,14 @@
       <c r="F32" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -7020,14 +7035,14 @@
       <c r="F33" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -7046,16 +7061,16 @@
       <c r="F34" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -7074,16 +7089,16 @@
       <c r="F35" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -7102,16 +7117,16 @@
       <c r="F36" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -7130,16 +7145,16 @@
       <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -7158,16 +7173,16 @@
       <c r="F38" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -7186,16 +7201,16 @@
       <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -7214,16 +7229,16 @@
       <c r="F40" t="s">
         <v>161</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -7242,16 +7257,16 @@
       <c r="F41" t="s">
         <v>165</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -7270,16 +7285,16 @@
       <c r="F42" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -7298,14 +7313,14 @@
       <c r="F43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -7324,14 +7339,14 @@
       <c r="F44" t="s">
         <v>175</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -7347,16 +7362,16 @@
       <c r="E45" t="s">
         <v>178</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -7375,18 +7390,18 @@
       <c r="F46" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -7405,14 +7420,14 @@
       <c r="F47" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -7431,12 +7446,12 @@
       <c r="F48" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -7455,14 +7470,14 @@
       <c r="F49" t="s">
         <v>193</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -7481,14 +7496,14 @@
       <c r="F50" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -7507,14 +7522,14 @@
       <c r="F51" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -7533,14 +7548,14 @@
       <c r="F52" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -7559,14 +7574,14 @@
       <c r="F53" t="s">
         <v>208</v>
       </c>
-      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -7585,16 +7600,16 @@
       <c r="F54" t="s">
         <v>204</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -7613,12 +7628,12 @@
       <c r="F55" t="s">
         <v>215</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -7637,12 +7652,12 @@
       <c r="F56" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -7661,12 +7676,12 @@
       <c r="F57" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -7685,14 +7700,14 @@
       <c r="F58" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -7711,14 +7726,14 @@
       <c r="F59" t="s">
         <v>228</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -7737,14 +7752,14 @@
       <c r="F60" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -7763,14 +7778,14 @@
       <c r="F61" t="s">
         <v>235</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -7789,14 +7804,14 @@
       <c r="F62" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -7815,14 +7830,14 @@
       <c r="F63" t="s">
         <v>157</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -7841,14 +7856,14 @@
       <c r="F64" t="s">
         <v>246</v>
       </c>
-      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -7867,14 +7882,14 @@
       <c r="F65" t="s">
         <v>75</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -7893,12 +7908,12 @@
       <c r="F66" t="s">
         <v>84</v>
       </c>
-      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -7917,14 +7932,14 @@
       <c r="F67" t="s">
         <v>256</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -7943,16 +7958,16 @@
       <c r="F68" t="s">
         <v>75</v>
       </c>
-      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -7971,12 +7986,12 @@
       <c r="F69" t="s">
         <v>263</v>
       </c>
-      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -7995,16 +8010,16 @@
       <c r="F70" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -8023,14 +8038,14 @@
       <c r="F71" t="s">
         <v>270</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -8049,12 +8064,12 @@
       <c r="F72" t="s">
         <v>117</v>
       </c>
-      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -8073,14 +8088,14 @@
       <c r="F73" t="s">
         <v>84</v>
       </c>
-      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -8099,14 +8114,14 @@
       <c r="F74" t="s">
         <v>128</v>
       </c>
-      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -8125,12 +8140,12 @@
       <c r="F75" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -8149,14 +8164,14 @@
       <c r="F76" t="s">
         <v>286</v>
       </c>
-      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -8175,14 +8190,14 @@
       <c r="F77" t="s">
         <v>290</v>
       </c>
-      <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -8201,12 +8216,12 @@
       <c r="F78" t="s">
         <v>294</v>
       </c>
-      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -8225,12 +8240,12 @@
       <c r="F79" t="s">
         <v>298</v>
       </c>
-      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -8249,12 +8264,12 @@
       <c r="F80" t="s">
         <v>298</v>
       </c>
-      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -8273,12 +8288,12 @@
       <c r="F81" t="s">
         <v>305</v>
       </c>
-      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -8297,16 +8312,16 @@
       <c r="F82" t="s">
         <v>309</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -8325,12 +8340,12 @@
       <c r="F83" t="s">
         <v>197</v>
       </c>
-      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -8349,12 +8364,12 @@
       <c r="F84" t="s">
         <v>316</v>
       </c>
-      <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -8373,12 +8388,12 @@
       <c r="F85" t="s">
         <v>320</v>
       </c>
-      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -8397,12 +8412,12 @@
       <c r="F86" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -8421,12 +8436,12 @@
       <c r="F87" t="s">
         <v>40</v>
       </c>
-      <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -8445,14 +8460,14 @@
       <c r="F88" t="s">
         <v>330</v>
       </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -8471,12 +8486,12 @@
       <c r="F89" t="s">
         <v>117</v>
       </c>
-      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -8495,12 +8510,12 @@
       <c r="F90" t="s">
         <v>182</v>
       </c>
-      <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -8519,12 +8534,12 @@
       <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -8543,12 +8558,12 @@
       <c r="F92" t="s">
         <v>343</v>
       </c>
-      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -8567,12 +8582,12 @@
       <c r="F93" t="s">
         <v>347</v>
       </c>
-      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -8591,18 +8606,18 @@
       <c r="F94" t="s">
         <v>351</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8621,12 +8636,12 @@
       <c r="F95" t="s">
         <v>102</v>
       </c>
-      <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -8645,16 +8660,16 @@
       <c r="F96" t="s">
         <v>358</v>
       </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -8673,14 +8688,14 @@
       <c r="F97" t="s">
         <v>362</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -8699,12 +8714,12 @@
       <c r="F98" t="s">
         <v>197</v>
       </c>
-      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -8723,14 +8738,14 @@
       <c r="F99" t="s">
         <v>56</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -8749,12 +8764,12 @@
       <c r="F100" t="s">
         <v>371</v>
       </c>
-      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -8773,12 +8788,12 @@
       <c r="F101" t="s">
         <v>375</v>
       </c>
-      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -8797,16 +8812,16 @@
       <c r="F102" t="s">
         <v>379</v>
       </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -8825,14 +8840,14 @@
       <c r="F103" t="s">
         <v>189</v>
       </c>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -8851,14 +8866,14 @@
       <c r="F104" t="s">
         <v>386</v>
       </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -8877,14 +8892,14 @@
       <c r="F105" t="s">
         <v>390</v>
       </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -8903,14 +8918,14 @@
       <c r="F106" t="s">
         <v>40</v>
       </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -8929,12 +8944,12 @@
       <c r="F107" t="s">
         <v>396</v>
       </c>
-      <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -8953,16 +8968,16 @@
       <c r="F108" t="s">
         <v>343</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -8981,16 +8996,16 @@
       <c r="F109" t="s">
         <v>403</v>
       </c>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -9009,16 +9024,16 @@
       <c r="F110" t="s">
         <v>263</v>
       </c>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -9037,14 +9052,14 @@
       <c r="F111" t="s">
         <v>294</v>
       </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -9063,14 +9078,14 @@
       <c r="F112" t="s">
         <v>413</v>
       </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -9089,14 +9104,14 @@
       <c r="F113" t="s">
         <v>417</v>
       </c>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -9115,14 +9130,14 @@
       <c r="F114" t="s">
         <v>421</v>
       </c>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -9141,14 +9156,14 @@
       <c r="F115" t="s">
         <v>286</v>
       </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -9167,14 +9182,14 @@
       <c r="F116" t="s">
         <v>189</v>
       </c>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -9193,14 +9208,14 @@
       <c r="F117" t="s">
         <v>431</v>
       </c>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -9219,14 +9234,14 @@
       <c r="F118" t="s">
         <v>435</v>
       </c>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -9245,16 +9260,16 @@
       <c r="F119" t="s">
         <v>439</v>
       </c>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I119" s="1"/>
+      <c r="J119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -9273,14 +9288,14 @@
       <c r="F120" t="s">
         <v>443</v>
       </c>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -9299,14 +9314,14 @@
       <c r="F121" t="s">
         <v>447</v>
       </c>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -9325,14 +9340,14 @@
       <c r="F122" t="s">
         <v>451</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -9351,14 +9366,14 @@
       <c r="F123" t="s">
         <v>455</v>
       </c>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -9377,14 +9392,14 @@
       <c r="F124" t="s">
         <v>40</v>
       </c>
-      <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
-      <c r="K124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -9403,14 +9418,14 @@
       <c r="F125" t="s">
         <v>32</v>
       </c>
-      <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -9429,14 +9444,14 @@
       <c r="F126" t="s">
         <v>128</v>
       </c>
-      <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -9455,12 +9470,12 @@
       <c r="F127" t="s">
         <v>468</v>
       </c>
-      <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9479,16 +9494,16 @@
       <c r="F128" t="s">
         <v>472</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="1"/>
+      <c r="I128" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J128" s="1"/>
-      <c r="K128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -9507,14 +9522,14 @@
       <c r="F129" t="s">
         <v>476</v>
       </c>
-      <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -9533,12 +9548,12 @@
       <c r="F130" t="s">
         <v>84</v>
       </c>
-      <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9557,14 +9572,14 @@
       <c r="F131" t="s">
         <v>483</v>
       </c>
-      <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
-      <c r="K131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -9583,14 +9598,14 @@
       <c r="F132" t="s">
         <v>487</v>
       </c>
-      <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -9609,14 +9624,14 @@
       <c r="F133" t="s">
         <v>491</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I133" s="1"/>
+      <c r="I133" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -9635,14 +9650,14 @@
       <c r="F134" t="s">
         <v>495</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I134" s="1"/>
+      <c r="I134" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -9661,12 +9676,12 @@
       <c r="F135" t="s">
         <v>487</v>
       </c>
-      <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -9685,12 +9700,12 @@
       <c r="F136" t="s">
         <v>476</v>
       </c>
-      <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -9709,12 +9724,12 @@
       <c r="F137" t="s">
         <v>505</v>
       </c>
-      <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -9733,12 +9748,12 @@
       <c r="F138" t="s">
         <v>509</v>
       </c>
-      <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -9757,14 +9772,14 @@
       <c r="F139" t="s">
         <v>75</v>
       </c>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -9783,12 +9798,12 @@
       <c r="F140" t="s">
         <v>515</v>
       </c>
-      <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -9807,14 +9822,14 @@
       <c r="F141" t="s">
         <v>519</v>
       </c>
-      <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -9833,14 +9848,14 @@
       <c r="F142" t="s">
         <v>523</v>
       </c>
-      <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -9859,14 +9874,14 @@
       <c r="F143" t="s">
         <v>263</v>
       </c>
-      <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -9885,12 +9900,12 @@
       <c r="F144" t="s">
         <v>246</v>
       </c>
-      <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -9909,12 +9924,12 @@
       <c r="F145" t="s">
         <v>533</v>
       </c>
-      <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -9933,12 +9948,12 @@
       <c r="F146" t="s">
         <v>537</v>
       </c>
-      <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -9957,12 +9972,12 @@
       <c r="F147" t="s">
         <v>541</v>
       </c>
-      <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -9981,12 +9996,12 @@
       <c r="F148" t="s">
         <v>545</v>
       </c>
-      <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10002,12 +10017,12 @@
       <c r="E149" t="s">
         <v>548</v>
       </c>
-      <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10026,14 +10041,14 @@
       <c r="F150" t="s">
         <v>552</v>
       </c>
-      <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10052,12 +10067,12 @@
       <c r="F151" t="s">
         <v>28</v>
       </c>
-      <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -10076,12 +10091,12 @@
       <c r="F152" t="s">
         <v>559</v>
       </c>
-      <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -10100,12 +10115,12 @@
       <c r="F153" t="s">
         <v>563</v>
       </c>
-      <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -10124,14 +10139,14 @@
       <c r="F154" t="s">
         <v>567</v>
       </c>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -10150,14 +10165,14 @@
       <c r="F155" t="s">
         <v>571</v>
       </c>
-      <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
-      <c r="K155" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="1"/>
+      <c r="L155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -10176,12 +10191,12 @@
       <c r="F156" t="s">
         <v>239</v>
       </c>
-      <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -10200,12 +10215,12 @@
       <c r="F157" t="s">
         <v>468</v>
       </c>
-      <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -10224,12 +10239,12 @@
       <c r="F158" t="s">
         <v>75</v>
       </c>
-      <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -10248,14 +10263,14 @@
       <c r="F159" t="s">
         <v>584</v>
       </c>
-      <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="1"/>
+      <c r="L159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -10274,18 +10289,18 @@
       <c r="F160" t="s">
         <v>121</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J160" s="1"/>
       <c r="K160" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -10304,12 +10319,12 @@
       <c r="F161" t="s">
         <v>117</v>
       </c>
-      <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -10328,12 +10343,12 @@
       <c r="F162" t="s">
         <v>594</v>
       </c>
-      <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -10352,12 +10367,12 @@
       <c r="F163" t="s">
         <v>598</v>
       </c>
-      <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -10376,14 +10391,14 @@
       <c r="F164" t="s">
         <v>602</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I164" s="1"/>
+      <c r="I164" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -10402,14 +10417,14 @@
       <c r="F165" t="s">
         <v>290</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I165" s="1"/>
+      <c r="I165" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -10428,12 +10443,12 @@
       <c r="F166" t="s">
         <v>609</v>
       </c>
-      <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
@@ -10452,14 +10467,14 @@
       <c r="F167" t="s">
         <v>40</v>
       </c>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
@@ -10478,14 +10493,14 @@
       <c r="F168" t="s">
         <v>616</v>
       </c>
-      <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -10504,12 +10519,12 @@
       <c r="F169" t="s">
         <v>294</v>
       </c>
-      <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
@@ -10528,16 +10543,16 @@
       <c r="F170" t="s">
         <v>379</v>
       </c>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I170" s="1"/>
+      <c r="J170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -10556,14 +10571,14 @@
       <c r="F171" t="s">
         <v>239</v>
       </c>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K171" s="1"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -10582,12 +10597,12 @@
       <c r="F172" t="s">
         <v>228</v>
       </c>
-      <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -10606,12 +10621,12 @@
       <c r="F173" t="s">
         <v>632</v>
       </c>
-      <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
@@ -10630,16 +10645,16 @@
       <c r="F174" t="s">
         <v>228</v>
       </c>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I174" s="1"/>
+      <c r="J174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
@@ -10658,14 +10673,14 @@
       <c r="F175" t="s">
         <v>639</v>
       </c>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K175" s="1"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -10684,14 +10699,14 @@
       <c r="F176" t="s">
         <v>643</v>
       </c>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
@@ -10710,14 +10725,14 @@
       <c r="F177" t="s">
         <v>647</v>
       </c>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>178</v>
       </c>
@@ -10736,14 +10751,14 @@
       <c r="F178" t="s">
         <v>189</v>
       </c>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>179</v>
       </c>
@@ -10762,14 +10777,14 @@
       <c r="F179" t="s">
         <v>102</v>
       </c>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>180</v>
       </c>
@@ -10788,14 +10803,14 @@
       <c r="F180" t="s">
         <v>483</v>
       </c>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>181</v>
       </c>
@@ -10814,14 +10829,14 @@
       <c r="F181" t="s">
         <v>235</v>
       </c>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>182</v>
       </c>
@@ -10840,12 +10855,12 @@
       <c r="F182" t="s">
         <v>662</v>
       </c>
-      <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
@@ -10864,12 +10879,12 @@
       <c r="F183" t="s">
         <v>75</v>
       </c>
-      <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>184</v>
       </c>
@@ -10888,14 +10903,14 @@
       <c r="F184" t="s">
         <v>175</v>
       </c>
-      <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
-      <c r="K184" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="1"/>
+      <c r="L184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
@@ -10914,14 +10929,14 @@
       <c r="F185" t="s">
         <v>672</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I185" s="1"/>
+      <c r="I185" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>186</v>
       </c>
@@ -10940,14 +10955,14 @@
       <c r="F186" t="s">
         <v>476</v>
       </c>
-      <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>187</v>
       </c>
@@ -10966,14 +10981,14 @@
       <c r="F187" t="s">
         <v>351</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I187" s="1"/>
+      <c r="I187" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
@@ -10992,12 +11007,12 @@
       <c r="F188" t="s">
         <v>682</v>
       </c>
-      <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>189</v>
       </c>
@@ -11016,12 +11031,12 @@
       <c r="F189" t="s">
         <v>362</v>
       </c>
-      <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>190</v>
       </c>
@@ -11037,12 +11052,12 @@
       <c r="E190" t="s">
         <v>688</v>
       </c>
-      <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>191</v>
       </c>
@@ -11061,14 +11076,14 @@
       <c r="F191" t="s">
         <v>235</v>
       </c>
-      <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
-      <c r="K191" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="1"/>
+      <c r="L191" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>192</v>
       </c>
@@ -11087,14 +11102,14 @@
       <c r="F192" t="s">
         <v>28</v>
       </c>
-      <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
-      <c r="K192" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="1"/>
+      <c r="L192" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>193</v>
       </c>
@@ -11113,12 +11128,12 @@
       <c r="F193" t="s">
         <v>698</v>
       </c>
-      <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>194</v>
       </c>
@@ -11137,16 +11152,16 @@
       <c r="F194" t="s">
         <v>702</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I194" s="1"/>
+      <c r="I194" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J194" s="1"/>
-      <c r="K194" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K194" s="1"/>
+      <c r="L194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>195</v>
       </c>
@@ -11165,14 +11180,14 @@
       <c r="F195" t="s">
         <v>294</v>
       </c>
-      <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
-      <c r="K195" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K195" s="1"/>
+      <c r="L195" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
@@ -11191,14 +11206,14 @@
       <c r="F196" t="s">
         <v>161</v>
       </c>
-      <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="1"/>
+      <c r="L196" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>197</v>
       </c>
@@ -11217,16 +11232,16 @@
       <c r="F197" t="s">
         <v>712</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I197" s="1"/>
+      <c r="I197" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J197" s="1"/>
-      <c r="K197" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K197" s="1"/>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
@@ -11245,16 +11260,16 @@
       <c r="F198" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I198" s="1"/>
+      <c r="I198" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J198" s="1"/>
-      <c r="K198" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K198" s="1"/>
+      <c r="L198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>199</v>
       </c>
@@ -11273,16 +11288,16 @@
       <c r="F199" t="s">
         <v>719</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I199" s="1"/>
+      <c r="I199" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J199" s="1"/>
-      <c r="K199" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K199" s="1"/>
+      <c r="L199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -11301,16 +11316,16 @@
       <c r="F200" t="s">
         <v>239</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I200" s="1"/>
+      <c r="I200" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J200" s="1"/>
-      <c r="K200" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -11329,14 +11344,14 @@
       <c r="F201" t="s">
         <v>75</v>
       </c>
-      <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
-      <c r="K201" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="1"/>
+      <c r="L201" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
@@ -11355,16 +11370,16 @@
       <c r="F202" t="s">
         <v>371</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I202" s="1"/>
+      <c r="I202" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J202" s="1"/>
-      <c r="K202" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="1"/>
+      <c r="L202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -11383,16 +11398,16 @@
       <c r="F203" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I203" s="1"/>
+      <c r="I203" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J203" s="1"/>
-      <c r="K203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K203" s="1"/>
+      <c r="L203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
@@ -11411,16 +11426,16 @@
       <c r="F204" t="s">
         <v>735</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I204" s="1"/>
+      <c r="I204" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J204" s="1"/>
-      <c r="K204" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>205</v>
       </c>
@@ -11439,16 +11454,16 @@
       <c r="F205" t="s">
         <v>102</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I205" s="1"/>
+      <c r="I205" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J205" s="1"/>
-      <c r="K205" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K205" s="1"/>
+      <c r="L205" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>206</v>
       </c>
@@ -11467,16 +11482,16 @@
       <c r="F206" t="s">
         <v>102</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I206" s="1"/>
+      <c r="I206" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J206" s="1"/>
-      <c r="K206" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K206" s="1"/>
+      <c r="L206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>207</v>
       </c>
@@ -11495,16 +11510,16 @@
       <c r="F207" t="s">
         <v>197</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I207" s="1"/>
+      <c r="I207" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J207" s="1"/>
-      <c r="K207" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K207" s="1"/>
+      <c r="L207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>208</v>
       </c>
@@ -11523,14 +11538,14 @@
       <c r="F208" t="s">
         <v>28</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I208" s="1"/>
+      <c r="I208" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>209</v>
       </c>
@@ -11549,16 +11564,16 @@
       <c r="F209" t="s">
         <v>751</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I209" s="1"/>
+      <c r="I209" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J209" s="1"/>
-      <c r="K209" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K209" s="1"/>
+      <c r="L209" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
@@ -11577,16 +11592,16 @@
       <c r="F210" t="s">
         <v>75</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I210" s="1"/>
+      <c r="I210" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J210" s="1"/>
-      <c r="K210" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>211</v>
       </c>
@@ -11605,16 +11620,16 @@
       <c r="F211" t="s">
         <v>371</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I211" s="1"/>
+      <c r="I211" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="1"/>
+      <c r="L211" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>212</v>
       </c>
@@ -11633,16 +11648,16 @@
       <c r="F212" t="s">
         <v>67</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I212" s="1"/>
+      <c r="I212" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J212" s="1"/>
-      <c r="K212" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="1"/>
+      <c r="L212" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>213</v>
       </c>
@@ -11661,14 +11676,14 @@
       <c r="F213" t="s">
         <v>719</v>
       </c>
-      <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
-      <c r="K213" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="1"/>
+      <c r="L213" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>214</v>
       </c>
@@ -11687,12 +11702,12 @@
       <c r="F214" t="s">
         <v>767</v>
       </c>
-      <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>215</v>
       </c>
@@ -11711,14 +11726,14 @@
       <c r="F215" t="s">
         <v>139</v>
       </c>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>216</v>
       </c>
@@ -11737,16 +11752,16 @@
       <c r="F216" t="s">
         <v>379</v>
       </c>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I216" s="1"/>
       <c r="J216" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>217</v>
       </c>
@@ -11765,14 +11780,14 @@
       <c r="F217" t="s">
         <v>777</v>
       </c>
-      <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J217" s="1"/>
+      <c r="K217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>218</v>
       </c>
@@ -11791,12 +11806,12 @@
       <c r="F218" t="s">
         <v>781</v>
       </c>
-      <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>219</v>
       </c>
@@ -11815,12 +11830,12 @@
       <c r="F219" t="s">
         <v>228</v>
       </c>
-      <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>220</v>
       </c>
@@ -11839,14 +11854,14 @@
       <c r="F220" t="s">
         <v>390</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I220" s="1"/>
+      <c r="I220" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>221</v>
       </c>
@@ -11865,14 +11880,14 @@
       <c r="F221" t="s">
         <v>791</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I221" s="1"/>
+      <c r="I221" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>222</v>
       </c>
@@ -11891,12 +11906,12 @@
       <c r="F222" t="s">
         <v>795</v>
       </c>
-      <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>223</v>
       </c>
@@ -11915,14 +11930,14 @@
       <c r="F223" t="s">
         <v>63</v>
       </c>
-      <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
-      <c r="K223" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="1"/>
+      <c r="L223" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>224</v>
       </c>
@@ -11941,14 +11956,14 @@
       <c r="F224" t="s">
         <v>594</v>
       </c>
-      <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
-      <c r="K224" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="1"/>
+      <c r="L224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>225</v>
       </c>
@@ -11967,12 +11982,12 @@
       <c r="F225" t="s">
         <v>117</v>
       </c>
-      <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>226</v>
       </c>
@@ -11991,12 +12006,12 @@
       <c r="F226" t="s">
         <v>75</v>
       </c>
-      <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>227</v>
       </c>
@@ -12015,12 +12030,12 @@
       <c r="F227" t="s">
         <v>235</v>
       </c>
-      <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>228</v>
       </c>
@@ -12039,14 +12054,14 @@
       <c r="F228" t="s">
         <v>814</v>
       </c>
-      <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J228" s="1"/>
+      <c r="K228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>229</v>
       </c>
@@ -12065,12 +12080,12 @@
       <c r="F229" t="s">
         <v>75</v>
       </c>
-      <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>230</v>
       </c>
@@ -12089,14 +12104,14 @@
       <c r="F230" t="s">
         <v>821</v>
       </c>
-      <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J230" s="1"/>
+      <c r="K230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>231</v>
       </c>
@@ -12115,12 +12130,12 @@
       <c r="F231" t="s">
         <v>15</v>
       </c>
-      <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>232</v>
       </c>
@@ -12139,12 +12154,12 @@
       <c r="F232" t="s">
         <v>102</v>
       </c>
-      <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>233</v>
       </c>
@@ -12163,12 +12178,12 @@
       <c r="F233" t="s">
         <v>831</v>
       </c>
-      <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>234</v>
       </c>
@@ -12187,12 +12202,12 @@
       <c r="F234" t="s">
         <v>28</v>
       </c>
-      <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>235</v>
       </c>
@@ -12208,12 +12223,12 @@
       <c r="E235" t="s">
         <v>837</v>
       </c>
-      <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>236</v>
       </c>
@@ -12232,12 +12247,12 @@
       <c r="F236" t="s">
         <v>371</v>
       </c>
-      <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>237</v>
       </c>
@@ -12256,14 +12271,14 @@
       <c r="F237" t="s">
         <v>132</v>
       </c>
-      <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K237" s="1"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J237" s="1"/>
+      <c r="K237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>238</v>
       </c>
@@ -12282,12 +12297,12 @@
       <c r="F238" t="s">
         <v>847</v>
       </c>
-      <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>239</v>
       </c>
@@ -12306,14 +12321,14 @@
       <c r="F239" t="s">
         <v>28</v>
       </c>
-      <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
-      <c r="K239" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="1"/>
+      <c r="L239" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>240</v>
       </c>
@@ -12332,14 +12347,14 @@
       <c r="F240" t="s">
         <v>854</v>
       </c>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K240" s="1"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>241</v>
       </c>
@@ -12358,14 +12373,14 @@
       <c r="F241" t="s">
         <v>571</v>
       </c>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>242</v>
       </c>
@@ -12384,14 +12399,14 @@
       <c r="F242" t="s">
         <v>165</v>
       </c>
-      <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
-      <c r="K242" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="1"/>
+      <c r="L242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>243</v>
       </c>
@@ -12410,16 +12425,16 @@
       <c r="F243" t="s">
         <v>616</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I243" s="1"/>
+      <c r="I243" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J243" s="1"/>
-      <c r="K243" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K243" s="1"/>
+      <c r="L243" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>244</v>
       </c>
@@ -12438,16 +12453,16 @@
       <c r="F244" t="s">
         <v>867</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I244" s="1"/>
+      <c r="I244" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J244" s="1"/>
-      <c r="K244" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="1"/>
+      <c r="L244" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>245</v>
       </c>
@@ -12466,16 +12481,16 @@
       <c r="F245" t="s">
         <v>239</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I245" s="1"/>
+      <c r="I245" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J245" s="1"/>
-      <c r="K245" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K245" s="1"/>
+      <c r="L245" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>246</v>
       </c>
@@ -12494,16 +12509,16 @@
       <c r="F246" t="s">
         <v>117</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I246" s="1"/>
+      <c r="I246" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J246" s="1"/>
-      <c r="K246" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="1"/>
+      <c r="L246" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>247</v>
       </c>
@@ -12522,16 +12537,16 @@
       <c r="F247" t="s">
         <v>63</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I247" s="1"/>
+      <c r="I247" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J247" s="1"/>
-      <c r="K247" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K247" s="1"/>
+      <c r="L247" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>248</v>
       </c>
@@ -12550,16 +12565,16 @@
       <c r="F248" t="s">
         <v>165</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I248" s="1"/>
+      <c r="I248" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J248" s="1"/>
-      <c r="K248" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="1"/>
+      <c r="L248" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>249</v>
       </c>
@@ -12578,16 +12593,16 @@
       <c r="F249" t="s">
         <v>883</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I249" s="1"/>
+      <c r="I249" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J249" s="1"/>
-      <c r="K249" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K249" s="1"/>
+      <c r="L249" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>250</v>
       </c>
@@ -12606,12 +12621,12 @@
       <c r="F250" t="s">
         <v>75</v>
       </c>
-      <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250" s="1"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>251</v>
       </c>
@@ -12627,12 +12642,12 @@
       <c r="E251" t="s">
         <v>889</v>
       </c>
-      <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251" s="1"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>252</v>
       </c>
@@ -12651,12 +12666,12 @@
       <c r="F252" t="s">
         <v>63</v>
       </c>
-      <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>253</v>
       </c>
@@ -12675,14 +12690,14 @@
       <c r="F253" t="s">
         <v>235</v>
       </c>
-      <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J253" s="1"/>
+      <c r="K253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>254</v>
       </c>
@@ -12701,12 +12716,12 @@
       <c r="F254" t="s">
         <v>495</v>
       </c>
-      <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>255</v>
       </c>
@@ -12725,12 +12740,12 @@
       <c r="F255" t="s">
         <v>351</v>
       </c>
-      <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>256</v>
       </c>
@@ -12749,12 +12764,12 @@
       <c r="F256" t="s">
         <v>75</v>
       </c>
-      <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>257</v>
       </c>
@@ -12773,16 +12788,16 @@
       <c r="F257" t="s">
         <v>175</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I257" s="1"/>
+      <c r="I257" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J257" s="1"/>
-      <c r="K257" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K257" s="1"/>
+      <c r="L257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>258</v>
       </c>
@@ -12801,16 +12816,16 @@
       <c r="F258" t="s">
         <v>204</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I258" s="1"/>
+      <c r="I258" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J258" s="1"/>
-      <c r="K258" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K258" s="1"/>
+      <c r="L258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>259</v>
       </c>
@@ -12829,16 +12844,16 @@
       <c r="F259" t="s">
         <v>117</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I259" s="1"/>
+      <c r="I259" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J259" s="1"/>
-      <c r="K259" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K259" s="1"/>
+      <c r="L259" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>260</v>
       </c>
@@ -12857,16 +12872,16 @@
       <c r="F260" t="s">
         <v>197</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I260" s="1"/>
+      <c r="I260" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J260" s="1"/>
-      <c r="K260" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="1"/>
+      <c r="L260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>261</v>
       </c>
@@ -12885,16 +12900,16 @@
       <c r="F261" t="s">
         <v>28</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I261" s="1"/>
+      <c r="I261" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J261" s="1"/>
-      <c r="K261" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K261" s="1"/>
+      <c r="L261" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>262</v>
       </c>
@@ -12913,14 +12928,14 @@
       <c r="F262" t="s">
         <v>616</v>
       </c>
-      <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
-      <c r="K262" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K262" s="1"/>
+      <c r="L262" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>263</v>
       </c>
@@ -12939,14 +12954,14 @@
       <c r="F263" t="s">
         <v>1618</v>
       </c>
-      <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J263" s="1"/>
+      <c r="K263" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>264</v>
       </c>
@@ -12965,14 +12980,14 @@
       <c r="F264" t="s">
         <v>1619</v>
       </c>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K264" s="1"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>265</v>
       </c>
@@ -12991,14 +13006,14 @@
       <c r="F265" t="s">
         <v>1620</v>
       </c>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K265" s="1"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="1"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>266</v>
       </c>
@@ -13017,14 +13032,14 @@
       <c r="F266" t="s">
         <v>1898</v>
       </c>
-      <c r="H266" s="1"/>
-      <c r="I266" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K266" s="1"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>267</v>
       </c>
@@ -13043,14 +13058,14 @@
       <c r="F267" t="s">
         <v>936</v>
       </c>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K267" s="1"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="1"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>268</v>
       </c>
@@ -13069,14 +13084,14 @@
       <c r="F268" t="s">
         <v>1621</v>
       </c>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>269</v>
       </c>
@@ -13095,14 +13110,14 @@
       <c r="F269" t="s">
         <v>1622</v>
       </c>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K269" s="1"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="1"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>270</v>
       </c>
@@ -13121,14 +13136,14 @@
       <c r="F270" t="s">
         <v>1623</v>
       </c>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K270" s="1"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>271</v>
       </c>
@@ -13147,14 +13162,14 @@
       <c r="F271" t="s">
         <v>1624</v>
       </c>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K271" s="1"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271" s="1"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>272</v>
       </c>
@@ -13173,14 +13188,14 @@
       <c r="F272" t="s">
         <v>1625</v>
       </c>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K272" s="1"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272" s="1"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>273</v>
       </c>
@@ -13199,14 +13214,14 @@
       <c r="F273" t="s">
         <v>1626</v>
       </c>
-      <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
-      <c r="K273" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K273" s="1"/>
+      <c r="L273" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>274</v>
       </c>
@@ -13225,14 +13240,14 @@
       <c r="F274" t="s">
         <v>1627</v>
       </c>
-      <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
-      <c r="K274" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="1"/>
+      <c r="L274" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>275</v>
       </c>
@@ -13251,16 +13266,16 @@
       <c r="F275" t="s">
         <v>1628</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I275" s="1"/>
+      <c r="I275" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J275" s="1"/>
-      <c r="K275" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K275" s="1"/>
+      <c r="L275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>276</v>
       </c>
@@ -13279,14 +13294,14 @@
       <c r="F276" t="s">
         <v>1900</v>
       </c>
-      <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J276" s="1"/>
+      <c r="K276" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>277</v>
       </c>
@@ -13305,12 +13320,12 @@
       <c r="F277" t="s">
         <v>1629</v>
       </c>
-      <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277" s="1"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>278</v>
       </c>
@@ -13329,14 +13344,14 @@
       <c r="F278" t="s">
         <v>1630</v>
       </c>
-      <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
-      <c r="K278" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K278" s="1"/>
+      <c r="L278" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>279</v>
       </c>
@@ -13355,12 +13370,12 @@
       <c r="F279" t="s">
         <v>1631</v>
       </c>
-      <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279" s="1"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>280</v>
       </c>
@@ -13379,12 +13394,12 @@
       <c r="F280" t="s">
         <v>1632</v>
       </c>
-      <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>281</v>
       </c>
@@ -13403,14 +13418,14 @@
       <c r="F281" t="s">
         <v>1633</v>
       </c>
-      <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K281" s="1"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J281" s="1"/>
+      <c r="K281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>282</v>
       </c>
@@ -13429,14 +13444,14 @@
       <c r="F282" t="s">
         <v>1634</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I282" s="1"/>
+      <c r="I282" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>283</v>
       </c>
@@ -13455,14 +13470,14 @@
       <c r="F283" t="s">
         <v>1901</v>
       </c>
-      <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
-      <c r="K283" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K283" s="1"/>
+      <c r="L283" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>284</v>
       </c>
@@ -13481,16 +13496,16 @@
       <c r="F284" t="s">
         <v>1902</v>
       </c>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I284" s="1"/>
+      <c r="J284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>285</v>
       </c>
@@ -13509,14 +13524,14 @@
       <c r="F285" t="s">
         <v>1635</v>
       </c>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K285" s="1"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285" s="1"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>286</v>
       </c>
@@ -13535,12 +13550,12 @@
       <c r="F286" t="s">
         <v>1903</v>
       </c>
-      <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286" s="1"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>287</v>
       </c>
@@ -13559,12 +13574,12 @@
       <c r="F287" t="s">
         <v>1637</v>
       </c>
-      <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287" s="1"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>288</v>
       </c>
@@ -13583,16 +13598,16 @@
       <c r="F288" t="s">
         <v>1638</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I288" s="1"/>
+      <c r="I288" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J288" s="1"/>
-      <c r="K288" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="1"/>
+      <c r="L288" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>289</v>
       </c>
@@ -13611,14 +13626,14 @@
       <c r="F289" t="s">
         <v>1639</v>
       </c>
-      <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K289" s="1"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J289" s="1"/>
+      <c r="K289" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="1"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>290</v>
       </c>
@@ -13637,14 +13652,14 @@
       <c r="F290" t="s">
         <v>1640</v>
       </c>
-      <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
-      <c r="K290" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K290" s="1"/>
+      <c r="L290" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>291</v>
       </c>
@@ -13663,14 +13678,14 @@
       <c r="F291" t="s">
         <v>1641</v>
       </c>
-      <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
-      <c r="K291" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="1"/>
+      <c r="L291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>292</v>
       </c>
@@ -13689,14 +13704,14 @@
       <c r="F292" t="s">
         <v>1642</v>
       </c>
-      <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
-      <c r="K292" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="1"/>
+      <c r="L292" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>293</v>
       </c>
@@ -13715,14 +13730,14 @@
       <c r="F293" t="s">
         <v>1643</v>
       </c>
-      <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
-      <c r="K293" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K293" s="1"/>
+      <c r="L293" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>294</v>
       </c>
@@ -13741,14 +13756,14 @@
       <c r="F294" t="s">
         <v>1644</v>
       </c>
-      <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
-      <c r="K294" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K294" s="1"/>
+      <c r="L294" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>295</v>
       </c>
@@ -13767,16 +13782,16 @@
       <c r="F295" t="s">
         <v>1645</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I295" s="1"/>
+      <c r="I295" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J295" s="1"/>
-      <c r="K295" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="1"/>
+      <c r="L295" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>296</v>
       </c>
@@ -13795,16 +13810,16 @@
       <c r="F296" t="s">
         <v>1904</v>
       </c>
-      <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J296" s="1"/>
       <c r="K296" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>297</v>
       </c>
@@ -13823,14 +13838,14 @@
       <c r="F297" t="s">
         <v>1646</v>
       </c>
-      <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K297" s="1"/>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J297" s="1"/>
+      <c r="K297" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>298</v>
       </c>
@@ -13849,12 +13864,12 @@
       <c r="F298" t="s">
         <v>1647</v>
       </c>
-      <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298" s="1"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>299</v>
       </c>
@@ -13873,12 +13888,12 @@
       <c r="F299" t="s">
         <v>1905</v>
       </c>
-      <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299" s="1"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>300</v>
       </c>
@@ -13897,12 +13912,12 @@
       <c r="F300" t="s">
         <v>1648</v>
       </c>
-      <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300" s="1"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>301</v>
       </c>
@@ -13921,12 +13936,12 @@
       <c r="F301" t="s">
         <v>1906</v>
       </c>
-      <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301" s="1"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>302</v>
       </c>
@@ -13945,12 +13960,12 @@
       <c r="F302" t="s">
         <v>1649</v>
       </c>
-      <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302" s="1"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>303</v>
       </c>
@@ -13969,12 +13984,12 @@
       <c r="F303" t="s">
         <v>1650</v>
       </c>
-      <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303" s="1"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>304</v>
       </c>
@@ -13993,12 +14008,12 @@
       <c r="F304" t="s">
         <v>1651</v>
       </c>
-      <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304" s="1"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>305</v>
       </c>
@@ -14017,14 +14032,14 @@
       <c r="F305" t="s">
         <v>1652</v>
       </c>
-      <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K305" s="1"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J305" s="1"/>
+      <c r="K305" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>306</v>
       </c>
@@ -14043,12 +14058,12 @@
       <c r="F306" t="s">
         <v>1925</v>
       </c>
-      <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306" s="1"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>307</v>
       </c>
@@ -14067,12 +14082,12 @@
       <c r="F307" t="s">
         <v>1653</v>
       </c>
-      <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307" s="1"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>308</v>
       </c>
@@ -14091,12 +14106,12 @@
       <c r="F308" t="s">
         <v>1654</v>
       </c>
-      <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308" s="1"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>309</v>
       </c>
@@ -14115,14 +14130,14 @@
       <c r="F309" t="s">
         <v>1655</v>
       </c>
-      <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K309" s="1"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J309" s="1"/>
+      <c r="K309" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L309" s="1"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>310</v>
       </c>
@@ -14141,14 +14156,14 @@
       <c r="F310" t="s">
         <v>1656</v>
       </c>
-      <c r="H310" s="1"/>
-      <c r="I310" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K310" s="1"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310" s="1"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>311</v>
       </c>
@@ -14167,12 +14182,12 @@
       <c r="F311" t="s">
         <v>767</v>
       </c>
-      <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311" s="1"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>312</v>
       </c>
@@ -14191,12 +14206,12 @@
       <c r="F312" t="s">
         <v>1657</v>
       </c>
-      <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312" s="1"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>313</v>
       </c>
@@ -14215,14 +14230,14 @@
       <c r="F313" t="s">
         <v>1650</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I313" s="1"/>
+      <c r="I313" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313" s="1"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>314</v>
       </c>
@@ -14241,12 +14256,12 @@
       <c r="F314" t="s">
         <v>1658</v>
       </c>
-      <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314" s="1"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>315</v>
       </c>
@@ -14265,12 +14280,12 @@
       <c r="F315" t="s">
         <v>1659</v>
       </c>
-      <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315" s="1"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>316</v>
       </c>
@@ -14289,14 +14304,14 @@
       <c r="F316" t="s">
         <v>1660</v>
       </c>
-      <c r="H316" s="1"/>
-      <c r="I316" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K316" s="1"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316" s="1"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>317</v>
       </c>
@@ -14315,12 +14330,12 @@
       <c r="F317" t="s">
         <v>1907</v>
       </c>
-      <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317" s="1"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>318</v>
       </c>
@@ -14339,16 +14354,16 @@
       <c r="F318" t="s">
         <v>1661</v>
       </c>
-      <c r="H318" s="1"/>
-      <c r="I318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J318" s="1"/>
-      <c r="K318" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I318" s="1"/>
+      <c r="J318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>319</v>
       </c>
@@ -14367,18 +14382,18 @@
       <c r="F319" t="s">
         <v>1656</v>
       </c>
-      <c r="H319" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I319" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J319" s="1"/>
-      <c r="K319" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>320</v>
       </c>
@@ -14397,16 +14412,16 @@
       <c r="F320" t="s">
         <v>1662</v>
       </c>
-      <c r="H320" s="1"/>
-      <c r="I320" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J320" s="1"/>
-      <c r="K320" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I320" s="1"/>
+      <c r="J320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>321</v>
       </c>
@@ -14425,12 +14440,12 @@
       <c r="F321" t="s">
         <v>1663</v>
       </c>
-      <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L321" s="1"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>322</v>
       </c>
@@ -14449,14 +14464,14 @@
       <c r="F322" t="s">
         <v>1664</v>
       </c>
-      <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K322" s="1"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J322" s="1"/>
+      <c r="K322" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L322" s="1"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>323</v>
       </c>
@@ -14475,12 +14490,12 @@
       <c r="F323" t="s">
         <v>1665</v>
       </c>
-      <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L323" s="1"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>324</v>
       </c>
@@ -14499,16 +14514,16 @@
       <c r="F324" t="s">
         <v>1640</v>
       </c>
-      <c r="H324" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I324" s="1"/>
+      <c r="I324" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J324" s="1"/>
-      <c r="K324" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K324" s="1"/>
+      <c r="L324" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>325</v>
       </c>
@@ -14527,16 +14542,16 @@
       <c r="F325" t="s">
         <v>1908</v>
       </c>
-      <c r="H325" s="1"/>
-      <c r="I325" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I325" s="1"/>
       <c r="J325" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="1"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>326</v>
       </c>
@@ -14555,12 +14570,12 @@
       <c r="F326" t="s">
         <v>1666</v>
       </c>
-      <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L326" s="1"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>327</v>
       </c>
@@ -14579,12 +14594,12 @@
       <c r="F327" t="s">
         <v>1667</v>
       </c>
-      <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L327" s="1"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>328</v>
       </c>
@@ -14603,12 +14618,12 @@
       <c r="F328" t="s">
         <v>1668</v>
       </c>
-      <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328" s="1"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>329</v>
       </c>
@@ -14627,16 +14642,16 @@
       <c r="F329" t="s">
         <v>1669</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I329" s="1"/>
+      <c r="I329" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J329" s="1"/>
-      <c r="K329" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K329" s="1"/>
+      <c r="L329" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>330</v>
       </c>
@@ -14655,16 +14670,16 @@
       <c r="F330" t="s">
         <v>1670</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I330" s="1"/>
+      <c r="I330" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J330" s="1"/>
-      <c r="K330" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K330" s="1"/>
+      <c r="L330" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>331</v>
       </c>
@@ -14683,16 +14698,16 @@
       <c r="F331" t="s">
         <v>1671</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I331" s="1"/>
+      <c r="I331" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J331" s="1"/>
-      <c r="K331" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K331" s="1"/>
+      <c r="L331" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>332</v>
       </c>
@@ -14711,16 +14726,16 @@
       <c r="F332" t="s">
         <v>1672</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I332" s="1"/>
+      <c r="I332" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J332" s="1"/>
-      <c r="K332" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K332" s="1"/>
+      <c r="L332" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>333</v>
       </c>
@@ -14739,16 +14754,16 @@
       <c r="F333" t="s">
         <v>1673</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I333" s="1"/>
+      <c r="I333" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J333" s="1"/>
-      <c r="K333" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K333" s="1"/>
+      <c r="L333" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>334</v>
       </c>
@@ -14767,12 +14782,12 @@
       <c r="F334" t="s">
         <v>1652</v>
       </c>
-      <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L334" s="1"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>335</v>
       </c>
@@ -14791,14 +14806,14 @@
       <c r="F335" t="s">
         <v>1909</v>
       </c>
-      <c r="H335" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I335" s="1"/>
+      <c r="I335" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L335" s="1"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>336</v>
       </c>
@@ -14817,14 +14832,14 @@
       <c r="F336" t="s">
         <v>1674</v>
       </c>
-      <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
-      <c r="K336" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K336" s="1"/>
+      <c r="L336" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>337</v>
       </c>
@@ -14843,14 +14858,14 @@
       <c r="F337" t="s">
         <v>1675</v>
       </c>
-      <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
-      <c r="K337" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K337" s="1"/>
+      <c r="L337" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>338</v>
       </c>
@@ -14869,14 +14884,14 @@
       <c r="F338" t="s">
         <v>1676</v>
       </c>
-      <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
-      <c r="K338" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K338" s="1"/>
+      <c r="L338" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>339</v>
       </c>
@@ -14895,12 +14910,12 @@
       <c r="F339" t="s">
         <v>1677</v>
       </c>
-      <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L339" s="1"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>340</v>
       </c>
@@ -14919,16 +14934,16 @@
       <c r="F340" t="s">
         <v>1678</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I340" s="1"/>
+      <c r="I340" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J340" s="1"/>
-      <c r="K340" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K340" s="1"/>
+      <c r="L340" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>341</v>
       </c>
@@ -14947,14 +14962,14 @@
       <c r="F341" t="s">
         <v>1679</v>
       </c>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K341" s="1"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341" s="1"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>342</v>
       </c>
@@ -14973,14 +14988,14 @@
       <c r="F342" t="s">
         <v>1680</v>
       </c>
-      <c r="H342" s="1"/>
-      <c r="I342" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K342" s="1"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L342" s="1"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>343</v>
       </c>
@@ -14999,12 +15014,12 @@
       <c r="F343" t="s">
         <v>1681</v>
       </c>
-      <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L343" s="1"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>344</v>
       </c>
@@ -15023,12 +15038,12 @@
       <c r="F344" t="s">
         <v>1682</v>
       </c>
-      <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L344" s="1"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>345</v>
       </c>
@@ -15047,12 +15062,12 @@
       <c r="F345" t="s">
         <v>1683</v>
       </c>
-      <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L345" s="1"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>346</v>
       </c>
@@ -15071,12 +15086,12 @@
       <c r="F346" t="s">
         <v>1684</v>
       </c>
-      <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346" s="1"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>347</v>
       </c>
@@ -15095,16 +15110,16 @@
       <c r="F347" t="s">
         <v>1685</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I347" s="1"/>
+      <c r="I347" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J347" s="1"/>
-      <c r="K347" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K347" s="1"/>
+      <c r="L347" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>348</v>
       </c>
@@ -15123,14 +15138,14 @@
       <c r="F348" t="s">
         <v>1686</v>
       </c>
-      <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K348" s="1"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J348" s="1"/>
+      <c r="K348" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L348" s="1"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>349</v>
       </c>
@@ -15149,18 +15164,18 @@
       <c r="F349" t="s">
         <v>1687</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J349" s="1"/>
       <c r="K349" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>350</v>
       </c>
@@ -15179,12 +15194,12 @@
       <c r="F350" t="s">
         <v>1911</v>
       </c>
-      <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L350" s="1"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>351</v>
       </c>
@@ -15203,14 +15218,14 @@
       <c r="F351" t="s">
         <v>1688</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I351" s="1"/>
+      <c r="I351" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L351" s="1"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>352</v>
       </c>
@@ -15229,12 +15244,12 @@
       <c r="F352" t="s">
         <v>1689</v>
       </c>
-      <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L352" s="1"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>353</v>
       </c>
@@ -15253,18 +15268,18 @@
       <c r="F353" t="s">
         <v>1690</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I353" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>354</v>
       </c>
@@ -15283,16 +15298,16 @@
       <c r="F354" t="s">
         <v>1691</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I354" s="1"/>
+      <c r="I354" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J354" s="1"/>
-      <c r="K354" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="1"/>
+      <c r="L354" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>355</v>
       </c>
@@ -15311,16 +15326,16 @@
       <c r="F355" t="s">
         <v>1692</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I355" s="1"/>
+      <c r="I355" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J355" s="1"/>
-      <c r="K355" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="1"/>
+      <c r="L355" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>356</v>
       </c>
@@ -15339,16 +15354,16 @@
       <c r="F356" t="s">
         <v>1912</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K356" s="1"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I356" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="1"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>357</v>
       </c>
@@ -15367,14 +15382,14 @@
       <c r="F357" t="s">
         <v>1913</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I357" s="1"/>
+      <c r="I357" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L357" s="1"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>358</v>
       </c>
@@ -15394,7 +15409,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>359</v>
       </c>
@@ -15414,7 +15429,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>360</v>
       </c>
@@ -15434,7 +15449,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>361</v>
       </c>
@@ -15454,7 +15469,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>362</v>
       </c>
@@ -15474,7 +15489,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>363</v>
       </c>
@@ -15494,7 +15509,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>364</v>
       </c>
@@ -15514,7 +15529,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>365</v>
       </c>
@@ -15534,7 +15549,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>366</v>
       </c>
@@ -15554,7 +15569,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>367</v>
       </c>
@@ -15574,7 +15589,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>368</v>
       </c>
